--- a/data/IEEE9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AF6EBA-B72E-4F9B-9D4C-191EEB95B856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67980E80-A940-4962-BE29-6A602AA33C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13004,7 +13004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -13089,7 +13089,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Y9"/>
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67980E80-A940-4962-BE29-6A602AA33C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9771CE-621A-4F7B-90B7-BDA0B72533EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13089,7 +13089,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27072,7 +27072,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27236,76 +27236,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9771CE-621A-4F7B-90B7-BDA0B72533EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B0C821-4DD1-48FC-A025-0FB25DD99485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4336,7 +4336,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>22.963761824135226</v>
+        <v>7.6545872747117425</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>21.221859957461099</v>
+        <v>7.0739533191537003</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>22.468438164670324</v>
+        <v>7.4894793882234412</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>22.37059792342998</v>
+        <v>7.4568659744766599</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>18.417961491100414</v>
+        <v>6.1393204970334709</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>18.681231389230945</v>
+        <v>6.2270771297436482</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>18.721395387887608</v>
+        <v>6.2404651292958686</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>16.812230213813947</v>
+        <v>5.6040767379379819</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>15.183340283219525</v>
+        <v>5.0611134277398424</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>10.975385648718234</v>
+        <v>3.658461882906078</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>10.123126049479458</v>
+        <v>3.3743753498264857</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>6.7915593865442743</v>
+        <v>2.2638531288480914</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>5.6446418476435687</v>
+        <v>1.8815472825478563</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>5.4045967200268663</v>
+        <v>1.8015322400089555</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>7.4979291671331021</v>
+        <v>2.4993097223777005</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>10.142956803425498</v>
+        <v>3.3809856011418327</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>11.340379071980298</v>
+        <v>3.7801263573267661</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>15.574943677935746</v>
+        <v>5.191647892645249</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>14.166642785178549</v>
+        <v>4.7222142617261831</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>13.467634053509459</v>
+        <v>4.4892113511698195</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>17.770202409604838</v>
+        <v>5.9234008032016128</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>21.253798975708047</v>
+        <v>7.0845996585693491</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>20.094182525467367</v>
+        <v>6.6980608418224561</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>28.562350833986343</v>
+        <v>9.5207836113287811</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>22.963761824135226</v>
+        <v>7.6545872747117425</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>21.221859957461099</v>
+        <v>7.0739533191537003</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>22.468438164670324</v>
+        <v>7.4894793882234412</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>22.37059792342998</v>
+        <v>7.4568659744766599</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>18.417961491100414</v>
+        <v>6.1393204970334709</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>18.681231389230945</v>
+        <v>6.2270771297436482</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>18.721395387887608</v>
+        <v>6.2404651292958686</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>16.812230213813947</v>
+        <v>5.6040767379379819</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>15.183340283219525</v>
+        <v>5.0611134277398424</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>10.975385648718234</v>
+        <v>3.658461882906078</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>10.123126049479458</v>
+        <v>3.3743753498264857</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>6.7915593865442743</v>
+        <v>2.2638531288480914</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>5.6446418476435687</v>
+        <v>1.8815472825478563</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>5.4045967200268663</v>
+        <v>1.8015322400089555</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>7.4979291671331021</v>
+        <v>2.4993097223777005</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>10.142956803425498</v>
+        <v>3.3809856011418327</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>11.340379071980298</v>
+        <v>3.7801263573267661</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>15.574943677935746</v>
+        <v>5.191647892645249</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>14.166642785178549</v>
+        <v>4.7222142617261831</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>13.467634053509459</v>
+        <v>4.4892113511698195</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>17.770202409604838</v>
+        <v>5.9234008032016128</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>21.253798975708047</v>
+        <v>7.0845996585693491</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>20.094182525467367</v>
+        <v>6.6980608418224561</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>28.562350833986343</v>
+        <v>9.5207836113287811</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>22.963761824135226</v>
+        <v>7.6545872747117425</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>21.221859957461099</v>
+        <v>7.0739533191537003</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>22.468438164670324</v>
+        <v>7.4894793882234412</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>22.37059792342998</v>
+        <v>7.4568659744766599</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>18.417961491100414</v>
+        <v>6.1393204970334709</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>18.681231389230945</v>
+        <v>6.2270771297436482</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>18.721395387887608</v>
+        <v>6.2404651292958686</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>16.812230213813947</v>
+        <v>5.6040767379379819</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>15.183340283219525</v>
+        <v>5.0611134277398424</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>10.975385648718234</v>
+        <v>3.658461882906078</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>10.123126049479458</v>
+        <v>3.3743753498264857</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>6.7915593865442743</v>
+        <v>2.2638531288480914</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>5.6446418476435687</v>
+        <v>1.8815472825478563</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>5.4045967200268663</v>
+        <v>1.8015322400089555</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>7.4979291671331021</v>
+        <v>2.4993097223777005</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>10.142956803425498</v>
+        <v>3.3809856011418327</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>11.340379071980298</v>
+        <v>3.7801263573267661</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>15.574943677935746</v>
+        <v>5.191647892645249</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>14.166642785178549</v>
+        <v>4.7222142617261831</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>13.467634053509459</v>
+        <v>4.4892113511698195</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>17.770202409604838</v>
+        <v>5.9234008032016128</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>21.253798975708047</v>
+        <v>7.0845996585693491</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>20.094182525467367</v>
+        <v>6.6980608418224561</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>28.562350833986343</v>
+        <v>9.5207836113287811</v>
       </c>
     </row>
   </sheetData>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>31.166737702930369</v>
+        <v>10.388912567643457</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>27.406477467071674</v>
+        <v>9.1354924890238927</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>22.556308868950367</v>
+        <v>7.5187696229834557</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>19.527402874208697</v>
+        <v>6.5091342914028987</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>6.0684263005411481</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>14.578511333469471</v>
+        <v>4.8595037778231571</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>14.193686440677965</v>
+        <v>4.7312288135593219</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>12.868364304676332</v>
+        <v>4.2894547682254442</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>13.263336481519296</v>
+        <v>4.4211121605064321</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>14.027494511946092</v>
+        <v>4.6758315039820308</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>14.040454008831937</v>
+        <v>4.6801513362773122</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>16.457379071370227</v>
+        <v>5.4857930237900749</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>16.464543279048396</v>
+        <v>5.4881810930161317</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>16.693001901674496</v>
+        <v>5.5643339672248313</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>18.797391419491529</v>
+        <v>6.265797139830509</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>15.517432611803146</v>
+        <v>5.1724775372677154</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>16.074636703594035</v>
+        <v>5.3582122345313445</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>17.021084018276497</v>
+        <v>5.673694672758832</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>14.848337023943229</v>
+        <v>4.9494456746477429</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>15.379587949254647</v>
+        <v>5.1265293164182157</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>14.412154571676536</v>
+        <v>4.8040515238921788</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>13.078707371860322</v>
+        <v>4.3595691239534409</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>13.404763247906882</v>
+        <v>4.4682544159689606</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>14.658628241780683</v>
+        <v>4.8862094139268937</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>31.166737702930369</v>
+        <v>10.388912567643457</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>27.406477467071674</v>
+        <v>9.1354924890238927</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>22.556308868950367</v>
+        <v>7.5187696229834557</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>19.527402874208697</v>
+        <v>6.5091342914028987</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>6.0684263005411481</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>14.578511333469471</v>
+        <v>4.8595037778231571</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>14.193686440677965</v>
+        <v>4.7312288135593219</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>12.868364304676332</v>
+        <v>4.2894547682254442</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>13.263336481519296</v>
+        <v>4.4211121605064321</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>14.027494511946092</v>
+        <v>4.6758315039820308</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>14.040454008831937</v>
+        <v>4.6801513362773122</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>16.457379071370227</v>
+        <v>5.4857930237900749</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>16.464543279048396</v>
+        <v>5.4881810930161317</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>16.693001901674496</v>
+        <v>5.5643339672248313</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>18.797391419491529</v>
+        <v>6.265797139830509</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>15.517432611803146</v>
+        <v>5.1724775372677154</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>16.074636703594035</v>
+        <v>5.3582122345313445</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>17.021084018276497</v>
+        <v>5.673694672758832</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>14.848337023943229</v>
+        <v>4.9494456746477429</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>15.379587949254647</v>
+        <v>5.1265293164182157</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>14.412154571676536</v>
+        <v>4.8040515238921788</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>13.078707371860322</v>
+        <v>4.3595691239534409</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>13.404763247906882</v>
+        <v>4.4682544159689606</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>14.658628241780683</v>
+        <v>4.8862094139268937</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>31.166737702930369</v>
+        <v>10.388912567643457</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>27.406477467071674</v>
+        <v>9.1354924890238927</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>22.556308868950367</v>
+        <v>7.5187696229834557</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>19.527402874208697</v>
+        <v>6.5091342914028987</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>6.0684263005411481</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>14.578511333469471</v>
+        <v>4.8595037778231571</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>14.193686440677965</v>
+        <v>4.7312288135593219</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>12.868364304676332</v>
+        <v>4.2894547682254442</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>13.263336481519296</v>
+        <v>4.4211121605064321</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>14.027494511946092</v>
+        <v>4.6758315039820308</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>14.040454008831937</v>
+        <v>4.6801513362773122</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>16.457379071370227</v>
+        <v>5.4857930237900749</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>16.464543279048396</v>
+        <v>5.4881810930161317</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>16.693001901674496</v>
+        <v>5.5643339672248313</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>18.797391419491529</v>
+        <v>6.265797139830509</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>15.517432611803146</v>
+        <v>5.1724775372677154</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>16.074636703594035</v>
+        <v>5.3582122345313445</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>17.021084018276497</v>
+        <v>5.673694672758832</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>14.848337023943229</v>
+        <v>4.9494456746477429</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>15.379587949254647</v>
+        <v>5.1265293164182157</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>14.412154571676536</v>
+        <v>4.8040515238921788</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>13.078707371860322</v>
+        <v>4.3595691239534409</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>13.404763247906882</v>
+        <v>4.4682544159689606</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>14.658628241780683</v>
+        <v>4.8862094139268937</v>
       </c>
     </row>
   </sheetData>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>28.437690516375071</v>
+        <v>9.4792301721250229</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>26.430441102579298</v>
+        <v>8.8101470341931005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>28.645986691231414</v>
+        <v>9.5486622304104714</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>31.941299505269392</v>
+        <v>10.647099835089797</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>9.1071625138498788</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>23.178550465098297</v>
+        <v>7.7261834883660994</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>16.683255172769201</v>
+        <v>5.5610850575897333</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>14.851078358112808</v>
+        <v>4.9503594527042694</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>15.151995928779405</v>
+        <v>5.0506653095931346</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>14.811578564250558</v>
+        <v>4.9371928547501858</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>14.983408552139966</v>
+        <v>4.9944695173799891</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>15.759942925610037</v>
+        <v>5.2533143085366794</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>14.416048983483213</v>
+        <v>4.8053496611610704</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>13.892018249632814</v>
+        <v>4.630672749877605</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>19.034817954598157</v>
+        <v>6.3449393181993861</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>24.797514429642604</v>
+        <v>8.2658381432142018</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>25.317529439047643</v>
+        <v>8.4391764796825477</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>25.774830967043727</v>
+        <v>8.5916103223479077</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>26.485583756345179</v>
+        <v>8.8285279187817274</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>9.3134876897111489</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>27.557325620345793</v>
+        <v>9.1857752067819316</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>26.968436573990569</v>
+        <v>8.9894788579968559</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>25.822705139271818</v>
+        <v>8.6075683797572733</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>23.816744247468371</v>
+        <v>7.9389147491561243</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>28.437690516375071</v>
+        <v>9.4792301721250229</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>26.430441102579298</v>
+        <v>8.8101470341931005</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>28.645986691231414</v>
+        <v>9.5486622304104714</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>31.941299505269392</v>
+        <v>10.647099835089797</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>9.1071625138498788</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>23.178550465098297</v>
+        <v>7.7261834883660994</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>16.683255172769201</v>
+        <v>5.5610850575897333</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>14.851078358112808</v>
+        <v>4.9503594527042694</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>15.151995928779405</v>
+        <v>5.0506653095931346</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>14.811578564250558</v>
+        <v>4.9371928547501858</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>14.983408552139966</v>
+        <v>4.9944695173799891</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>15.759942925610037</v>
+        <v>5.2533143085366794</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>14.416048983483213</v>
+        <v>4.8053496611610704</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>13.892018249632814</v>
+        <v>4.630672749877605</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>19.034817954598157</v>
+        <v>6.3449393181993861</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>24.797514429642604</v>
+        <v>8.2658381432142018</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>25.317529439047643</v>
+        <v>8.4391764796825477</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>25.774830967043727</v>
+        <v>8.5916103223479077</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>26.485583756345179</v>
+        <v>8.8285279187817274</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>9.3134876897111489</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>27.557325620345793</v>
+        <v>9.1857752067819316</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>26.968436573990569</v>
+        <v>8.9894788579968559</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>25.822705139271818</v>
+        <v>8.6075683797572733</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>23.816744247468371</v>
+        <v>7.9389147491561243</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>28.437690516375071</v>
+        <v>9.4792301721250229</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>26.430441102579298</v>
+        <v>8.8101470341931005</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>28.645986691231414</v>
+        <v>9.5486622304104714</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>31.941299505269392</v>
+        <v>10.647099835089797</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>9.1071625138498788</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>23.178550465098297</v>
+        <v>7.7261834883660994</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>16.683255172769201</v>
+        <v>5.5610850575897333</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>14.851078358112808</v>
+        <v>4.9503594527042694</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>15.151995928779405</v>
+        <v>5.0506653095931346</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>14.811578564250558</v>
+        <v>4.9371928547501858</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>14.983408552139966</v>
+        <v>4.9944695173799891</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>15.759942925610037</v>
+        <v>5.2533143085366794</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>14.416048983483213</v>
+        <v>4.8053496611610704</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>13.892018249632814</v>
+        <v>4.630672749877605</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>19.034817954598157</v>
+        <v>6.3449393181993861</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>24.797514429642604</v>
+        <v>8.2658381432142018</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>25.317529439047643</v>
+        <v>8.4391764796825477</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>25.774830967043727</v>
+        <v>8.5916103223479077</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>26.485583756345179</v>
+        <v>8.8285279187817274</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>9.3134876897111489</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>27.557325620345793</v>
+        <v>9.1857752067819316</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>26.968436573990569</v>
+        <v>8.9894788579968559</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>25.822705139271818</v>
+        <v>8.6075683797572733</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>23.816744247468371</v>
+        <v>7.9389147491561243</v>
       </c>
     </row>
   </sheetData>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -13089,7 +13089,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>17.682096604584125</v>
+        <v>5.8940322015280415</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>15.916394968095826</v>
+        <v>5.3054649893652757</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>16.401959860209338</v>
+        <v>5.4673199534031127</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>16.106830504869585</v>
+        <v>5.3689435016231952</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>13.813471118325308</v>
+        <v>4.6044903727751025</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>13.076861972461662</v>
+        <v>4.3589539908205541</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>14.415474448673457</v>
+        <v>4.8051581495578191</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>13.113539566774877</v>
+        <v>4.3711798555916257</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>10.780171601085865</v>
+        <v>3.5933905336952883</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>7.7925238105899455</v>
+        <v>2.5975079368633152</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>7.9972695790887709</v>
+        <v>2.6657565263629239</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>4.9578383521773199</v>
+        <v>1.6526127840591067</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>4.0641421303033693</v>
+        <v>1.3547140434344564</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>4.3236773760214922</v>
+        <v>1.4412257920071641</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>5.7734054586924888</v>
+        <v>1.9244684862308294</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>7.3029288984663587</v>
+        <v>2.4343096328221194</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>8.6186880947050266</v>
+        <v>2.8728960315683425</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>11.836957195231166</v>
+        <v>3.9456523984103891</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>10.766648516735698</v>
+        <v>3.5888828389118994</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>9.562020177991716</v>
+        <v>3.1873400593305719</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>14.216161927683871</v>
+        <v>4.7387206425612902</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>15.302735262509795</v>
+        <v>5.1009117541699318</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>14.869695068845852</v>
+        <v>4.9565650229486176</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>21.707386633829621</v>
+        <v>7.2357955446098741</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>17.682096604584125</v>
+        <v>5.8940322015280415</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>15.916394968095826</v>
+        <v>5.3054649893652757</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>16.401959860209338</v>
+        <v>5.4673199534031127</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>16.106830504869585</v>
+        <v>5.3689435016231952</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>13.813471118325308</v>
+        <v>4.6044903727751025</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>13.076861972461662</v>
+        <v>4.3589539908205541</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>14.415474448673457</v>
+        <v>4.8051581495578191</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>13.113539566774877</v>
+        <v>4.3711798555916257</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>10.780171601085865</v>
+        <v>3.5933905336952883</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>7.7925238105899455</v>
+        <v>2.5975079368633152</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>7.9972695790887709</v>
+        <v>2.6657565263629239</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>4.9578383521773199</v>
+        <v>1.6526127840591067</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>4.0641421303033693</v>
+        <v>1.3547140434344564</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>4.3236773760214922</v>
+        <v>1.4412257920071641</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>5.7734054586924888</v>
+        <v>1.9244684862308294</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>7.3029288984663587</v>
+        <v>2.4343096328221194</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>8.6186880947050266</v>
+        <v>2.8728960315683425</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>11.836957195231166</v>
+        <v>3.9456523984103891</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>10.766648516735698</v>
+        <v>3.5888828389118994</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>9.562020177991716</v>
+        <v>3.1873400593305719</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>14.216161927683871</v>
+        <v>4.7387206425612902</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>15.302735262509795</v>
+        <v>5.1009117541699318</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>14.869695068845852</v>
+        <v>4.9565650229486176</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>21.707386633829621</v>
+        <v>7.2357955446098741</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>17.682096604584125</v>
+        <v>5.8940322015280415</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>15.916394968095826</v>
+        <v>5.3054649893652757</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>16.401959860209338</v>
+        <v>5.4673199534031127</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>16.106830504869585</v>
+        <v>5.3689435016231952</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>13.813471118325308</v>
+        <v>4.6044903727751025</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>13.076861972461662</v>
+        <v>4.3589539908205541</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>14.415474448673457</v>
+        <v>4.8051581495578191</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>13.113539566774877</v>
+        <v>4.3711798555916257</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>10.780171601085865</v>
+        <v>3.5933905336952883</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>7.7925238105899455</v>
+        <v>2.5975079368633152</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>7.9972695790887709</v>
+        <v>2.6657565263629239</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>4.9578383521773199</v>
+        <v>1.6526127840591067</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>4.0641421303033693</v>
+        <v>1.3547140434344564</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>4.3236773760214922</v>
+        <v>1.4412257920071641</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>5.7734054586924888</v>
+        <v>1.9244684862308294</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>7.3029288984663587</v>
+        <v>2.4343096328221194</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>8.6186880947050266</v>
+        <v>2.8728960315683425</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>11.836957195231166</v>
+        <v>3.9456523984103891</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>10.766648516735698</v>
+        <v>3.5888828389118994</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>9.562020177991716</v>
+        <v>3.1873400593305719</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>14.216161927683871</v>
+        <v>4.7387206425612902</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>15.302735262509795</v>
+        <v>5.1009117541699318</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>14.869695068845852</v>
+        <v>4.9565650229486176</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>21.707386633829621</v>
+        <v>7.2357955446098741</v>
       </c>
     </row>
   </sheetData>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>23.375053277197779</v>
+        <v>7.7916844257325932</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>19.184534226950174</v>
+        <v>6.3948447423167245</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>17.368357829091785</v>
+        <v>5.7894526096972614</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>15.231374241882785</v>
+        <v>5.0771247472942616</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>13.653959176217581</v>
+        <v>4.551319725405861</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>11.662809066775576</v>
+        <v>3.8876030222585256</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>10.929138559322032</v>
+        <v>3.6430461864406776</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>10.166007800694302</v>
+        <v>3.3886692668981007</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>9.549602266693892</v>
+        <v>3.1832007555646307</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>10.660895829079029</v>
+        <v>3.5536319430263434</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>9.968722346270674</v>
+        <v>3.3229074487568915</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>11.520165349959157</v>
+        <v>3.8400551166530525</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>12.677698324867265</v>
+        <v>4.2258994416224223</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>12.18589138822238</v>
+        <v>4.0619637960741271</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>13.910069650423731</v>
+        <v>4.6366898834745767</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>12.258771763324486</v>
+        <v>4.0862572544414952</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>11.573738426587704</v>
+        <v>3.8579128088625678</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>11.914758812793545</v>
+        <v>3.9715862709311818</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>11.433219508436284</v>
+        <v>3.8110731694787616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>11.996078600418624</v>
+        <v>3.9986928668062083</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>11.241480565907699</v>
+        <v>3.7471601886358998</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>9.5474563814580353</v>
+        <v>3.1824854604860118</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>10.723810598325505</v>
+        <v>3.5746035327751682</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>10.261039769246477</v>
+        <v>3.4203465897488257</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>23.375053277197779</v>
+        <v>7.7916844257325932</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>19.184534226950174</v>
+        <v>6.3948447423167245</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>17.368357829091785</v>
+        <v>5.7894526096972614</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>15.231374241882785</v>
+        <v>5.0771247472942616</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>13.653959176217581</v>
+        <v>4.551319725405861</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>11.662809066775576</v>
+        <v>3.8876030222585256</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>10.929138559322032</v>
+        <v>3.6430461864406776</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>10.166007800694302</v>
+        <v>3.3886692668981007</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>9.549602266693892</v>
+        <v>3.1832007555646307</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>10.660895829079029</v>
+        <v>3.5536319430263434</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>9.968722346270674</v>
+        <v>3.3229074487568915</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>11.520165349959157</v>
+        <v>3.8400551166530525</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>12.677698324867265</v>
+        <v>4.2258994416224223</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>12.18589138822238</v>
+        <v>4.0619637960741271</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>13.910069650423731</v>
+        <v>4.6366898834745767</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>12.258771763324486</v>
+        <v>4.0862572544414952</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>11.573738426587704</v>
+        <v>3.8579128088625678</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>11.914758812793545</v>
+        <v>3.9715862709311818</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>11.433219508436284</v>
+        <v>3.8110731694787616</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>11.996078600418624</v>
+        <v>3.9986928668062083</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>11.241480565907699</v>
+        <v>3.7471601886358998</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>9.5474563814580353</v>
+        <v>3.1824854604860118</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>10.723810598325505</v>
+        <v>3.5746035327751682</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>10.261039769246477</v>
+        <v>3.4203465897488257</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>23.375053277197779</v>
+        <v>7.7916844257325932</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>19.184534226950174</v>
+        <v>6.3948447423167245</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>17.368357829091785</v>
+        <v>5.7894526096972614</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>15.231374241882785</v>
+        <v>5.0771247472942616</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>13.653959176217581</v>
+        <v>4.551319725405861</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>11.662809066775576</v>
+        <v>3.8876030222585256</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>10.929138559322032</v>
+        <v>3.6430461864406776</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>10.166007800694302</v>
+        <v>3.3886692668981007</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>9.549602266693892</v>
+        <v>3.1832007555646307</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>10.660895829079029</v>
+        <v>3.5536319430263434</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>9.968722346270674</v>
+        <v>3.3229074487568915</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>11.520165349959157</v>
+        <v>3.8400551166530525</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>12.677698324867265</v>
+        <v>4.2258994416224223</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>12.18589138822238</v>
+        <v>4.0619637960741271</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>13.910069650423731</v>
+        <v>4.6366898834745767</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>12.258771763324486</v>
+        <v>4.0862572544414952</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>11.573738426587704</v>
+        <v>3.8579128088625678</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>11.914758812793545</v>
+        <v>3.9715862709311818</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>11.433219508436284</v>
+        <v>3.8110731694787616</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>11.996078600418624</v>
+        <v>3.9986928668062083</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>11.241480565907699</v>
+        <v>3.7471601886358998</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>9.5474563814580353</v>
+        <v>3.1824854604860118</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>10.723810598325505</v>
+        <v>3.5746035327751682</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>10.261039769246477</v>
+        <v>3.4203465897488257</v>
       </c>
     </row>
   </sheetData>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>20.190760266626302</v>
+        <v>6.7302534222087669</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>18.765613182831302</v>
+        <v>6.2552043942771007</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>22.630329486072817</v>
+        <v>7.543443162024273</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>22.997735643793959</v>
+        <v>7.6659118812646536</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>20.491115656162229</v>
+        <v>6.8303718853874091</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>18.079269362776671</v>
+        <v>6.0264231209255579</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>13.179771586487668</v>
+        <v>4.393257195495889</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>11.286819552165735</v>
+        <v>3.7622731840552452</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>11.66703686516014</v>
+        <v>3.8890122883867138</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>10.960568137545414</v>
+        <v>3.6535227125151377</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>11.986726841711974</v>
+        <v>3.9955756139039913</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>12.450354911231932</v>
+        <v>4.1501183037439766</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>10.235394778273081</v>
+        <v>3.4117982594243603</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>10.835774234713597</v>
+        <v>3.611924744904532</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>13.895417106856655</v>
+        <v>4.6318057022855523</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>18.102185533639101</v>
+        <v>6.0340618445463674</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>17.72227060733335</v>
+        <v>5.9074235357777836</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>19.073374915612355</v>
+        <v>6.357791638537452</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>18.539908629441626</v>
+        <v>6.1799695431472088</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>20.955347301850082</v>
+        <v>6.9851157672833617</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>21.219140727666261</v>
+        <v>7.0730469092220876</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>20.496011796232832</v>
+        <v>6.83200393207761</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>18.850574751668429</v>
+        <v>6.2835249172228096</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>18.338893070550647</v>
+        <v>6.112964356850215</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>20.190760266626302</v>
+        <v>6.7302534222087669</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>18.765613182831302</v>
+        <v>6.2552043942771007</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>22.630329486072817</v>
+        <v>7.543443162024273</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>22.997735643793959</v>
+        <v>7.6659118812646536</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>20.491115656162229</v>
+        <v>6.8303718853874091</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>18.079269362776671</v>
+        <v>6.0264231209255579</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>13.179771586487668</v>
+        <v>4.393257195495889</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>11.286819552165735</v>
+        <v>3.7622731840552452</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>11.66703686516014</v>
+        <v>3.8890122883867138</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>10.960568137545414</v>
+        <v>3.6535227125151377</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>11.986726841711974</v>
+        <v>3.9955756139039913</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>12.450354911231932</v>
+        <v>4.1501183037439766</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>10.235394778273081</v>
+        <v>3.4117982594243603</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>10.835774234713597</v>
+        <v>3.611924744904532</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>13.895417106856655</v>
+        <v>4.6318057022855523</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>18.102185533639101</v>
+        <v>6.0340618445463674</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>17.72227060733335</v>
+        <v>5.9074235357777836</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>19.073374915612355</v>
+        <v>6.357791638537452</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>18.539908629441626</v>
+        <v>6.1799695431472088</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>20.955347301850082</v>
+        <v>6.9851157672833617</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>21.219140727666261</v>
+        <v>7.0730469092220876</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>20.496011796232832</v>
+        <v>6.83200393207761</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>18.850574751668429</v>
+        <v>6.2835249172228096</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>18.338893070550647</v>
+        <v>6.112964356850215</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>20.190760266626302</v>
+        <v>6.7302534222087669</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>18.765613182831302</v>
+        <v>6.2552043942771007</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>22.630329486072817</v>
+        <v>7.543443162024273</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>22.997735643793959</v>
+        <v>7.6659118812646536</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>20.491115656162229</v>
+        <v>6.8303718853874091</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>18.079269362776671</v>
+        <v>6.0264231209255579</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>13.179771586487668</v>
+        <v>4.393257195495889</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>11.286819552165735</v>
+        <v>3.7622731840552452</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>11.66703686516014</v>
+        <v>3.8890122883867138</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>10.960568137545414</v>
+        <v>3.6535227125151377</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>11.986726841711974</v>
+        <v>3.9955756139039913</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>12.450354911231932</v>
+        <v>4.1501183037439766</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>10.235394778273081</v>
+        <v>3.4117982594243603</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>10.835774234713597</v>
+        <v>3.611924744904532</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>13.895417106856655</v>
+        <v>4.6318057022855523</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>18.102185533639101</v>
+        <v>6.0340618445463674</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>17.72227060733335</v>
+        <v>5.9074235357777836</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>19.073374915612355</v>
+        <v>6.357791638537452</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>18.539908629441626</v>
+        <v>6.1799695431472088</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>20.955347301850082</v>
+        <v>6.9851157672833617</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>21.219140727666261</v>
+        <v>7.0730469092220876</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>20.496011796232832</v>
+        <v>6.83200393207761</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>18.850574751668429</v>
+        <v>6.2835249172228096</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>18.338893070550647</v>
+        <v>6.112964356850215</v>
       </c>
     </row>
   </sheetData>
@@ -27072,7 +27072,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27236,76 +27236,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B0C821-4DD1-48FC-A025-0FB25DD99485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF8387-0029-4D5A-98CB-3FD6DC94DA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13088,7 +13088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,7 +27071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF8387-0029-4D5A-98CB-3FD6DC94DA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B754FD9-8D5E-46C0-A2C3-15CD31C6B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="2745" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B754FD9-8D5E-46C0-A2C3-15CD31C6B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C021B7E-A1A8-4CA4-AA0F-282D306AB40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2745" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="900" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C021B7E-A1A8-4CA4-AA0F-282D306AB40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6C093C-5827-4A6E-BDF1-B00D19DC4CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="900" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11685" yWindow="5580" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6C093C-5827-4A6E-BDF1-B00D19DC4CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52AAA0F-C4C6-43CB-A1B8-DD83F1685C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11685" yWindow="5580" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1620" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1152,455 +1152,455 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>53.345852930370519</v>
+            <v>65.200486914897311</v>
           </cell>
           <cell r="C2">
             <v>47.980182112575157</v>
           </cell>
           <cell r="D2">
-            <v>50.081028969922819</v>
+            <v>47.135086089339119</v>
           </cell>
           <cell r="E2">
-            <v>43.664376289063469</v>
+            <v>53.367571019966469</v>
           </cell>
           <cell r="F2">
-            <v>52.305295259295072</v>
+            <v>49.258384855840994</v>
           </cell>
           <cell r="G2">
-            <v>54.281049735333688</v>
+            <v>57.022516893683878</v>
           </cell>
           <cell r="H2">
-            <v>64.176359308110079</v>
+            <v>60.206687598330085</v>
           </cell>
           <cell r="I2">
-            <v>68.786478518766842</v>
+            <v>79.881071828245368</v>
           </cell>
           <cell r="J2">
-            <v>81.415484867557737</v>
+            <v>72.804231660412199</v>
           </cell>
           <cell r="K2">
-            <v>77.709389951019659</v>
+            <v>75.280971515050297</v>
           </cell>
           <cell r="L2">
-            <v>82.504791844794326</v>
+            <v>84.955429226322877</v>
           </cell>
           <cell r="M2">
-            <v>75.177367267660586</v>
+            <v>77.602443631133497</v>
           </cell>
           <cell r="N2">
-            <v>78.769655218865324</v>
+            <v>77.965883226836084</v>
           </cell>
           <cell r="O2">
-            <v>76.35807073501941</v>
+            <v>77.932463946050746</v>
           </cell>
           <cell r="P2">
-            <v>72.403181097320868</v>
+            <v>79.26242983285654</v>
           </cell>
           <cell r="Q2">
             <v>74.833896610931816</v>
           </cell>
           <cell r="R2">
-            <v>77.505418341412778</v>
+            <v>71.304984874099759</v>
           </cell>
           <cell r="S2">
-            <v>90.379525786878375</v>
+            <v>89.502054662733926</v>
           </cell>
           <cell r="T2">
             <v>80.521773003926072</v>
           </cell>
           <cell r="U2">
-            <v>97.2</v>
+            <v>98.100000000000009</v>
           </cell>
           <cell r="V2">
-            <v>79.464544760881481</v>
+            <v>83.830728538951888</v>
           </cell>
           <cell r="W2">
-            <v>85.831924633066535</v>
+            <v>86.665244289698251</v>
           </cell>
           <cell r="X2">
-            <v>68.387902423988734</v>
+            <v>75.986558248876364</v>
           </cell>
           <cell r="Y2">
-            <v>62.463488040991962</v>
+            <v>65.821740086206574</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>63.009561742481864</v>
+            <v>64.282482181723921</v>
           </cell>
           <cell r="C3">
-            <v>53.429146562836614</v>
+            <v>61.146689955246345</v>
           </cell>
           <cell r="D3">
-            <v>59.625893132070708</v>
+            <v>54.56331730010244</v>
           </cell>
           <cell r="E3">
-            <v>52.501666367793781</v>
+            <v>54.17725146463826</v>
           </cell>
           <cell r="F3">
-            <v>57.091814066201827</v>
+            <v>53.700221151377953</v>
           </cell>
           <cell r="G3">
-            <v>63.377579449269767</v>
+            <v>56.54274244983872</v>
           </cell>
           <cell r="H3">
-            <v>68.952112448080143</v>
+            <v>70.434953575995834</v>
           </cell>
           <cell r="I3">
-            <v>86.56709867948814</v>
+            <v>89.24443162833829</v>
           </cell>
           <cell r="J3">
-            <v>93.276418192593312</v>
+            <v>102.99271175432179</v>
           </cell>
           <cell r="K3">
-            <v>91.48832301780881</v>
+            <v>88.537086791427882</v>
           </cell>
           <cell r="L3">
-            <v>92.848149400130353</v>
+            <v>102.42012356509225</v>
           </cell>
           <cell r="M3">
-            <v>96.213093991960193</v>
+            <v>87.553915532683774</v>
           </cell>
           <cell r="N3">
-            <v>104.78609135609095</v>
+            <v>88.443306465691435</v>
           </cell>
           <cell r="O3">
             <v>101.18370637754681</v>
           </cell>
           <cell r="P3">
-            <v>82.041036251393038</v>
+            <v>95.41729216194625</v>
           </cell>
           <cell r="Q3">
-            <v>87.48634299507394</v>
+            <v>89.218745826659557</v>
           </cell>
           <cell r="R3">
-            <v>87.50415604013692</v>
+            <v>94.720993651694613</v>
           </cell>
           <cell r="S3">
-            <v>106</v>
+            <v>96</v>
           </cell>
           <cell r="T3">
-            <v>93.659251486676368</v>
+            <v>99.637501581570604</v>
           </cell>
           <cell r="U3">
-            <v>93.671661140952665</v>
+            <v>98.550393492043952</v>
           </cell>
           <cell r="V3">
             <v>96.855581754478948</v>
           </cell>
           <cell r="W3">
-            <v>97.970205240143954</v>
+            <v>80.892830014797752</v>
           </cell>
           <cell r="X3">
-            <v>70.766175552125503</v>
+            <v>79.415374786274171</v>
           </cell>
           <cell r="Y3">
-            <v>64.202884371166334</v>
+            <v>69.909807426381107</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>70.08880930820591</v>
+            <v>64.425067141886245</v>
           </cell>
           <cell r="C4">
-            <v>70.393171273107555</v>
+            <v>60.524969692765374</v>
           </cell>
           <cell r="D4">
-            <v>61.32108457333905</v>
+            <v>54.772230881040706</v>
           </cell>
           <cell r="E4">
-            <v>65.954346385392256</v>
+            <v>58.270344864764034</v>
           </cell>
           <cell r="F4">
-            <v>64.448123425868317</v>
+            <v>61.895722498111148</v>
           </cell>
           <cell r="G4">
-            <v>60.534801628319428</v>
+            <v>69.847848032676268</v>
           </cell>
           <cell r="H4">
-            <v>94.049094681755264</v>
+            <v>105.92898032576646</v>
           </cell>
           <cell r="I4">
-            <v>111.36341920653354</v>
+            <v>114.67124353940086</v>
           </cell>
           <cell r="J4">
-            <v>118.46681406049095</v>
+            <v>125.71988430909245</v>
           </cell>
           <cell r="K4">
-            <v>112.48192436834316</v>
+            <v>110.06295825289492</v>
           </cell>
           <cell r="L4">
-            <v>125.67355148870749</v>
+            <v>103.96630168611256</v>
           </cell>
           <cell r="M4">
-            <v>122.5</v>
+            <v>130</v>
           </cell>
           <cell r="N4">
-            <v>116.70677967063178</v>
+            <v>122.60106147217884</v>
           </cell>
           <cell r="O4">
-            <v>109.25295857577144</v>
+            <v>104.83869762321503</v>
           </cell>
           <cell r="P4">
-            <v>101.65637363697931</v>
+            <v>116.63731290979733</v>
           </cell>
           <cell r="Q4">
-            <v>99.988044126192861</v>
+            <v>105.98732677376444</v>
           </cell>
           <cell r="R4">
-            <v>99.051334073102836</v>
+            <v>110.05703785900316</v>
           </cell>
           <cell r="S4">
-            <v>100.6259123453416</v>
+            <v>96.389031825537742</v>
           </cell>
           <cell r="T4">
-            <v>111.21811364485124</v>
+            <v>96.389031825537742</v>
           </cell>
           <cell r="U4">
-            <v>111.81782833372856</v>
+            <v>96.765428365726635</v>
           </cell>
           <cell r="V4">
-            <v>104.61396666703429</v>
+            <v>114.02922366706738</v>
           </cell>
           <cell r="W4">
-            <v>91.696633077086361</v>
+            <v>99.259241990660513</v>
           </cell>
           <cell r="X4">
-            <v>73.556714514571254</v>
+            <v>81.552009570502904</v>
           </cell>
           <cell r="Y4">
-            <v>71.179292716270893</v>
+            <v>78.142484395036533</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>54.531316328823202</v>
+            <v>65.200486914897311</v>
           </cell>
           <cell r="C2">
-            <v>49.023229549805052</v>
+            <v>46.937134675345263</v>
           </cell>
           <cell r="D2">
-            <v>44.680133688852706</v>
+            <v>46.644095609241838</v>
           </cell>
           <cell r="E2">
-            <v>46.575334708334367</v>
+            <v>53.367571019966469</v>
           </cell>
           <cell r="F2">
-            <v>48.242748054689628</v>
+            <v>49.766203256416674</v>
           </cell>
           <cell r="G2">
             <v>54.829343167003728</v>
           </cell>
           <cell r="H2">
-            <v>72.777314679300105</v>
+            <v>62.191523453220078</v>
           </cell>
           <cell r="I2">
-            <v>78.401792720314901</v>
+            <v>79.141432274280135</v>
           </cell>
           <cell r="J2">
-            <v>85.329690870805706</v>
+            <v>81.415484867557737</v>
           </cell>
           <cell r="K2">
-            <v>84.185172446937969</v>
+            <v>77.709389951019659</v>
           </cell>
           <cell r="L2">
-            <v>79.237275336089596</v>
+            <v>89.039824862203787</v>
           </cell>
           <cell r="M2">
-            <v>74.369008479836268</v>
+            <v>83.260955145903651</v>
           </cell>
           <cell r="N2">
-            <v>80.377199202923805</v>
+            <v>78.769655218865324</v>
           </cell>
           <cell r="O2">
-            <v>78.719660551566406</v>
+            <v>82.655643579144723</v>
           </cell>
           <cell r="P2">
-            <v>80.024568581249383</v>
+            <v>83.073123574820798</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>80.82060833980637</v>
           </cell>
           <cell r="R2">
-            <v>84.480905992139938</v>
+            <v>78.280472524826905</v>
           </cell>
           <cell r="S2">
-            <v>85.114699042011679</v>
+            <v>90.379525786878375</v>
           </cell>
           <cell r="T2">
-            <v>81.41645937063636</v>
+            <v>93.942068504580419</v>
           </cell>
           <cell r="U2">
-            <v>90</v>
+            <v>83.7</v>
           </cell>
           <cell r="V2">
-            <v>85.577202050180063</v>
+            <v>89.94338582825047</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>81.665326349907957</v>
           </cell>
           <cell r="X2">
-            <v>72.187230336432549</v>
+            <v>82.825348491275236</v>
           </cell>
           <cell r="Y2">
-            <v>61.120187222906111</v>
+            <v>70.523292949507052</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>68.101243499450092</v>
+            <v>60.463720863997743</v>
           </cell>
           <cell r="C3">
-            <v>56.991089667025712</v>
+            <v>56.397432482994198</v>
           </cell>
           <cell r="D3">
-            <v>52.313283597005437</v>
+            <v>56.81335100319945</v>
           </cell>
           <cell r="E3">
-            <v>60.321063486401371</v>
+            <v>50.826081270949302</v>
           </cell>
           <cell r="F3">
-            <v>53.134955665573976</v>
+            <v>59.352876009417749</v>
           </cell>
           <cell r="G3">
-            <v>59.649486540489193</v>
+            <v>57.164091267968814</v>
           </cell>
           <cell r="H3">
-            <v>79.332000343490051</v>
+            <v>66.727850756206578</v>
           </cell>
           <cell r="I3">
-            <v>91.921764577188441</v>
+            <v>87.459542995771528</v>
           </cell>
           <cell r="J3">
-            <v>92.304788836420457</v>
+            <v>95.219676904939007</v>
           </cell>
           <cell r="K3">
-            <v>94.439559244189724</v>
+            <v>91.48832301780881</v>
           </cell>
           <cell r="L3">
-            <v>105.29171581458083</v>
+            <v>101.46292614859607</v>
           </cell>
           <cell r="M3">
             <v>93.326701172201382</v>
           </cell>
           <cell r="N3">
-            <v>87.481966178020883</v>
+            <v>100.94073020540871</v>
           </cell>
           <cell r="O3">
-            <v>87.94471675805471</v>
+            <v>99.292422146190802</v>
           </cell>
           <cell r="P3">
-            <v>97.200792950020002</v>
+            <v>90.066789797724951</v>
           </cell>
           <cell r="Q3">
             <v>95.282155737209251</v>
           </cell>
           <cell r="R3">
-            <v>88.406260741581633</v>
+            <v>97.427307756028753</v>
           </cell>
           <cell r="S3">
-            <v>104</v>
+            <v>107</v>
           </cell>
           <cell r="T3">
-            <v>104.61937666064914</v>
+            <v>93.659251486676368</v>
           </cell>
           <cell r="U3">
-            <v>99.526139962262206</v>
+            <v>96.598900551607443</v>
           </cell>
           <cell r="V3">
-            <v>101.65041253440366</v>
+            <v>88.224886350614497</v>
           </cell>
           <cell r="W3">
-            <v>94.374968350597385</v>
+            <v>90.779731461050815</v>
           </cell>
           <cell r="X3">
-            <v>84.919410662550604</v>
+            <v>80.201665625742223</v>
           </cell>
           <cell r="Y3">
-            <v>69.196442044479269</v>
+            <v>78.470192009203302</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>77.168487016105502</v>
+            <v>72.212712620575786</v>
           </cell>
           <cell r="C4">
             <v>64.472250324902234</v>
           </cell>
           <cell r="D4">
-            <v>58.939683230685098</v>
+            <v>61.32108457333905</v>
           </cell>
           <cell r="E4">
-            <v>65.954346385392256</v>
+            <v>64.673679465287549</v>
           </cell>
           <cell r="F4">
-            <v>58.705221338414702</v>
+            <v>65.724323889746898</v>
           </cell>
           <cell r="G4">
-            <v>69.182630432365059</v>
+            <v>73.173936034232284</v>
           </cell>
           <cell r="H4">
-            <v>91.079123270752476</v>
+            <v>107.908961266435</v>
           </cell>
           <cell r="I4">
-            <v>113.56863542844509</v>
+            <v>105.85037865175464</v>
           </cell>
           <cell r="J4">
-            <v>124.51103926765886</v>
+            <v>131.76410951626036</v>
           </cell>
           <cell r="K4">
-            <v>116.1103735415155</v>
+            <v>130.62417023420494</v>
           </cell>
           <cell r="L4">
-            <v>119.96111733012988</v>
+            <v>117.67614366669883</v>
           </cell>
           <cell r="M4">
-            <v>135</v>
+            <v>120</v>
           </cell>
           <cell r="N4">
-            <v>111.99135422939412</v>
+            <v>116.70677967063178</v>
           </cell>
           <cell r="O4">
-            <v>118.0814804808843</v>
+            <v>110.35652381391056</v>
           </cell>
           <cell r="P4">
-            <v>112.35704454613503</v>
+            <v>107.00670909155717</v>
           </cell>
           <cell r="Q4">
-            <v>90.989120154835504</v>
+            <v>100.9879245674548</v>
           </cell>
           <cell r="R4">
-            <v>93.048222917157219</v>
+            <v>100.05185259909378</v>
           </cell>
           <cell r="S4">
-            <v>115.4549941646551</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="T4">
-            <v>98.507472085439673</v>
+            <v>112.27733377480222</v>
           </cell>
           <cell r="U4">
-            <v>117.19368546515781</v>
+            <v>107.51714262858515</v>
           </cell>
           <cell r="V4">
-            <v>110.89080466705636</v>
+            <v>96.244849333671553</v>
           </cell>
           <cell r="W4">
-            <v>103.04054644744758</v>
+            <v>86.970002506102546</v>
           </cell>
           <cell r="X4">
-            <v>87.94824561524824</v>
+            <v>73.556714514571254</v>
           </cell>
           <cell r="Y4">
-            <v>69.631916787656309</v>
+            <v>84.331988109494873</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>62.829560117991953</v>
+            <v>63.422291817218287</v>
           </cell>
           <cell r="C2">
             <v>53.716943017339581</v>
@@ -1609,141 +1609,141 @@
             <v>47.135086089339119</v>
           </cell>
           <cell r="E2">
-            <v>43.664376289063469</v>
+            <v>48.030813917969816</v>
           </cell>
           <cell r="F2">
-            <v>50.781840057568033</v>
+            <v>55.860024063324843</v>
           </cell>
           <cell r="G2">
-            <v>52.087876008653538</v>
+            <v>59.215690620364029</v>
           </cell>
           <cell r="H2">
-            <v>64.176359308110079</v>
+            <v>66.822807114630095</v>
           </cell>
           <cell r="I2">
-            <v>72.484676288593022</v>
+            <v>76.922513612384435</v>
           </cell>
           <cell r="J2">
-            <v>83.764008469506507</v>
+            <v>76.718437663660168</v>
           </cell>
           <cell r="K2">
-            <v>83.375699634948177</v>
+            <v>73.662025891070726</v>
           </cell>
           <cell r="L2">
-            <v>88.222945735027608</v>
+            <v>77.603517081737238</v>
           </cell>
           <cell r="M2">
-            <v>88.919466660673805</v>
+            <v>85.686031509376576</v>
           </cell>
           <cell r="N2">
-            <v>82.788515179011526</v>
+            <v>87.611147131186954</v>
           </cell>
           <cell r="O2">
-            <v>81.868446973629062</v>
+            <v>77.932463946050746</v>
           </cell>
           <cell r="P2">
-            <v>75.451736090892268</v>
+            <v>77.738152336070826</v>
           </cell>
           <cell r="Q2">
-            <v>80.82060833980637</v>
+            <v>67.350506949838632</v>
           </cell>
           <cell r="R2">
-            <v>75.180255791170396</v>
+            <v>75.955309974584523</v>
           </cell>
           <cell r="S2">
-            <v>92.134468035167288</v>
+            <v>94.766881407600636</v>
           </cell>
           <cell r="T2">
-            <v>89.46863667102896</v>
+            <v>83.205832104056938</v>
           </cell>
           <cell r="U2">
-            <v>84.6</v>
+            <v>85.5</v>
           </cell>
           <cell r="V2">
-            <v>86.450438805794136</v>
+            <v>82.957491783337801</v>
           </cell>
           <cell r="W2">
-            <v>81.665326349907957</v>
+            <v>90.831842572856814</v>
           </cell>
           <cell r="X2">
-            <v>78.266154996342649</v>
+            <v>71.427364753943777</v>
           </cell>
           <cell r="Y2">
-            <v>66.4933904952495</v>
+            <v>70.523292949507052</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>67.464783279829064</v>
+            <v>60.463720863997743</v>
           </cell>
           <cell r="C3">
-            <v>62.334004323309379</v>
+            <v>53.429146562836614</v>
           </cell>
           <cell r="D3">
-            <v>52.875792022779684</v>
+            <v>57.375859428973698</v>
           </cell>
           <cell r="E3">
-            <v>51.384609636564129</v>
+            <v>53.618723099023434</v>
           </cell>
           <cell r="F3">
-            <v>61.613937952633663</v>
+            <v>62.179203438437639</v>
           </cell>
           <cell r="G3">
-            <v>63.998928267399869</v>
+            <v>55.921393631708618</v>
           </cell>
           <cell r="H3">
-            <v>81.556262035363602</v>
+            <v>67.469271320164438</v>
           </cell>
           <cell r="I3">
-            <v>80.319988465504466</v>
+            <v>83.88976573063799</v>
           </cell>
           <cell r="J3">
-            <v>105.90759982284034</v>
+            <v>90.361530124074775</v>
           </cell>
           <cell r="K3">
-            <v>106.24450414971345</v>
+            <v>94.439559244189724</v>
           </cell>
           <cell r="L3">
-            <v>93.805346816626539</v>
+            <v>91.890951983634167</v>
           </cell>
           <cell r="M3">
-            <v>102.94801057139742</v>
+            <v>88.516046472603378</v>
           </cell>
           <cell r="N3">
-            <v>97.095369054726476</v>
+            <v>99.979389917738146</v>
           </cell>
           <cell r="O3">
-            <v>91.727285220766731</v>
+            <v>103.07499060890282</v>
           </cell>
           <cell r="P3">
-            <v>95.41729216194625</v>
+            <v>97.200792950020002</v>
           </cell>
           <cell r="Q3">
-            <v>83.155335916109877</v>
+            <v>89.218745826659557</v>
           </cell>
           <cell r="R3">
-            <v>82.993632532913381</v>
+            <v>96.52520305458404</v>
           </cell>
           <cell r="S3">
-            <v>98</v>
+            <v>92</v>
           </cell>
           <cell r="T3">
-            <v>101.63025161320202</v>
+            <v>109.60125173972767</v>
           </cell>
           <cell r="U3">
-            <v>99.526139962262206</v>
+            <v>98.550393492043952</v>
           </cell>
           <cell r="V3">
-            <v>88.224886350614497</v>
+            <v>89.183852506599436</v>
           </cell>
           <cell r="W3">
-            <v>85.386876126730954</v>
+            <v>86.2856853491176</v>
           </cell>
           <cell r="X3">
-            <v>86.491992341486721</v>
+            <v>76.270211428401922</v>
           </cell>
           <cell r="Y3">
-            <v>78.470192009203302</v>
+            <v>68.483076662577417</v>
           </cell>
         </row>
         <row r="4">
@@ -1751,2089 +1751,2089 @@
             <v>75.044583703735626</v>
           </cell>
           <cell r="C4">
-            <v>71.051051378463697</v>
+            <v>66.445890640970674</v>
           </cell>
           <cell r="D4">
-            <v>57.748982559358126</v>
+            <v>55.962931552367671</v>
           </cell>
           <cell r="E4">
-            <v>69.796347145706378</v>
+            <v>60.191345244921088</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>65.086223657807608</v>
           </cell>
           <cell r="G4">
-            <v>69.182630432365059</v>
+            <v>69.847848032676268</v>
           </cell>
           <cell r="H4">
-            <v>106.91897079610072</v>
+            <v>103.94899938509792</v>
           </cell>
           <cell r="I4">
             <v>115.77385165035665</v>
           </cell>
           <cell r="J4">
-            <v>112.42258885332305</v>
+            <v>117.25796901905737</v>
           </cell>
           <cell r="K4">
-            <v>120.94830577241198</v>
+            <v>130.62417023420494</v>
           </cell>
           <cell r="L4">
-            <v>116.5336568349833</v>
+            <v>105.10878851782809</v>
           </cell>
           <cell r="M4">
-            <v>112.5</v>
+            <v>126.25</v>
           </cell>
           <cell r="N4">
-            <v>115.52792331032236</v>
+            <v>109.63364150877531</v>
           </cell>
           <cell r="O4">
-            <v>109.25295857577144</v>
+            <v>99.320871432519496</v>
           </cell>
           <cell r="P4">
-            <v>110.21691036430389</v>
+            <v>114.49717872796617</v>
           </cell>
           <cell r="Q4">
             <v>107.9870876562883</v>
           </cell>
           <cell r="R4">
-            <v>110.05703785900316</v>
+            <v>103.05340817706659</v>
           </cell>
           <cell r="S4">
-            <v>114.39577403470415</v>
+            <v>102.74435260524353</v>
           </cell>
           <cell r="T4">
-            <v>110.15889351490029</v>
+            <v>99.566692215390631</v>
           </cell>
           <cell r="U4">
-            <v>96.765428365726635</v>
+            <v>118.26885689144368</v>
           </cell>
           <cell r="V4">
-            <v>96.244849333671553</v>
+            <v>115.07536333373773</v>
           </cell>
           <cell r="W4">
-            <v>97.368589762266978</v>
+            <v>101.14989421905405</v>
           </cell>
           <cell r="X4">
-            <v>84.750127592875572</v>
+            <v>75.155773525757581</v>
           </cell>
           <cell r="Y4">
-            <v>83.558300145187573</v>
+            <v>72.726668644885478</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>11.388435706142491</v>
+            <v>12.193678634859637</v>
           </cell>
           <cell r="C2">
-            <v>8.9621956837424133</v>
+            <v>8.5185226300917982</v>
           </cell>
           <cell r="D2">
-            <v>7.5961367846516046</v>
+            <v>8.3557504631167649</v>
           </cell>
           <cell r="E2">
             <v>8.176657126814149</v>
           </cell>
           <cell r="F2">
-            <v>8.6173937063137149</v>
+            <v>7.9415196901322469</v>
           </cell>
           <cell r="G2">
-            <v>9.9653898262285168</v>
+            <v>11.119277069265504</v>
           </cell>
           <cell r="H2">
-            <v>14.810378351287854</v>
+            <v>15.29863258264899</v>
           </cell>
           <cell r="I2">
-            <v>20.067521415869454</v>
+            <v>19.471456423318877</v>
           </cell>
           <cell r="J2">
-            <v>24.792072150320028</v>
+            <v>22.037397466951134</v>
           </cell>
           <cell r="K2">
-            <v>24.014446126256086</v>
+            <v>24.772797056558908</v>
           </cell>
           <cell r="L2">
-            <v>26.766279072614047</v>
+            <v>24.98186046777311</v>
           </cell>
           <cell r="M2">
-            <v>24.283569410551301</v>
+            <v>23.782877257756429</v>
           </cell>
           <cell r="N2">
-            <v>26.398290172587117</v>
+            <v>23.884167299007387</v>
           </cell>
           <cell r="O2">
-            <v>24.138136644772068</v>
+            <v>25.133523722906997</v>
           </cell>
           <cell r="P2">
-            <v>20.428454431666598</v>
+            <v>22.673339534047543</v>
           </cell>
           <cell r="Q2">
-            <v>20.262003063769829</v>
+            <v>20.688571549322877</v>
           </cell>
           <cell r="R2">
-            <v>22.01099874677239</v>
+            <v>21.570778771836942</v>
           </cell>
           <cell r="S2">
-            <v>30.3</v>
+            <v>32.1</v>
           </cell>
           <cell r="T2">
-            <v>32.652529518319184</v>
+            <v>29.956449099375394</v>
           </cell>
           <cell r="U2">
-            <v>31.656127895941694</v>
+            <v>30.494435129118145</v>
           </cell>
           <cell r="V2">
-            <v>24.46237425307066</v>
+            <v>28.763451044819348</v>
           </cell>
           <cell r="W2">
-            <v>24.624022482795553</v>
+            <v>23.667749765017081</v>
           </cell>
           <cell r="X2">
-            <v>17.939039792003484</v>
+            <v>20.278914547482202</v>
           </cell>
           <cell r="Y2">
-            <v>14.809861311821411</v>
+            <v>13.463510283474012</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-26.477511239440371</v>
+            <v>-27.641357887327857</v>
           </cell>
           <cell r="C3">
-            <v>-32.888478552585298</v>
+            <v>-30.991066328397682</v>
           </cell>
           <cell r="D3">
-            <v>-30.656624782507482</v>
+            <v>-36.78794973900898</v>
           </cell>
           <cell r="E3">
-            <v>-32.12419976923784</v>
+            <v>-37.196441838064878</v>
           </cell>
           <cell r="F3">
-            <v>-33.25</v>
+            <v>-32.550000000000004</v>
           </cell>
           <cell r="G3">
-            <v>-32.091286045662528</v>
+            <v>-31.156588393847116</v>
           </cell>
           <cell r="H3">
-            <v>-22.737824767768746</v>
+            <v>-20.881675807134563</v>
           </cell>
           <cell r="I3">
-            <v>-10.218872426865063</v>
+            <v>-9.932361984990342</v>
           </cell>
           <cell r="J3">
-            <v>-3.0375243851877078</v>
+            <v>-2.5875207725673066</v>
           </cell>
           <cell r="K3">
-            <v>-0.47077042064057217</v>
+            <v>-0.48396959131273776</v>
           </cell>
           <cell r="L3">
-            <v>-3.6338353085281616</v>
+            <v>-3.7128317282787733</v>
           </cell>
           <cell r="M3">
-            <v>-2.6715251531427726</v>
+            <v>-3.0199849557266125</v>
           </cell>
           <cell r="N3">
-            <v>-4.0594912600311215</v>
+            <v>-3.8987193289407798</v>
           </cell>
           <cell r="O3">
-            <v>-4.2167238257296438</v>
+            <v>-3.6896333475134382</v>
           </cell>
           <cell r="P3">
-            <v>-10.454996986558173</v>
+            <v>-9.8399971638194561</v>
           </cell>
           <cell r="Q3">
-            <v>-15.352073897049898</v>
+            <v>-15.942538277705664</v>
           </cell>
           <cell r="R3">
-            <v>-12.208812759637116</v>
+            <v>-14.177976107965684</v>
           </cell>
           <cell r="S3">
-            <v>-4.9293153105021688</v>
+            <v>-4.2123239926109433</v>
           </cell>
           <cell r="T3">
-            <v>-5.9318649619408612</v>
+            <v>-6.1926062789492509</v>
           </cell>
           <cell r="U3">
-            <v>-8.1941074192990548</v>
+            <v>-8.5218717160710167</v>
           </cell>
           <cell r="V3">
-            <v>-12.099201218912656</v>
+            <v>-11.841771405744304</v>
           </cell>
           <cell r="W3">
-            <v>-18.211753550434707</v>
+            <v>-16.039709549006716</v>
           </cell>
           <cell r="X3">
-            <v>-22.191934802360052</v>
+            <v>-23.088578632758438</v>
           </cell>
           <cell r="Y3">
-            <v>-25.735847104036036</v>
+            <v>-27.502032689607137</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.153484322237276</v>
+            <v>40.364416827048736</v>
           </cell>
           <cell r="C4">
-            <v>50</v>
+            <v>54.500000000000007</v>
           </cell>
           <cell r="D4">
-            <v>49</v>
+            <v>48.5</v>
           </cell>
           <cell r="E4">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="F4">
-            <v>52</v>
+            <v>55.000000000000007</v>
           </cell>
           <cell r="G4">
-            <v>37.271648996155214</v>
+            <v>38.081902235202058</v>
           </cell>
           <cell r="H4">
-            <v>17.640518327623312</v>
+            <v>18.008029126115467</v>
           </cell>
           <cell r="I4">
-            <v>2.1290942754628754</v>
+            <v>2.2000640846449713</v>
           </cell>
           <cell r="J4">
-            <v>-14.810788388588996</v>
+            <v>-13.703439724021594</v>
           </cell>
           <cell r="K4">
-            <v>-12.872928225596043</v>
+            <v>-15.226044137801772</v>
           </cell>
           <cell r="L4">
-            <v>-1.2635986981622949</v>
+            <v>-1.3112816679042683</v>
           </cell>
           <cell r="M4">
-            <v>-15.300929136764116</v>
+            <v>-15.012232360598755</v>
           </cell>
           <cell r="N4">
-            <v>-15.445277524846796</v>
+            <v>-13.713096867854631</v>
           </cell>
           <cell r="O4">
-            <v>-11.620505217207103</v>
+            <v>-10.056206437967687</v>
           </cell>
           <cell r="P4">
-            <v>-1.3202476900774478</v>
+            <v>-1.4870158193503886</v>
           </cell>
           <cell r="Q4">
-            <v>8.4780027081262332</v>
+            <v>7.9743589828910109</v>
           </cell>
           <cell r="R4">
-            <v>11.072561207213832</v>
+            <v>11.305667758944649</v>
           </cell>
           <cell r="S4">
-            <v>12.704307069329555</v>
+            <v>11.771880862406285</v>
           </cell>
           <cell r="T4">
-            <v>11.655327586540876</v>
+            <v>11.888434138271693</v>
           </cell>
           <cell r="U4">
-            <v>12.704307069329555</v>
+            <v>12.354647241733328</v>
           </cell>
           <cell r="V4">
-            <v>10.722901379617607</v>
+            <v>12.004987414137103</v>
           </cell>
           <cell r="W4">
-            <v>25.763418231124426</v>
+            <v>23.332907077244762</v>
           </cell>
           <cell r="X4">
-            <v>39.381709115562217</v>
+            <v>36.409504654010355</v>
           </cell>
           <cell r="Y4">
-            <v>37.524081327092304</v>
+            <v>38.267132442480268</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>11.963609226654738</v>
+            <v>12.078643930757188</v>
           </cell>
           <cell r="C2">
-            <v>8.4297880193616752</v>
+            <v>8.6959918515520442</v>
           </cell>
           <cell r="D2">
-            <v>7.0644072097259922</v>
+            <v>8.2038277274237341</v>
           </cell>
           <cell r="E2">
-            <v>7.0616584277031276</v>
+            <v>7.7306576471697399</v>
           </cell>
           <cell r="F2">
-            <v>9.2087834704725005</v>
+            <v>7.6035826820415133</v>
           </cell>
           <cell r="G2">
-            <v>11.224175909541595</v>
+            <v>10.384985187332877</v>
           </cell>
           <cell r="H2">
             <v>16.763395276732407</v>
           </cell>
           <cell r="I2">
-            <v>18.478014769067915</v>
+            <v>21.259651400970611</v>
           </cell>
           <cell r="J2">
-            <v>21.578285019722983</v>
+            <v>23.87384725586373</v>
           </cell>
           <cell r="K2">
-            <v>27.300633490901657</v>
+            <v>23.761662482821809</v>
           </cell>
           <cell r="L2">
-            <v>27.785946846808869</v>
+            <v>26.256445185516636</v>
           </cell>
           <cell r="M2">
-            <v>25.28495371614105</v>
+            <v>26.035991945333357</v>
           </cell>
           <cell r="N2">
-            <v>26.901114747303062</v>
+            <v>23.632755011649415</v>
           </cell>
           <cell r="O2">
-            <v>23.640443105704602</v>
+            <v>25.631217261974463</v>
           </cell>
           <cell r="P2">
-            <v>21.775385493095161</v>
+            <v>22.897828044285635</v>
           </cell>
           <cell r="Q2">
-            <v>23.247982462641176</v>
+            <v>21.328424277652452</v>
           </cell>
           <cell r="R2">
-            <v>22.231108734240113</v>
+            <v>20.91044880943377</v>
           </cell>
           <cell r="S2">
-            <v>28.799999999999997</v>
+            <v>28.2</v>
           </cell>
           <cell r="T2">
-            <v>30.555578081362903</v>
+            <v>30.855142572356655</v>
           </cell>
           <cell r="U2">
-            <v>27.009356828647501</v>
+            <v>26.428510445235727</v>
           </cell>
           <cell r="V2">
-            <v>25.000008852039247</v>
+            <v>29.569902943272229</v>
           </cell>
           <cell r="W2">
             <v>22.711477047238613</v>
           </cell>
           <cell r="X2">
-            <v>20.668893673395321</v>
+            <v>18.524008480873164</v>
           </cell>
           <cell r="Y2">
-            <v>15.857023222758279</v>
+            <v>13.613104842179277</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-29.09616619718722</v>
+            <v>-31.714821154934072</v>
           </cell>
           <cell r="C3">
-            <v>-34.153420035377039</v>
+            <v>-30.042360216303873</v>
           </cell>
           <cell r="D3">
-            <v>-33.041028932258058</v>
+            <v>-36.106691410508809</v>
           </cell>
           <cell r="E3">
-            <v>-31.786050297982708</v>
+            <v>-34.491246068023791</v>
           </cell>
           <cell r="F3">
-            <v>-35.35</v>
+            <v>-32.9</v>
           </cell>
           <cell r="G3">
-            <v>-28.975627206277821</v>
+            <v>-32.091286045662528</v>
           </cell>
           <cell r="H3">
-            <v>-20.881675807134563</v>
+            <v>-22.505806147689473</v>
           </cell>
           <cell r="I3">
-            <v>-10.218872426865063</v>
+            <v>-9.3593411012408989</v>
           </cell>
           <cell r="J3">
-            <v>-2.8968982562438326</v>
+            <v>-2.8125225788775072</v>
           </cell>
           <cell r="K3">
-            <v>-0.48396959131273776</v>
+            <v>-0.42677318506668688</v>
           </cell>
           <cell r="L3">
-            <v>-3.7128317282787733</v>
+            <v>-4.305304876408365</v>
           </cell>
           <cell r="M3">
-            <v>-2.7586401037887325</v>
+            <v>-3.0780615894905861</v>
           </cell>
           <cell r="N3">
-            <v>-3.9389123117133655</v>
+            <v>-3.9791052944859509</v>
           </cell>
           <cell r="O3">
-            <v>-4.1356329829271505</v>
+            <v>-4.297814668532137</v>
           </cell>
           <cell r="P3">
-            <v>-11.274996750209795</v>
+            <v>-10.864996868383985</v>
           </cell>
           <cell r="Q3">
-            <v>-14.023529040574426</v>
+            <v>-13.580680755082602</v>
           </cell>
           <cell r="R3">
-            <v>-12.340090316192352</v>
+            <v>-13.12775565552378</v>
           </cell>
           <cell r="S3">
-            <v>-4.4811957368201529</v>
+            <v>-4.0778881205063389</v>
           </cell>
           <cell r="T3">
-            <v>-6.5837182544618349</v>
+            <v>-6.4533475959576405</v>
           </cell>
           <cell r="U3">
-            <v>-8.1941074192990548</v>
+            <v>-8.5218717160710167</v>
           </cell>
           <cell r="V3">
-            <v>-12.742775751833543</v>
+            <v>-11.970486312328481</v>
           </cell>
           <cell r="W3">
-            <v>-17.37635201142394</v>
+            <v>-16.206789856808868</v>
           </cell>
           <cell r="X3">
-            <v>-24.657705335955615</v>
+            <v>-21.967773844760455</v>
           </cell>
           <cell r="Y3">
-            <v>-27.249720463096981</v>
+            <v>-23.717349291954775</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>40.768060995319225</v>
+            <v>37.135263480884838</v>
           </cell>
           <cell r="C4">
-            <v>47</v>
+            <v>55.000000000000007</v>
           </cell>
           <cell r="D4">
-            <v>54</v>
+            <v>50</v>
           </cell>
           <cell r="E4">
-            <v>46</v>
+            <v>53</v>
           </cell>
           <cell r="F4">
-            <v>54.500000000000007</v>
+            <v>48</v>
           </cell>
           <cell r="G4">
-            <v>40.512661952342619</v>
+            <v>44.158801528053459</v>
           </cell>
           <cell r="H4">
-            <v>16.905496730639008</v>
+            <v>19.661827719330152</v>
           </cell>
           <cell r="I4">
-            <v>2.2946904968877657</v>
+            <v>2.2000640846449713</v>
           </cell>
           <cell r="J4">
-            <v>-13.703439724021594</v>
+            <v>-13.426602557879743</v>
           </cell>
           <cell r="K4">
-            <v>-12.457672476383268</v>
+            <v>-14.67236980551807</v>
           </cell>
           <cell r="L4">
-            <v>-1.0728668191944013</v>
+            <v>-1.1682327586783481</v>
           </cell>
           <cell r="M4">
-            <v>-15.300929136764116</v>
+            <v>-13.28005170360659</v>
           </cell>
           <cell r="N4">
-            <v>-14.867883972516074</v>
+            <v>-15.156580748681435</v>
           </cell>
           <cell r="O4">
-            <v>-10.056206437967687</v>
+            <v>-11.732240844295633</v>
           </cell>
           <cell r="P4">
-            <v>-1.2507609695470558</v>
+            <v>-1.4592211311382317</v>
           </cell>
           <cell r="Q4">
-            <v>8.6458839498713065</v>
+            <v>7.9743589828910109</v>
           </cell>
           <cell r="R4">
             <v>10.839454655483015</v>
           </cell>
           <cell r="S4">
-            <v>10.606348103752197</v>
+            <v>11.771880862406285</v>
           </cell>
           <cell r="T4">
-            <v>10.722901379617607</v>
+            <v>12.004987414137103</v>
           </cell>
           <cell r="U4">
-            <v>12.704307069329555</v>
+            <v>12.471200517598739</v>
           </cell>
           <cell r="V4">
-            <v>12.23809396586792</v>
+            <v>11.072561207213832</v>
           </cell>
           <cell r="W4">
-            <v>22.846804846468828</v>
+            <v>24.548162654184594</v>
           </cell>
           <cell r="X4">
-            <v>39.753234673256202</v>
+            <v>38.267132442480268</v>
           </cell>
           <cell r="Y4">
-            <v>39.381709115562217</v>
+            <v>38.267132442480268</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>12.423748043064537</v>
+            <v>10.813262185630244</v>
           </cell>
           <cell r="C2">
-            <v>8.6959918515520442</v>
+            <v>9.7608071803135203</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>8.2038277274237341</v>
           </cell>
           <cell r="E2">
-            <v>6.764325441273523</v>
+            <v>7.8049908937771413</v>
           </cell>
           <cell r="F2">
-            <v>9.2932677224951838</v>
+            <v>8.7863622103590817</v>
           </cell>
           <cell r="G2">
-            <v>11.224175909541595</v>
+            <v>10.594782867885055</v>
           </cell>
           <cell r="H2">
-            <v>14.810378351287854</v>
+            <v>16.437892455824979</v>
           </cell>
           <cell r="I2">
             <v>19.074079761618489</v>
           </cell>
           <cell r="J2">
-            <v>22.726066137793357</v>
+            <v>21.807841243337059</v>
           </cell>
           <cell r="K2">
-            <v>23.003311552518987</v>
+            <v>25.278364343427459</v>
           </cell>
           <cell r="L2">
             <v>24.217109637126995</v>
           </cell>
           <cell r="M2">
-            <v>25.034607639743612</v>
+            <v>27.037376250923103</v>
           </cell>
           <cell r="N2">
-            <v>24.638404161081308</v>
+            <v>25.392641023155225</v>
           </cell>
           <cell r="O2">
-            <v>24.635830183839534</v>
+            <v>22.645056027569673</v>
           </cell>
           <cell r="P2">
-            <v>23.122316554523731</v>
+            <v>21.326408472618972</v>
           </cell>
           <cell r="Q2">
-            <v>23.247982462641176</v>
+            <v>21.541708520428976</v>
           </cell>
           <cell r="R2">
-            <v>22.891438696643288</v>
+            <v>21.130558796901493</v>
           </cell>
           <cell r="S2">
-            <v>33</v>
+            <v>31.8</v>
           </cell>
           <cell r="T2">
-            <v>28.159062153412869</v>
+            <v>31.154707063350411</v>
           </cell>
           <cell r="U2">
-            <v>27.299780020353385</v>
+            <v>30.204011937412258</v>
           </cell>
           <cell r="V2">
-            <v>25.537643451007831</v>
+            <v>28.763451044819348</v>
           </cell>
           <cell r="W2">
-            <v>25.102158841684787</v>
+            <v>21.755204329460149</v>
           </cell>
           <cell r="X2">
-            <v>18.718998043829721</v>
+            <v>19.88893542156908</v>
           </cell>
           <cell r="Y2">
-            <v>14.061888518295078</v>
+            <v>13.613104842179277</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-30.841936169018453</v>
+            <v>-31.714821154934072</v>
           </cell>
           <cell r="C3">
-            <v>-32.888478552585298</v>
+            <v>-34.153420035377039</v>
           </cell>
           <cell r="D3">
-            <v>-34.403545589258393</v>
+            <v>-30.656624782507482</v>
           </cell>
           <cell r="E3">
-            <v>-34.829395539278927</v>
+            <v>-30.771601884217304</v>
           </cell>
           <cell r="F3">
-            <v>-36.050000000000004</v>
+            <v>-33.949999999999996</v>
           </cell>
           <cell r="G3">
-            <v>-33.337549581416418</v>
+            <v>-33.025983697477947</v>
           </cell>
           <cell r="H3">
-            <v>-23.433880628006566</v>
+            <v>-24.129936488244386</v>
           </cell>
           <cell r="I3">
-            <v>-9.6458515431156204</v>
+            <v>-10.027865465615248</v>
           </cell>
           <cell r="J3">
-            <v>-2.8968982562438326</v>
+            <v>-2.6437712241448565</v>
           </cell>
           <cell r="K3">
-            <v>-0.46197097352579508</v>
+            <v>-0.48396959131273776</v>
           </cell>
           <cell r="L3">
-            <v>-4.305304876408365</v>
+            <v>-4.0288174072812222</v>
           </cell>
           <cell r="M3">
-            <v>-2.9328700050806527</v>
+            <v>-2.6715251531427726</v>
           </cell>
           <cell r="N3">
-            <v>-4.3006491566666343</v>
+            <v>-3.8183333633956091</v>
           </cell>
           <cell r="O3">
-            <v>-3.8518150331184242</v>
+            <v>-3.8112696117171776</v>
           </cell>
           <cell r="P3">
-            <v>-10.967496838840438</v>
+            <v>-10.147497075188815</v>
           </cell>
           <cell r="Q3">
-            <v>-15.204457801885956</v>
+            <v>-14.613993421230191</v>
           </cell>
           <cell r="R3">
-            <v>-12.471367872747591</v>
+            <v>-11.814980089971401</v>
           </cell>
           <cell r="S3">
-            <v>-4.6604435662929591</v>
+            <v>-4.6156316089247573</v>
           </cell>
           <cell r="T3">
-            <v>-7.1052008884786142</v>
+            <v>-6.9748302299744198</v>
           </cell>
           <cell r="U3">
-            <v>-7.948284196720083</v>
+            <v>-7.4566377515621403</v>
           </cell>
           <cell r="V3">
-            <v>-14.029924817675315</v>
+            <v>-14.158639724259492</v>
           </cell>
           <cell r="W3">
-            <v>-15.371388317798102</v>
+            <v>-17.209271703621788</v>
           </cell>
           <cell r="X3">
-            <v>-22.640256717559247</v>
+            <v>-22.864417675158844</v>
           </cell>
           <cell r="Y3">
-            <v>-26.240471557056349</v>
+            <v>-27.754344916117294</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.960772658778247</v>
+            <v>36.731619312614349</v>
           </cell>
           <cell r="C4">
-            <v>54</v>
+            <v>53</v>
           </cell>
           <cell r="D4">
-            <v>54</v>
+            <v>49.5</v>
           </cell>
           <cell r="E4">
-            <v>52.5</v>
+            <v>51.5</v>
           </cell>
           <cell r="F4">
-            <v>47.5</v>
+            <v>54.500000000000007</v>
           </cell>
           <cell r="G4">
-            <v>39.702408713295767</v>
+            <v>42.53829504995975</v>
           </cell>
           <cell r="H4">
-            <v>17.824273726869389</v>
+            <v>19.294316920838</v>
           </cell>
           <cell r="I4">
-            <v>2.5312565274947518</v>
+            <v>2.4366301152519574</v>
           </cell>
           <cell r="J4">
-            <v>-13.841858307092519</v>
+            <v>-13.288183974808817</v>
           </cell>
           <cell r="K4">
-            <v>-14.11869547323437</v>
+            <v>-13.288183974808817</v>
           </cell>
           <cell r="L4">
-            <v>-1.1801535011138413</v>
+            <v>-1.2755194405977883</v>
           </cell>
           <cell r="M4">
-            <v>-15.300929136764116</v>
+            <v>-14.579187196350713</v>
           </cell>
           <cell r="N4">
-            <v>-15.589625912929476</v>
+            <v>-15.156580748681435</v>
           </cell>
           <cell r="O4">
-            <v>-10.726620200498864</v>
+            <v>-10.950091454675924</v>
           </cell>
           <cell r="P4">
-            <v>-1.4453237870321534</v>
+            <v>-1.5287078516686239</v>
           </cell>
           <cell r="Q4">
-            <v>8.8137651916163815</v>
+            <v>8.561943328998769</v>
           </cell>
           <cell r="R4">
-            <v>10.489794827886788</v>
+            <v>11.771880862406285</v>
           </cell>
           <cell r="S4">
-            <v>12.121540690002512</v>
+            <v>10.839454655483015</v>
           </cell>
           <cell r="T4">
             <v>10.956007931348424</v>
           </cell>
           <cell r="U4">
-            <v>11.305667758944649</v>
+            <v>12.820860345194964</v>
           </cell>
           <cell r="V4">
-            <v>12.121540690002512</v>
+            <v>10.839454655483015</v>
           </cell>
           <cell r="W4">
-            <v>25.763418231124426</v>
+            <v>24.791213769572561</v>
           </cell>
           <cell r="X4">
-            <v>40.124760230950187</v>
+            <v>34.923402423234421</v>
           </cell>
           <cell r="Y4">
-            <v>35.666453538622385</v>
+            <v>38.638658000174253</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>60.084366391108787</v>
+            <v>65.898982493474151</v>
           </cell>
           <cell r="C2">
-            <v>53.461139946800223</v>
+            <v>56.304817603544919</v>
           </cell>
           <cell r="D2">
-            <v>55.931244385164135</v>
+            <v>50.553240117359884</v>
           </cell>
           <cell r="E2">
-            <v>54.678063923937877</v>
+            <v>55.198807389880145</v>
           </cell>
           <cell r="F2">
-            <v>52.995534550049037</v>
+            <v>50.787387277130335</v>
           </cell>
           <cell r="G2">
-            <v>53.091176480765199</v>
+            <v>54.102436985160729</v>
           </cell>
           <cell r="H2">
-            <v>60.487226914758452</v>
+            <v>62.266263000486646</v>
           </cell>
           <cell r="I2">
-            <v>70.206488958322353</v>
+            <v>72.959684603746766</v>
           </cell>
           <cell r="J2">
-            <v>82.969424951232611</v>
+            <v>70.56278196787072</v>
           </cell>
           <cell r="K2">
-            <v>87.383824241762397</v>
+            <v>75.732647676194077</v>
           </cell>
           <cell r="L2">
-            <v>84.168275910791152</v>
+            <v>92.756875493524944</v>
           </cell>
           <cell r="M2">
-            <v>84.627909658470699</v>
+            <v>78.520740920230551</v>
           </cell>
           <cell r="N2">
-            <v>85.400009082065864</v>
+            <v>94.295843361447737</v>
           </cell>
           <cell r="O2">
-            <v>82.511988695362149</v>
+            <v>90.583813676430182</v>
           </cell>
           <cell r="P2">
-            <v>99.000000000000014</v>
+            <v>91.8</v>
           </cell>
           <cell r="Q2">
-            <v>90.07135452915179</v>
+            <v>94.401708112284098</v>
           </cell>
           <cell r="R2">
-            <v>86.650420267926251</v>
+            <v>95.315462294718884</v>
           </cell>
           <cell r="S2">
-            <v>82.439431491030234</v>
+            <v>76.610380779543249</v>
           </cell>
           <cell r="T2">
-            <v>83.710294906507926</v>
+            <v>82.036089008377772</v>
           </cell>
           <cell r="U2">
-            <v>82.710566652055149</v>
+            <v>83.554552026055703</v>
           </cell>
           <cell r="V2">
-            <v>82.867716224872666</v>
+            <v>83.70476386350775</v>
           </cell>
           <cell r="W2">
-            <v>94.508902315233939</v>
+            <v>87.572469117785573</v>
           </cell>
           <cell r="X2">
-            <v>77.088291863237529</v>
+            <v>83.865284554511149</v>
           </cell>
           <cell r="Y2">
-            <v>70.410508912331025</v>
+            <v>69.653406665961867</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>77.303152226424046</v>
+            <v>74.386052142408033</v>
           </cell>
           <cell r="C3">
-            <v>72.221110146398729</v>
+            <v>66.920478209048355</v>
           </cell>
           <cell r="D3">
             <v>62.496524084707048</v>
           </cell>
           <cell r="E3">
-            <v>65.583584831497305</v>
+            <v>68.830296951868462</v>
           </cell>
           <cell r="F3">
-            <v>68.835723540077041</v>
+            <v>64.939361830261362</v>
           </cell>
           <cell r="G3">
-            <v>69.514261656233217</v>
+            <v>61.146804234649579</v>
           </cell>
           <cell r="H3">
-            <v>75.046850778962721</v>
+            <v>70.877581291242578</v>
           </cell>
           <cell r="I3">
-            <v>79.199063479870105</v>
+            <v>84.149004947361988</v>
           </cell>
           <cell r="J3">
-            <v>85.563140889459717</v>
+            <v>88.383903775925418</v>
           </cell>
           <cell r="K3">
-            <v>97.88379405524276</v>
+            <v>96.914647579448271</v>
           </cell>
           <cell r="L3">
-            <v>98.811914116902088</v>
+            <v>103.60860897694587</v>
           </cell>
           <cell r="M3">
-            <v>102.59264522486689</v>
+            <v>108.51145168014767</v>
           </cell>
           <cell r="N3">
             <v>93</v>
           </cell>
           <cell r="O3">
-            <v>106.00220233070868</v>
+            <v>95.205681722951311</v>
           </cell>
           <cell r="P3">
-            <v>90.5423503554089</v>
+            <v>89.599200872540052</v>
           </cell>
           <cell r="Q3">
-            <v>95.044881048182802</v>
+            <v>86.898176958338553</v>
           </cell>
           <cell r="R3">
-            <v>91.177211143766925</v>
+            <v>87.49328342078644</v>
           </cell>
           <cell r="S3">
             <v>87.427614202813601</v>
           </cell>
           <cell r="T3">
-            <v>101.80914470498028</v>
+            <v>96.204971601953844</v>
           </cell>
           <cell r="U3">
-            <v>90.019505139466972</v>
+            <v>94.612337034337742</v>
           </cell>
           <cell r="V3">
-            <v>88.447321565564536</v>
+            <v>101.34588929387604</v>
           </cell>
           <cell r="W3">
-            <v>91.151144335688855</v>
+            <v>88.272687146140797</v>
           </cell>
           <cell r="X3">
-            <v>97.484894873025439</v>
+            <v>94.801824371932994</v>
           </cell>
           <cell r="Y3">
-            <v>77.066080724905206</v>
+            <v>82.80504418314284</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>90.673838861083524</v>
+            <v>79.859527804257041</v>
           </cell>
           <cell r="C4">
-            <v>79.531483733543794</v>
+            <v>76.501712924646881</v>
           </cell>
           <cell r="D4">
-            <v>65.55352936596563</v>
+            <v>66.273897820536689</v>
           </cell>
           <cell r="E4">
-            <v>67.388153834443699</v>
+            <v>63.91453765741052</v>
           </cell>
           <cell r="F4">
-            <v>75.030109423916699</v>
+            <v>72.251216482290161</v>
           </cell>
           <cell r="G4">
-            <v>73.744986800804185</v>
+            <v>71.510290231082848</v>
           </cell>
           <cell r="H4">
-            <v>101.7336458898196</v>
+            <v>90.533611479931196</v>
           </cell>
           <cell r="I4">
-            <v>105.66507845707133</v>
+            <v>111.40774576452085</v>
           </cell>
           <cell r="J4">
-            <v>116.27478684861634</v>
+            <v>121.06962341969331</v>
           </cell>
           <cell r="K4">
-            <v>111.49402086189069</v>
+            <v>105.62591450073855</v>
           </cell>
           <cell r="L4">
             <v>117.30638638065362</v>
           </cell>
           <cell r="M4">
-            <v>115</v>
+            <v>116.25</v>
           </cell>
           <cell r="N4">
             <v>122.5</v>
           </cell>
           <cell r="O4">
-            <v>131.25</v>
+            <v>123.75</v>
           </cell>
           <cell r="P4">
-            <v>115.16619429455505</v>
+            <v>122.28987641586775</v>
           </cell>
           <cell r="Q4">
-            <v>110.15231154251752</v>
+            <v>120.26834015356506</v>
           </cell>
           <cell r="R4">
-            <v>100.51844759873973</v>
+            <v>110.98911922360845</v>
           </cell>
           <cell r="S4">
+            <v>107.84791773614783</v>
+          </cell>
+          <cell r="T4">
             <v>97.377246111279121</v>
           </cell>
-          <cell r="T4">
-            <v>100.51844759873973</v>
-          </cell>
           <cell r="U4">
-            <v>108.8949848986347</v>
+            <v>110.98911922360845</v>
           </cell>
           <cell r="V4">
-            <v>103.65964908620035</v>
+            <v>96.330178948792238</v>
           </cell>
           <cell r="W4">
-            <v>113.08325354858221</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="X4">
-            <v>104.98130510466393</v>
+            <v>98.924691348625615</v>
           </cell>
           <cell r="Y4">
-            <v>94.448616607568312</v>
+            <v>101.06001977009809</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>63.960777126019032</v>
+            <v>59.438297935290414</v>
           </cell>
           <cell r="C2">
-            <v>60.285966322987498</v>
+            <v>58.011024197591738</v>
           </cell>
           <cell r="D2">
-            <v>57.006845238724985</v>
+            <v>57.544645665505406</v>
           </cell>
           <cell r="E2">
-            <v>49.470629264515217</v>
+            <v>47.908398866688422</v>
           </cell>
           <cell r="F2">
-            <v>55.755718641197433</v>
+            <v>60.172013187034857</v>
           </cell>
           <cell r="G2">
-            <v>55.61932774175402</v>
+            <v>55.113697489556259</v>
           </cell>
           <cell r="H2">
-            <v>57.522166771878133</v>
+            <v>53.96409460042176</v>
           </cell>
           <cell r="I2">
-            <v>65.388396578829642</v>
+            <v>74.336282426458965</v>
           </cell>
           <cell r="J2">
-            <v>82.194009764772488</v>
+            <v>71.338197154330842</v>
           </cell>
           <cell r="K2">
-            <v>84.887143549140603</v>
+            <v>89.048278036843584</v>
           </cell>
           <cell r="L2">
-            <v>91.898015535251574</v>
+            <v>77.297396244604116</v>
           </cell>
           <cell r="M2">
-            <v>92.479983750493759</v>
+            <v>82.010551627796346</v>
           </cell>
           <cell r="N2">
-            <v>96.075010217324106</v>
+            <v>88.958342793818616</v>
           </cell>
           <cell r="O2">
-            <v>89.686944234089282</v>
+            <v>91.480683118771069</v>
           </cell>
           <cell r="P2">
-            <v>87.3</v>
+            <v>91.8</v>
           </cell>
           <cell r="Q2">
-            <v>85.741000946019483</v>
+            <v>81.41064736288719</v>
           </cell>
           <cell r="R2">
-            <v>81.451395051850668</v>
+            <v>92.7159496866811</v>
           </cell>
           <cell r="S2">
-            <v>76.610380779543249</v>
+            <v>89.933925262942083</v>
           </cell>
           <cell r="T2">
-            <v>89.570015549963486</v>
+            <v>79.52478016118252</v>
           </cell>
           <cell r="U2">
-            <v>79.334625156052894</v>
+            <v>85.242522774056837</v>
           </cell>
           <cell r="V2">
-            <v>92.075240249858538</v>
+            <v>89.564097333953299</v>
           </cell>
           <cell r="W2">
             <v>87.572469117785573</v>
           </cell>
           <cell r="X2">
-            <v>83.018160468101954</v>
+            <v>77.088291863237529</v>
           </cell>
           <cell r="Y2">
-            <v>78.738633622391674</v>
+            <v>77.981531376022531</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>77.303152226424046</v>
+            <v>69.281126995380035</v>
           </cell>
           <cell r="C3">
-            <v>59.632109295191611</v>
+            <v>68.245636193385948</v>
           </cell>
           <cell r="D3">
-            <v>68.355573217648342</v>
+            <v>71.610600513726837</v>
           </cell>
           <cell r="E3">
-            <v>70.128981800016916</v>
+            <v>67.531612103719993</v>
           </cell>
           <cell r="F3">
-            <v>71.433298013287498</v>
+            <v>68.835723540077041</v>
           </cell>
           <cell r="G3">
-            <v>70.801562798015311</v>
+            <v>68.870611085342162</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>68.792946547382499</v>
           </cell>
           <cell r="I3">
             <v>79.199063479870105</v>
           </cell>
           <cell r="J3">
-            <v>87.443649480436861</v>
+            <v>94.965683844345406</v>
           </cell>
           <cell r="K3">
-            <v>95.945501103653783</v>
+            <v>94.976354627859308</v>
           </cell>
           <cell r="L3">
-            <v>98.811914116902088</v>
+            <v>95.933897200875805</v>
           </cell>
           <cell r="M3">
-            <v>103.57911296741369</v>
+            <v>100.6197097397733</v>
           </cell>
           <cell r="N3">
-            <v>104</v>
+            <v>101</v>
           </cell>
           <cell r="O3">
-            <v>104.0391985838437</v>
+            <v>93.242677976086327</v>
           </cell>
           <cell r="P3">
-            <v>91.485499838277747</v>
+            <v>84.883453458195845</v>
           </cell>
           <cell r="Q3">
-            <v>83.277419585074455</v>
+            <v>84.182608928390479</v>
           </cell>
           <cell r="R3">
-            <v>89.335247282276683</v>
+            <v>95.782120797492539</v>
           </cell>
           <cell r="S3">
-            <v>90.217857209286379</v>
+            <v>86.497533200656022</v>
           </cell>
           <cell r="T3">
-            <v>101.80914470498028</v>
+            <v>95.270942751449425</v>
           </cell>
           <cell r="U3">
-            <v>93.693770655363593</v>
+            <v>86.345239623570365</v>
           </cell>
           <cell r="V3">
-            <v>83.84069023402472</v>
+            <v>91.211300364488423</v>
           </cell>
           <cell r="W3">
-            <v>105.5434302834292</v>
+            <v>90.191658605839493</v>
           </cell>
           <cell r="X3">
-            <v>92.11875387084055</v>
+            <v>95.696181205630481</v>
           </cell>
           <cell r="Y3">
-            <v>79.525636492721333</v>
+            <v>82.80504418314284</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>84.018878210728758</v>
+            <v>77.363917560374006</v>
           </cell>
           <cell r="C4">
-            <v>68.169843200180395</v>
+            <v>76.501712924646881</v>
           </cell>
           <cell r="D4">
-            <v>78.520161548244545</v>
+            <v>65.55352936596563</v>
           </cell>
           <cell r="E4">
-            <v>75.030109423916699</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="F4">
-            <v>71.55649324688352</v>
+            <v>69.472323540663609</v>
           </cell>
           <cell r="G4">
-            <v>78.214379940246872</v>
+            <v>73.000087944230401</v>
           </cell>
           <cell r="H4">
-            <v>84.933594274987001</v>
+            <v>95.200292484051374</v>
           </cell>
           <cell r="I4">
-            <v>117.15041307197038</v>
+            <v>103.36801153409151</v>
           </cell>
           <cell r="J4">
-            <v>110.28124113477014</v>
+            <v>112.67865942030862</v>
           </cell>
           <cell r="K4">
-            <v>123.23023358419498</v>
+            <v>119.70936976750369</v>
           </cell>
           <cell r="L4">
-            <v>129.03702501871899</v>
+            <v>113.78719478923401</v>
           </cell>
           <cell r="M4">
-            <v>131.25</v>
+            <v>117.5</v>
           </cell>
           <cell r="N4">
-            <v>137.5</v>
+            <v>125</v>
           </cell>
           <cell r="O4">
-            <v>128.75</v>
+            <v>113.75</v>
           </cell>
           <cell r="P4">
-            <v>123.47715676941986</v>
+            <v>127.03899783007621</v>
           </cell>
           <cell r="Q4">
-            <v>104.53229564749114</v>
+            <v>119.14433697455979</v>
           </cell>
           <cell r="R4">
-            <v>114.13032071106907</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="S4">
-            <v>110.98911922360845</v>
+            <v>106.80085057366097</v>
           </cell>
           <cell r="T4">
-            <v>109.94205206112159</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="U4">
-            <v>107.84791773614783</v>
+            <v>108.8949848986347</v>
           </cell>
           <cell r="V4">
-            <v>106.80085057366097</v>
+            <v>112.03618638609532</v>
           </cell>
           <cell r="W4">
-            <v>105.75378341117408</v>
+            <v>96.330178948792238</v>
           </cell>
           <cell r="X4">
-            <v>91.858641966580933</v>
+            <v>93.877513218593705</v>
           </cell>
           <cell r="Y4">
-            <v>100.11553360402242</v>
+            <v>103.89347826832515</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>67.837187860929276</v>
+            <v>60.084366391108787</v>
           </cell>
           <cell r="C2">
-            <v>51.754933352753412</v>
+            <v>60.285966322987498</v>
           </cell>
           <cell r="D2">
-            <v>49.477639263799041</v>
+            <v>54.317843104822856</v>
           </cell>
           <cell r="E2">
-            <v>51.032859662342013</v>
+            <v>57.281781253649207</v>
           </cell>
           <cell r="F2">
-            <v>50.787387277130335</v>
+            <v>57.963865914116141</v>
           </cell>
           <cell r="G2">
-            <v>52.585546228567438</v>
+            <v>55.113697489556259</v>
           </cell>
           <cell r="H2">
-            <v>62.266263000486646</v>
+            <v>56.929154743302071</v>
           </cell>
           <cell r="I2">
-            <v>66.076695490185742</v>
+            <v>70.206488958322353</v>
           </cell>
           <cell r="J2">
-            <v>80.643179391852257</v>
+            <v>79.092349018932012</v>
           </cell>
           <cell r="K2">
-            <v>79.893782163897043</v>
+            <v>83.222689754059417</v>
           </cell>
           <cell r="L2">
-            <v>85.027135869064523</v>
+            <v>93.615735451798329</v>
           </cell>
           <cell r="M2">
-            <v>80.265646274013449</v>
+            <v>86.372815012253596</v>
           </cell>
           <cell r="N2">
-            <v>94.295843361447737</v>
+            <v>81.841675370313126</v>
           </cell>
           <cell r="O2">
             <v>95.965030330475543</v>
           </cell>
           <cell r="P2">
-            <v>89.1</v>
+            <v>90</v>
           </cell>
           <cell r="Q2">
-            <v>82.276718079513643</v>
+            <v>91.80349596240471</v>
           </cell>
           <cell r="R2">
-            <v>84.917411862567718</v>
+            <v>78.851882443812897</v>
           </cell>
           <cell r="S2">
-            <v>79.941266900392947</v>
+            <v>86.603039142092371</v>
           </cell>
           <cell r="T2">
-            <v>91.24422144809364</v>
+            <v>84.54739785557301</v>
           </cell>
           <cell r="U2">
-            <v>83.554552026055703</v>
+            <v>90.306435018060213</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>82.867716224872666</v>
           </cell>
           <cell r="W2">
-            <v>87.572469117785573</v>
+            <v>78.901927620975115</v>
           </cell>
           <cell r="X2">
-            <v>92.336525418603202</v>
+            <v>78.782540036055934</v>
           </cell>
           <cell r="Y2">
-            <v>68.139202173223566</v>
+            <v>76.46732688328423</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>79.490977289436046</v>
+            <v>70.739677037388034</v>
           </cell>
           <cell r="C3">
-            <v>64.270162240373182</v>
+            <v>62.945004256035581</v>
           </cell>
           <cell r="D3">
-            <v>69.006578676864038</v>
+            <v>61.194513166275655</v>
           </cell>
           <cell r="E3">
-            <v>65.583584831497305</v>
+            <v>66.232927255571539</v>
           </cell>
           <cell r="F3">
             <v>60.393606502143072</v>
           </cell>
           <cell r="G3">
-            <v>64.365057089104823</v>
+            <v>68.870611085342162</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>70.182703043289209</v>
           </cell>
           <cell r="I3">
-            <v>81.674034213616039</v>
+            <v>75.899102501542188</v>
           </cell>
           <cell r="J3">
-            <v>99.666955321788251</v>
+            <v>96.846192435322536</v>
           </cell>
           <cell r="K3">
-            <v>106.60611233739311</v>
+            <v>90.130622248886894</v>
           </cell>
           <cell r="L3">
-            <v>103.60860897694587</v>
+            <v>99.771253088910839</v>
           </cell>
           <cell r="M3">
-            <v>105.55204845250728</v>
+            <v>89.768564571758532</v>
           </cell>
           <cell r="N3">
-            <v>100</v>
+            <v>91</v>
           </cell>
           <cell r="O3">
-            <v>97.168685469816282</v>
+            <v>103.05769671041122</v>
           </cell>
           <cell r="P3">
-            <v>87.712901906802372</v>
+            <v>88.656051389671219</v>
           </cell>
           <cell r="Q3">
-            <v>96.855259734814851</v>
+            <v>95.044881048182802</v>
           </cell>
           <cell r="R3">
-            <v>85.651319559296212</v>
+            <v>101.30801238196327</v>
           </cell>
           <cell r="S3">
-            <v>97.658505226547121</v>
+            <v>96.728424224389528</v>
           </cell>
           <cell r="T3">
-            <v>102.74317355548469</v>
+            <v>94.336913900945021</v>
           </cell>
           <cell r="U3">
-            <v>83.589540486647905</v>
+            <v>101.04230168715682</v>
           </cell>
           <cell r="V3">
-            <v>90.289974098180465</v>
+            <v>98.581910494952155</v>
           </cell>
           <cell r="W3">
-            <v>91.151144335688855</v>
+            <v>86.353715686442072</v>
           </cell>
           <cell r="X3">
-            <v>92.11875387084055</v>
+            <v>94.801824371932994</v>
           </cell>
           <cell r="Y3">
-            <v>77.885932647510586</v>
+            <v>88.54400764138046</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>88.178228617200489</v>
+            <v>86.514488454611794</v>
           </cell>
           <cell r="C4">
-            <v>71.199614009077294</v>
+            <v>76.501712924646881</v>
           </cell>
           <cell r="D4">
-            <v>77.079424639102442</v>
+            <v>67.714634729678778</v>
           </cell>
           <cell r="E4">
-            <v>67.388153834443699</v>
+            <v>75.030109423916699</v>
           </cell>
           <cell r="F4">
-            <v>65.99870736363043</v>
+            <v>63.91453765741052</v>
           </cell>
           <cell r="G4">
-            <v>73.000087944230401</v>
+            <v>69.275593661361512</v>
           </cell>
           <cell r="H4">
-            <v>98.933637287347509</v>
+            <v>95.200292484051374</v>
           </cell>
           <cell r="I4">
-            <v>126.33868076388964</v>
+            <v>103.36801153409151</v>
           </cell>
           <cell r="J4">
-            <v>130.65929656184724</v>
+            <v>124.66575084800104</v>
           </cell>
           <cell r="K4">
-            <v>115.01488467858198</v>
+            <v>109.14677831742983</v>
           </cell>
           <cell r="L4">
-            <v>114.96025865304054</v>
+            <v>118.47945024446015</v>
           </cell>
           <cell r="M4">
-            <v>125</v>
+            <v>121.25</v>
           </cell>
           <cell r="N4">
-            <v>126.25</v>
+            <v>130</v>
           </cell>
           <cell r="O4">
-            <v>122.5</v>
+            <v>136.25</v>
           </cell>
           <cell r="P4">
-            <v>117.54075500165929</v>
+            <v>115.16619429455505</v>
           </cell>
           <cell r="Q4">
             <v>118.02033379555451</v>
           </cell>
           <cell r="R4">
-            <v>95.283111786305369</v>
+            <v>108.8949848986347</v>
           </cell>
           <cell r="S4">
-            <v>96.330178948792238</v>
+            <v>103.65964908620035</v>
           </cell>
           <cell r="T4">
-            <v>99.471380436252844</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="U4">
-            <v>94.236044623818501</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="V4">
             <v>108.8949848986347</v>
           </cell>
           <cell r="W4">
-            <v>100.51844759873973</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="X4">
-            <v>100.94356260063839</v>
+            <v>111.03791886070223</v>
           </cell>
           <cell r="Y4">
-            <v>87.837213445038529</v>
+            <v>95.393102773643989</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>12.823952467059724</v>
           </cell>
           <cell r="C2">
-            <v>9.0395819672703368</v>
+            <v>10.316914201775928</v>
           </cell>
           <cell r="D2">
-            <v>10.149271903563729</v>
+            <v>9.0319208683090064</v>
           </cell>
           <cell r="E2">
-            <v>7.9695662025609142</v>
+            <v>8.2948546189919714</v>
           </cell>
           <cell r="F2">
-            <v>9.1745480002675723</v>
+            <v>8.4256053063681797</v>
           </cell>
           <cell r="G2">
-            <v>4.0842519685488439</v>
+            <v>4.7359943039555752</v>
           </cell>
           <cell r="H2">
-            <v>8.0357763648702143</v>
+            <v>6.8228289890407483</v>
           </cell>
           <cell r="I2">
-            <v>15.73304644321821</v>
+            <v>15.878722799173934</v>
           </cell>
           <cell r="J2">
-            <v>19.919975009909081</v>
+            <v>20.767633520969042</v>
           </cell>
           <cell r="K2">
-            <v>24.174097799079192</v>
+            <v>25.936792430262049</v>
           </cell>
           <cell r="L2">
-            <v>28.864799401649762</v>
+            <v>29.964410807426898</v>
           </cell>
           <cell r="M2">
-            <v>29.633682184985876</v>
+            <v>30.203560688543298</v>
           </cell>
           <cell r="N2">
-            <v>29.179231895335448</v>
+            <v>32.752199066192851</v>
           </cell>
           <cell r="O2">
-            <v>30.3</v>
+            <v>28.5</v>
           </cell>
           <cell r="P2">
-            <v>32.765766666837344</v>
+            <v>27.404095757718505</v>
           </cell>
           <cell r="Q2">
-            <v>28.795491987925047</v>
+            <v>30.811176427079801</v>
           </cell>
           <cell r="R2">
-            <v>29.869819755437376</v>
+            <v>24.937188970135789</v>
           </cell>
           <cell r="S2">
-            <v>22.615297845120683</v>
+            <v>23.587998827706517</v>
           </cell>
           <cell r="T2">
-            <v>26.383470610585558</v>
+            <v>25.899370232409677</v>
           </cell>
           <cell r="U2">
-            <v>24.868381896940935</v>
+            <v>23.486805124888662</v>
           </cell>
           <cell r="V2">
-            <v>22.831428783820105</v>
+            <v>21.378519679395186</v>
           </cell>
           <cell r="W2">
-            <v>25.37984803202621</v>
+            <v>22.642805597199853</v>
           </cell>
           <cell r="X2">
-            <v>24.524896472126461</v>
+            <v>20.065824386285286</v>
           </cell>
           <cell r="Y2">
-            <v>17.583560283527891</v>
+            <v>17.942408452579482</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.140202653524344</v>
+            <v>-24.652043378698629</v>
           </cell>
           <cell r="C3">
-            <v>-31.098682928010788</v>
+            <v>-34.589351419930367</v>
           </cell>
           <cell r="D3">
-            <v>-31.82841087762575</v>
+            <v>-35.326038446595611</v>
           </cell>
           <cell r="E3">
-            <v>-32.236860837910527</v>
+            <v>-35.10945239772434</v>
           </cell>
           <cell r="F3">
-            <v>-32.158775238708884</v>
+            <v>-31.132431348111798</v>
           </cell>
           <cell r="G3">
-            <v>-38.5</v>
+            <v>-33.25</v>
           </cell>
           <cell r="H3">
-            <v>-30.940843180062252</v>
+            <v>-29.120793581235059</v>
           </cell>
           <cell r="I3">
-            <v>-4.3417686801156039</v>
+            <v>-5.0496657475257569</v>
           </cell>
           <cell r="J3">
-            <v>14.694190478724103</v>
+            <v>14.391217479162782</v>
           </cell>
           <cell r="K3">
-            <v>22.494559613210075</v>
+            <v>21.171350224197717</v>
           </cell>
           <cell r="L3">
-            <v>18.896255942231068</v>
+            <v>18.202815357195067</v>
           </cell>
           <cell r="M3">
-            <v>22.399286049692037</v>
+            <v>22.168365574952944</v>
           </cell>
           <cell r="N3">
-            <v>20.082495043761927</v>
+            <v>18.852954530878545</v>
           </cell>
           <cell r="O3">
-            <v>21.953715064365976</v>
+            <v>19.209500681320229</v>
           </cell>
           <cell r="P3">
-            <v>10.455979658368168</v>
+            <v>10.891645477466842</v>
           </cell>
           <cell r="Q3">
-            <v>2.9187522095627498</v>
+            <v>2.5057212365114174</v>
           </cell>
           <cell r="R3">
-            <v>5.6354866096941647</v>
+            <v>5.7579971881657768</v>
           </cell>
           <cell r="S3">
-            <v>7.6636117306348908</v>
+            <v>8.1100357149437201</v>
           </cell>
           <cell r="T3">
-            <v>4.303258215747408</v>
+            <v>4.5722118542316208</v>
           </cell>
           <cell r="U3">
-            <v>-0.83620585243776402</v>
+            <v>-0.90310232063278517</v>
           </cell>
           <cell r="V3">
-            <v>-3.5908546575574491</v>
+            <v>-3.2317691918017037</v>
           </cell>
           <cell r="W3">
-            <v>-2.4982506189737341</v>
+            <v>-2.339271034129951</v>
           </cell>
           <cell r="X3">
-            <v>-10.782870305222625</v>
+            <v>-11.545295478319174</v>
           </cell>
           <cell r="Y3">
-            <v>-14.890351351284648</v>
+            <v>-16.069785121683434</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-34.420620107858348</v>
+            <v>-36.311862970927486</v>
           </cell>
           <cell r="C4">
-            <v>-38.959602979224279</v>
+            <v>-40.094348697065769</v>
           </cell>
           <cell r="D4">
-            <v>-41.277682912849912</v>
+            <v>-46.986298634839798</v>
           </cell>
           <cell r="E4">
             <v>-50.5</v>
           </cell>
           <cell r="F4">
-            <v>-46.5</v>
+            <v>-49</v>
           </cell>
           <cell r="G4">
-            <v>-52</v>
+            <v>-45</v>
           </cell>
           <cell r="H4">
-            <v>-19.936776562849264</v>
+            <v>-18.939937734706799</v>
           </cell>
           <cell r="I4">
-            <v>4.421821968909363</v>
+            <v>3.9672421403298954</v>
           </cell>
           <cell r="J4">
-            <v>13.648370863254453</v>
+            <v>13.779605198478054</v>
           </cell>
           <cell r="K4">
-            <v>12.72973051668925</v>
+            <v>14.042073868925256</v>
           </cell>
           <cell r="L4">
-            <v>12.959517741266986</v>
+            <v>12.839522206625626</v>
           </cell>
           <cell r="M4">
-            <v>16.363498785430291</v>
+            <v>18.219153286870842</v>
           </cell>
           <cell r="N4">
-            <v>23.092134341027904</v>
+            <v>21.720324380174759</v>
           </cell>
           <cell r="O4">
             <v>25.686871351608826</v>
           </cell>
           <cell r="P4">
-            <v>14.274448368504242</v>
+            <v>14.142277550277351</v>
           </cell>
           <cell r="Q4">
-            <v>10.416901148213565</v>
+            <v>11.138864594129357</v>
           </cell>
           <cell r="R4">
-            <v>-1.7912469114027969</v>
+            <v>-1.607100032660453</v>
           </cell>
           <cell r="S4">
-            <v>-1.7745062860625838</v>
+            <v>-1.8079875367430098</v>
           </cell>
           <cell r="T4">
-            <v>-1.607100032660453</v>
+            <v>-1.6908031593615185</v>
           </cell>
           <cell r="U4">
-            <v>-1.7577656607223706</v>
+            <v>-1.6405812833408793</v>
           </cell>
           <cell r="V4">
-            <v>-10.558312583575585</v>
+            <v>-10.664962205631904</v>
           </cell>
           <cell r="W4">
-            <v>-12.978832324693663</v>
+            <v>-14.618263776233917</v>
           </cell>
           <cell r="X4">
-            <v>-37.817455958072053</v>
+            <v>-38.963439471953023</v>
           </cell>
           <cell r="Y4">
-            <v>-36.671472444191075</v>
+            <v>-40.491417490460982</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>13.721629139753906</v>
+            <v>11.926275794365544</v>
           </cell>
           <cell r="C2">
-            <v>9.9238888988511302</v>
+            <v>9.6291199216575318</v>
           </cell>
           <cell r="D2">
-            <v>8.6594705232240994</v>
+            <v>8.9388082820377797</v>
           </cell>
           <cell r="E2">
-            <v>8.782787243638559</v>
+            <v>7.5629556820220918</v>
           </cell>
           <cell r="F2">
-            <v>10.017108530904391</v>
+            <v>9.4554015104798452</v>
           </cell>
           <cell r="G2">
-            <v>4.2146004356301896</v>
+            <v>3.9104540124403826</v>
           </cell>
           <cell r="H2">
-            <v>7.2018750439874566</v>
+            <v>8.3390132088275823</v>
           </cell>
           <cell r="I2">
-            <v>15.587370087262485</v>
+            <v>15.004664663439588</v>
           </cell>
           <cell r="J2">
-            <v>19.708060382144094</v>
+            <v>19.919975009909081</v>
           </cell>
           <cell r="K2">
-            <v>26.944046505223685</v>
+            <v>27.699487061444909</v>
           </cell>
           <cell r="L2">
-            <v>28.040090847316911</v>
+            <v>27.76518799587263</v>
           </cell>
           <cell r="M2">
-            <v>25.644532660083932</v>
+            <v>31.05837844387943</v>
           </cell>
           <cell r="N2">
-            <v>29.179231895335448</v>
+            <v>32.752199066192851</v>
           </cell>
           <cell r="O2">
-            <v>28.2</v>
+            <v>32.700000000000003</v>
           </cell>
           <cell r="P2">
-            <v>27.106225151656346</v>
+            <v>29.191319394091447</v>
           </cell>
           <cell r="Q2">
-            <v>31.099131346959052</v>
+            <v>30.235266587321302</v>
           </cell>
           <cell r="R2">
-            <v>29.321749668181642</v>
+            <v>30.143854799065242</v>
           </cell>
           <cell r="S2">
-            <v>25.290225547231731</v>
+            <v>23.587998827706517</v>
           </cell>
           <cell r="T2">
-            <v>25.415269854233795</v>
+            <v>22.75271777426644</v>
           </cell>
           <cell r="U2">
-            <v>21.184177171468203</v>
+            <v>24.1775935109148</v>
           </cell>
           <cell r="V2">
-            <v>19.925610574970271</v>
+            <v>18.680259914034629</v>
           </cell>
           <cell r="W2">
             <v>24.882203952966872</v>
           </cell>
           <cell r="X2">
-            <v>23.187174846374106</v>
+            <v>23.410128450666164</v>
           </cell>
           <cell r="Y2">
-            <v>16.148167607321533</v>
+            <v>18.121832537105277</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.872441565762916</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
-            <v>-29.512015431683707</v>
+            <v>-32.368016925072453</v>
           </cell>
           <cell r="D3">
-            <v>-33.227461905213694</v>
+            <v>-33.57722466211068</v>
           </cell>
           <cell r="E3">
-            <v>-32.236860837910527</v>
+            <v>-30.960153477993277</v>
           </cell>
           <cell r="F3">
             <v>-36.606265431296286</v>
           </cell>
           <cell r="G3">
-            <v>-35.35</v>
+            <v>-37.1</v>
           </cell>
           <cell r="H3">
-            <v>-29.727476780844121</v>
+            <v>-29.120793581235059</v>
           </cell>
           <cell r="I3">
-            <v>-5.0496657475257569</v>
+            <v>-4.2473824044609163</v>
           </cell>
           <cell r="J3">
-            <v>14.08824447960146</v>
+            <v>14.694190478724103</v>
           </cell>
           <cell r="K3">
-            <v>20.950815326028991</v>
+            <v>20.068675733354087</v>
           </cell>
           <cell r="L3">
-            <v>18.202815357195067</v>
+            <v>19.069616088490072</v>
           </cell>
           <cell r="M3">
-            <v>23.092047473909318</v>
+            <v>21.706524625474756</v>
           </cell>
           <cell r="N3">
-            <v>18.852954530878545</v>
+            <v>19.672648206134134</v>
           </cell>
           <cell r="O3">
-            <v>20.898247993963768</v>
+            <v>20.264967751722441</v>
           </cell>
           <cell r="P3">
-            <v>11.327311296565515</v>
+            <v>11.545144206114852</v>
           </cell>
           <cell r="Q3">
             <v>2.8636814131559056</v>
           </cell>
           <cell r="R3">
-            <v>5.7579971881657768</v>
+            <v>6.0642736343448078</v>
           </cell>
           <cell r="S3">
-            <v>8.1844397123285244</v>
+            <v>7.5892077332500856</v>
           </cell>
           <cell r="T3">
-            <v>4.0343045772631951</v>
+            <v>4.2584326093333722</v>
           </cell>
           <cell r="U3">
-            <v>-0.79439555981587573</v>
+            <v>-0.78603350129149818</v>
           </cell>
           <cell r="V3">
-            <v>-2.9379719925470038</v>
+            <v>-3.0685485255490925</v>
           </cell>
           <cell r="W3">
-            <v>-2.452827880446939</v>
+            <v>-2.3165596648665532</v>
           </cell>
           <cell r="X3">
-            <v>-11.872049123931982</v>
+            <v>-11.980967005802917</v>
           </cell>
           <cell r="Y3">
-            <v>-13.563488359586016</v>
+            <v>-14.005776023485559</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-35.177117253086003</v>
+            <v>-34.04237153524452</v>
           </cell>
           <cell r="C4">
-            <v>-40.472597269679596</v>
+            <v>-35.933614398313658</v>
           </cell>
           <cell r="D4">
             <v>-45.229801489612136</v>
           </cell>
           <cell r="E4">
-            <v>-51.5</v>
+            <v>-53</v>
           </cell>
           <cell r="F4">
-            <v>-46.5</v>
+            <v>-45</v>
           </cell>
           <cell r="G4">
-            <v>-46.5</v>
+            <v>-50</v>
           </cell>
           <cell r="H4">
-            <v>-20.136144328477759</v>
+            <v>-18.142466672192832</v>
           </cell>
           <cell r="I4">
-            <v>4.0085675792916655</v>
+            <v>3.8019403844828168</v>
           </cell>
           <cell r="J4">
-            <v>13.517136528030852</v>
+            <v>12.72973051668925</v>
           </cell>
           <cell r="K4">
-            <v>11.942324505347646</v>
+            <v>12.204793175794848</v>
           </cell>
           <cell r="L4">
-            <v>12.239544533418819</v>
+            <v>12.479535602701542</v>
           </cell>
           <cell r="M4">
-            <v>16.532194649197617</v>
+            <v>17.206978104266906</v>
           </cell>
           <cell r="N4">
-            <v>21.263054393223715</v>
+            <v>20.577149412797144</v>
           </cell>
           <cell r="O4">
-            <v>22.85895890922987</v>
+            <v>23.565937019824609</v>
           </cell>
           <cell r="P4">
-            <v>12.291886095100875</v>
+            <v>14.142277550277351</v>
           </cell>
           <cell r="Q4">
-            <v>9.282387161774464</v>
+            <v>9.4886624320361186</v>
           </cell>
           <cell r="R4">
-            <v>-1.7745062860625838</v>
+            <v>-1.5736187819800269</v>
           </cell>
           <cell r="S4">
-            <v>-1.5736187819800269</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="T4">
-            <v>-1.607100032660453</v>
+            <v>-1.6740625340213053</v>
           </cell>
           <cell r="U4">
-            <v>-1.8079875367430098</v>
+            <v>-1.6573219086810922</v>
           </cell>
           <cell r="V4">
-            <v>-10.131714095350308</v>
+            <v>-10.345013339462946</v>
           </cell>
           <cell r="W4">
-            <v>-14.891502351490626</v>
+            <v>-12.978832324693663</v>
           </cell>
           <cell r="X4">
-            <v>-35.907483434937099</v>
+            <v>-40.109422985833994</v>
           </cell>
           <cell r="Y4">
-            <v>-36.289477939564087</v>
+            <v>-35.525488930310111</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>13.465150090412711</v>
+            <v>13.849868664424504</v>
           </cell>
           <cell r="C2">
-            <v>9.3343509444639334</v>
+            <v>9.6291199216575318</v>
           </cell>
           <cell r="D2">
-            <v>8.6594705232240994</v>
+            <v>9.4974837996651402</v>
           </cell>
           <cell r="E2">
-            <v>7.5629556820220918</v>
+            <v>8.7014651395307947</v>
           </cell>
           <cell r="F2">
-            <v>8.8000766533178751</v>
+            <v>8.9873123267927237</v>
           </cell>
           <cell r="G2">
-            <v>4.5187468588199975</v>
+            <v>4.3449489027115362</v>
           </cell>
           <cell r="H2">
-            <v>7.3534934659661397</v>
+            <v>6.8986382000300903</v>
           </cell>
           <cell r="I2">
-            <v>15.73304644321821</v>
+            <v>14.858988307483864</v>
           </cell>
           <cell r="J2">
-            <v>23.098694426383936</v>
+            <v>21.615292032029004</v>
           </cell>
           <cell r="K2">
-            <v>24.174097799079192</v>
+            <v>23.670470761598374</v>
           </cell>
           <cell r="L2">
-            <v>25.840868035762643</v>
+            <v>24.741256629985511</v>
           </cell>
           <cell r="M2">
-            <v>29.063803681428457</v>
+            <v>26.499350415420064</v>
           </cell>
           <cell r="N2">
-            <v>29.774726423811682</v>
+            <v>29.476979159573563</v>
           </cell>
           <cell r="O2">
-            <v>33</v>
+            <v>31.200000000000003</v>
           </cell>
           <cell r="P2">
-            <v>27.106225151656346</v>
+            <v>31.57428424258871</v>
           </cell>
           <cell r="Q2">
-            <v>31.099131346959052</v>
+            <v>29.371401827683549</v>
           </cell>
           <cell r="R2">
-            <v>24.937188970135789</v>
+            <v>27.403504362786581</v>
           </cell>
           <cell r="S2">
-            <v>25.047050301585269</v>
+            <v>22.372122599474224</v>
           </cell>
           <cell r="T2">
-            <v>24.93116947605791</v>
+            <v>26.383470610585558</v>
           </cell>
           <cell r="U2">
             <v>23.256542329546615</v>
           </cell>
           <cell r="V2">
-            <v>19.925610574970271</v>
+            <v>20.963402792416638</v>
           </cell>
           <cell r="W2">
-            <v>27.370424348263562</v>
+            <v>24.384559873907534</v>
           </cell>
           <cell r="X2">
-            <v>20.734685199161461</v>
+            <v>20.957638803453516</v>
           </cell>
           <cell r="Y2">
-            <v>16.148167607321533</v>
+            <v>17.045288029950505</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-24.896123016111485</v>
+            <v>-25.62836192835006</v>
           </cell>
           <cell r="C3">
-            <v>-31.416016427276205</v>
+            <v>-33.954684421399534</v>
           </cell>
           <cell r="D3">
-            <v>-31.82841087762575</v>
+            <v>-36.025563960389583</v>
           </cell>
           <cell r="E3">
-            <v>-30.960153477993277</v>
+            <v>-29.364269278096717</v>
           </cell>
           <cell r="F3">
-            <v>-33.527233759505009</v>
+            <v>-32.158775238708884</v>
           </cell>
           <cell r="G3">
-            <v>-35</v>
+            <v>-36.050000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-32.760892778889442</v>
+            <v>-27.604085582212402</v>
           </cell>
           <cell r="I3">
-            <v>-4.5777343692523207</v>
+            <v>-4.6721206449070083</v>
           </cell>
           <cell r="J3">
-            <v>16.663514975872694</v>
+            <v>15.148649978066086</v>
           </cell>
           <cell r="K3">
             <v>20.509745529691543</v>
           </cell>
           <cell r="L3">
-            <v>17.856095064677064</v>
+            <v>17.509374772159063</v>
           </cell>
           <cell r="M3">
-            <v>23.784808898126599</v>
+            <v>22.630206524431131</v>
           </cell>
           <cell r="N3">
-            <v>19.877571624948033</v>
+            <v>18.443107693250752</v>
           </cell>
           <cell r="O3">
-            <v>21.109341408044209</v>
+            <v>20.898247993963768</v>
           </cell>
           <cell r="P3">
-            <v>10.564896113142836</v>
+            <v>9.8024809297201578</v>
           </cell>
           <cell r="Q3">
-            <v>2.8636814131559056</v>
+            <v>2.6433982275285279</v>
           </cell>
           <cell r="R3">
-            <v>6.4318053697596449</v>
+            <v>5.7579971881657768</v>
           </cell>
           <cell r="S3">
-            <v>7.2171877463260614</v>
+            <v>7.8124197254045002</v>
           </cell>
           <cell r="T3">
-            <v>4.4825606414035502</v>
+            <v>4.2136070029193373</v>
           </cell>
           <cell r="U3">
-            <v>-0.91146437915716283</v>
+            <v>-0.77767144276712052</v>
           </cell>
           <cell r="V3">
-            <v>-3.0685485255490925</v>
+            <v>-3.4276339913048379</v>
           </cell>
           <cell r="W3">
-            <v>-2.4982506189737341</v>
+            <v>-2.0440232337057824</v>
           </cell>
           <cell r="X3">
-            <v>-10.67395242335169</v>
+            <v>-11.545295478319174</v>
           </cell>
           <cell r="Y3">
-            <v>-15.037780572584497</v>
+            <v>-15.185209793884344</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-35.177117253086003</v>
+            <v>-35.555365825699823</v>
           </cell>
           <cell r="C4">
-            <v>-37.068360116155141</v>
+            <v>-39.716100124451934</v>
           </cell>
           <cell r="D4">
-            <v>-39.96031005392917</v>
+            <v>-42.595055771770653</v>
           </cell>
           <cell r="E4">
+            <v>-53</v>
+          </cell>
+          <cell r="F4">
+            <v>-47.5</v>
+          </cell>
+          <cell r="G4">
             <v>-50</v>
           </cell>
-          <cell r="F4">
-            <v>-52</v>
-          </cell>
-          <cell r="G4">
-            <v>-54.500000000000007</v>
-          </cell>
           <cell r="H4">
-            <v>-21.332350922248715</v>
+            <v>-18.341834437821323</v>
           </cell>
           <cell r="I4">
-            <v>4.0912184572152048</v>
+            <v>4.1738693351387441</v>
           </cell>
           <cell r="J4">
-            <v>14.435776874596057</v>
+            <v>12.073558840571247</v>
           </cell>
           <cell r="K4">
-            <v>11.942324505347646</v>
+            <v>12.204793175794848</v>
           </cell>
           <cell r="L4">
-            <v>12.599531137342902</v>
+            <v>11.279580256287931</v>
           </cell>
           <cell r="M4">
-            <v>18.219153286870842</v>
+            <v>15.351323602826358</v>
           </cell>
           <cell r="N4">
-            <v>23.549404327978952</v>
+            <v>20.577149412797144</v>
           </cell>
           <cell r="O4">
-            <v>23.801596390022855</v>
+            <v>25.686871351608826</v>
           </cell>
           <cell r="P4">
-            <v>13.084911004462221</v>
+            <v>14.142277550277351</v>
           </cell>
           <cell r="Q4">
-            <v>9.5918000671669468</v>
+            <v>9.7980753374285996</v>
           </cell>
           <cell r="R4">
+            <v>-1.7745062860625838</v>
+          </cell>
+          <cell r="S4">
             <v>-1.5066562806191748</v>
           </cell>
-          <cell r="S4">
-            <v>-1.7242844100419445</v>
-          </cell>
           <cell r="T4">
-            <v>-1.8414687874234361</v>
+            <v>-1.7075437847017314</v>
           </cell>
           <cell r="U4">
-            <v>-1.7577656607223706</v>
+            <v>-1.6405812833408793</v>
           </cell>
           <cell r="V4">
-            <v>-10.664962205631904</v>
+            <v>-10.131714095350308</v>
           </cell>
           <cell r="W4">
-            <v>-14.071786625720499</v>
+            <v>-14.481644488605562</v>
           </cell>
           <cell r="X4">
-            <v>-38.581444967326028</v>
+            <v>-37.05346694881807</v>
           </cell>
           <cell r="Y4">
-            <v>-36.671472444191075</v>
+            <v>-38.963439471953023</v>
           </cell>
         </row>
       </sheetData>
@@ -4512,100 +4512,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>11.963609226654738</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <v>12.078643930757188</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>8.4297880193616752</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <v>8.6959918515520442</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>7.0644072097259922</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <v>8.2038277274237341</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>7.0616584277031276</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <v>7.7306576471697399</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>9.2087834704725005</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <v>7.6035826820415133</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>11.224175909541595</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <v>10.384985187332877</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>16.763395276732407</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>18.478014769067915</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <v>21.259651400970611</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>21.578285019722983</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <v>23.87384725586373</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>27.300633490901657</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <v>23.761662482821809</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>27.785946846808869</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <v>26.256445185516636</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>25.28495371614105</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <v>26.035991945333357</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>26.901114747303062</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <v>23.632755011649415</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>23.640443105704602</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <v>25.631217261974463</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>21.775385493095161</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <v>22.897828044285635</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>23.247982462641176</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <v>21.328424277652452</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>22.231108734240113</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <v>20.91044880943377</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>28.799999999999997</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <v>28.2</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>30.555578081362903</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <v>30.855142572356655</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>27.009356828647501</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <v>26.428510445235727</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>25.000008852039247</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <v>29.569902943272229</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>22.711477047238613</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>20.668893673395321</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <v>18.524008480873164</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>15.857023222758279</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <v>13.613104842179277</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4613,100 +4613,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-29.09616619718722</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <v>-31.714821154934072</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-34.153420035377039</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <v>-30.042360216303873</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-33.041028932258058</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <v>-36.106691410508809</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-31.786050297982708</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <v>-34.491246068023791</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-35.35</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <v>-32.9</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-28.975627206277821</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <v>-32.091286045662528</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-20.881675807134563</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <v>-22.505806147689473</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-10.218872426865063</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <v>-9.3593411012408989</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-2.8968982562438326</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <v>-2.8125225788775072</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.48396959131273776</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <v>-0.42677318506668688</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-3.7128317282787733</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <v>-4.305304876408365</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-2.7586401037887325</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <v>-3.0780615894905861</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-3.9389123117133655</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <v>-3.9791052944859509</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-4.1356329829271505</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <v>-4.297814668532137</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-11.274996750209795</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <v>-10.864996868383985</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-14.023529040574426</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <v>-13.580680755082602</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-12.340090316192352</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <v>-13.12775565552378</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>-4.4811957368201529</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <v>-4.0778881205063389</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-6.5837182544618349</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <v>-6.4533475959576405</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-8.1941074192990548</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <v>-8.5218717160710167</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-12.742775751833543</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <v>-11.970486312328481</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-17.37635201142394</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <v>-16.206789856808868</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-24.657705335955615</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <v>-21.967773844760455</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-27.249720463096981</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <v>-23.717349291954775</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4714,100 +4714,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>40.768060995319225</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <v>37.135263480884838</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>47</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <v>55.000000000000007</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>54</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>46</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <v>53</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>54.500000000000007</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>40.512661952342619</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <v>44.158801528053459</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>16.905496730639008</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <v>19.661827719330152</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>2.2946904968877657</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <v>2.2000640846449713</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>-13.703439724021594</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <v>-13.426602557879743</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>-12.457672476383268</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <v>-14.67236980551807</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>-1.0728668191944013</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <v>-1.1682327586783481</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>-15.300929136764116</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <v>-13.28005170360659</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>-14.867883972516074</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <v>-15.156580748681435</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>-10.056206437967687</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <v>-11.732240844295633</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.2507609695470558</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <v>-1.4592211311382317</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>8.6458839498713065</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <v>7.9743589828910109</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>10.839454655483015</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>10.606348103752197</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <v>11.771880862406285</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>10.722901379617607</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <v>12.004987414137103</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>12.704307069329555</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <v>12.471200517598739</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>12.23809396586792</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <v>11.072561207213832</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>22.846804846468828</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <v>24.548162654184594</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>39.753234673256202</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <v>38.267132442480268</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>39.381709115562217</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <v>38.267132442480268</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5659,100 +5659,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>12.423748043064537</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <v>10.813262185630244</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>8.6959918515520442</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <v>9.7608071803135203</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>7.444214048958572</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <v>8.2038277274237341</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>6.764325441273523</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <v>7.8049908937771413</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>9.2932677224951838</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <v>8.7863622103590817</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>11.224175909541595</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <v>10.594782867885055</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>14.810378351287854</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <v>16.437892455824979</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>19.074079761618489</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>22.726066137793357</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <v>21.807841243337059</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>23.003311552518987</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <v>25.278364343427459</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>24.217109637126995</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>25.034607639743612</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <v>27.037376250923103</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>24.638404161081308</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <v>25.392641023155225</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>24.635830183839534</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <v>22.645056027569673</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>23.122316554523731</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <v>21.326408472618972</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>23.247982462641176</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <v>21.541708520428976</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>22.891438696643288</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <v>21.130558796901493</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>33</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <v>31.8</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>28.159062153412869</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <v>31.154707063350411</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>27.299780020353385</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <v>30.204011937412258</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>25.537643451007831</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <v>28.763451044819348</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>25.102158841684787</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <v>21.755204329460149</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>18.718998043829721</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <v>19.88893542156908</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>14.061888518295078</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <v>13.613104842179277</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5760,100 +5760,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-30.841936169018453</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <v>-31.714821154934072</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-32.888478552585298</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <v>-34.153420035377039</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-34.403545589258393</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <v>-30.656624782507482</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-34.829395539278927</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <v>-30.771601884217304</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-36.050000000000004</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <v>-33.949999999999996</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-33.337549581416418</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <v>-33.025983697477947</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-23.433880628006566</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <v>-24.129936488244386</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-9.6458515431156204</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <v>-10.027865465615248</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-2.8968982562438326</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <v>-2.6437712241448565</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.46197097352579508</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <v>-0.48396959131273776</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-4.305304876408365</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <v>-4.0288174072812222</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-2.9328700050806527</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <v>-2.6715251531427726</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-4.3006491566666343</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <v>-3.8183333633956091</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-3.8518150331184242</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <v>-3.8112696117171776</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-10.967496838840438</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <v>-10.147497075188815</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-15.204457801885956</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <v>-14.613993421230191</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-12.471367872747591</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <v>-11.814980089971401</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>-4.6604435662929591</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <v>-4.6156316089247573</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-7.1052008884786142</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <v>-6.9748302299744198</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-7.948284196720083</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <v>-7.4566377515621403</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-14.029924817675315</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <v>-14.158639724259492</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-15.371388317798102</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <v>-17.209271703621788</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-22.640256717559247</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <v>-22.864417675158844</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-26.240471557056349</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <v>-27.754344916117294</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5861,100 +5861,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>39.960772658778247</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <v>36.731619312614349</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>54</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>54</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <v>49.5</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>52.5</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <v>51.5</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>47.5</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <v>54.500000000000007</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>39.702408713295767</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <v>42.53829504995975</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>17.824273726869389</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <v>19.294316920838</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.5312565274947518</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <v>2.4366301152519574</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>-13.841858307092519</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <v>-13.288183974808817</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>-14.11869547323437</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <v>-13.288183974808817</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>-1.1801535011138413</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <v>-1.2755194405977883</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>-15.300929136764116</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <v>-14.579187196350713</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>-15.589625912929476</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <v>-15.156580748681435</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>-10.726620200498864</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <v>-10.950091454675924</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.4453237870321534</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <v>-1.5287078516686239</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>8.8137651916163815</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <v>8.561943328998769</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>10.489794827886788</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <v>11.771880862406285</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>12.121540690002512</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <v>10.839454655483015</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>10.956007931348424</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>11.305667758944649</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <v>12.820860345194964</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>12.121540690002512</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <v>10.839454655483015</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>25.763418231124426</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <v>24.791213769572561</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>40.124760230950187</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <v>34.923402423234421</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>35.666453538622385</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <v>38.638658000174253</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13884,100 +13884,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>62.893737819680219</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.708353922045575</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>56.364225661085939</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>59.207903317830635</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>58.530787242306992</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>53.152782974502742</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>57.142063923937876</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>57.662807389880143</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>55.014277407191891</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>52.806130134273189</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>54.804547909336627</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>55.815808413732157</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>62.58254120047274</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>64.361577286200927</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>70.570374672608068</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>73.32357031803248</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>83.289424951232604</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>70.882781967870713</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>87.85033852747668</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>76.199161961908359</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>84.443018767934007</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>93.031618350667799</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>84.971223944184985</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>78.864055205944837</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>85.946980510637289</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>94.842814790019162</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>83.51976012393358</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>91.591585105001613</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>100.07520000000001</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>92.875199999999992</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>91.128725957723219</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>95.459079540855527</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>87.243563125069102</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>95.908605151861735</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>83.647660062458812</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>77.818609350971826</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>84.419323477936501</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>82.745117579806347</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>83.209080937769428</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>84.053066311769982</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>83.624744796301243</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>84.461792434936328</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>94.976788029519653</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>88.040354832071287</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.223834720380381</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>86.000827411654001</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>72.984908912331022</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>72.227806665961864</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13985,100 +13985,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>80.424676035947854</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>77.507575951931841</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>75.446760940049529</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>70.146129002699155</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>65.384905037088004</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>68.321362609275084</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>71.568074729646241</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>71.078771159124656</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>67.182409449308977</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>71.418007687979255</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>63.050550266395611</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>77.374977763089703</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>73.20570827536956</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>79.603380940187563</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>84.553322407679445</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.918696445015271</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>88.739459331480973</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>98.402143261591959</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>97.432996785797471</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>99.117183958171935</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>103.91387881821572</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>102.97410554232721</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>108.892911997608</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>93.607746031746032</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>107.12194836245472</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>96.325427754697344</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>91.737017022075563</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>90.793867539206715</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>96.219738191039951</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>88.073034101195702</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>91.836258762814538</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>88.152331039834053</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>88.770090393289792</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>102.59695422878981</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>96.992781125763372</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>90.573409901371733</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>95.166241796242502</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>89.288464422707392</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>102.1870321510189</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>91.671017351561872</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>88.792560162013814</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>99.85772026985083</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>97.174649768758385</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.926525169349645</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>85.66548862758728</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14086,100 +14086,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>94.575743622988284</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>83.761432566161801</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>83.56354722560728</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>80.533776416710367</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>69.164005556441822</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>69.884374011012881</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>70.810376056665916</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>67.336759879632737</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>77.833918947726218</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>75.055026006099681</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>76.124669340486719</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>73.889972770765382</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>104.64380461997833</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>93.443770210089923</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>106.17047528246816</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>111.91314258991768</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>116.71923129306079</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>121.51406786413776</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>112.1419573698272</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>106.27385100867505</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>117.68797368224092</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>115.47682539682539</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>116.72682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>123.25968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>132.64968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>125.14968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>116.65952762788839</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>123.78320974920109</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>111.62088297108895</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>121.73691158213649</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>101.34225712254926</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>111.81292874741798</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>99.055341349374359</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>109.52601297424307</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>101.50320950350164</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>98.362008016041031</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>109.58736585101566</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>111.68150017598941</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>104.71107765762892</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>97.381607520220811</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>113.73309481842348</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>100.12122170609412</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>107.94733685069568</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>101.89072309465736</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>98.024172163123865</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>104.63557532565365</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15033,100 +15033,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.770148554590463</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>62.247669363861846</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>63.189052037273214</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>60.914109911877453</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>59.606388095867842</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>60.144188522648264</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>51.934629264515216</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>50.372398866688421</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>57.774461498340287</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>62.190756044177711</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>57.332699170325448</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>56.827068918127686</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>59.617481057592421</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>56.059408886136048</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>65.752282293115357</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>74.70016814074468</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>82.514009764772482</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>71.658197154330836</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>85.353657834854886</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>89.514792322557867</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>92.172758392394428</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>77.57213910174697</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>92.823298036208044</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>82.353865913510631</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>96.621981645895531</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>89.505314222390041</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>90.694715662660712</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>92.488454547342499</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>88.375199999999992</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>92.875199999999992</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>86.798372374590912</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>82.468018791458618</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>82.044537908993519</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>93.309092543823951</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>77.818609350971826</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>91.14215383437066</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>90.279044121392062</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>80.233808732611095</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>79.833139441767173</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>85.741037059771116</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>92.832268821287116</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>90.321125905381876</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>88.040354832071287</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>85.153703325244805</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>79.223834720380381</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>81.313033622391671</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>80.555931376022528</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -15134,100 +15134,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>80.424676035947854</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>72.402650804903843</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>62.857760088842404</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>71.471286987036748</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>71.243954170029298</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>74.498981466107793</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>72.866759577794696</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>70.269389881497773</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>73.676345632335114</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>71.078771159124656</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>72.70530882976135</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>70.774357117088201</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>65.562047547882614</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>71.121073531509481</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>79.603380940187563</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>87.799205035992415</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>95.321239399900961</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>96.463850310002982</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>95.494703834208508</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>99.117183958171935</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>96.239167042145652</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>103.96057328487402</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>101.00117005723362</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>104.60774603174603</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>101.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>105.15894461558973</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>94.36242400783236</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>92.68016650494441</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>86.078120124862508</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>84.452276727931604</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>85.357466071247629</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>89.994294901324295</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>96.441168416540151</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>91.56033339976257</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>87.840009391132213</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>102.59695422878981</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>96.058752275258954</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>94.247675417268354</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>86.899144385475125</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>84.681833091167576</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>92.052443221631279</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>106.06330329930222</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>90.71153162171251</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>94.491579267665941</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>98.069006602455872</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>82.386080937165772</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>85.66548862758728</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15235,100 +15235,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>87.920782972633518</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>81.265822322278765</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>72.201906692243881</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>80.533776416710367</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>82.130637738720736</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>69.164005556441822</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>78.452331646138916</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>70.810376056665916</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>74.360302770693039</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>72.276133064473129</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>80.594062479929406</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>75.379770483912935</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>87.843753005145729</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>98.110451214210102</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>117.65580989736721</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>103.87340835948834</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>110.72568557921458</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>113.12310386475306</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>123.87817009213148</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>120.35730627544019</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>129.41861232030629</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>114.16878209082131</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>131.7268253968254</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>117.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>138.25968253968253</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>125.75968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>130.14968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>115.14968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>124.9704901027532</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>128.53233116340954</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>106.00086707606256</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>120.61290840313121</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>114.9541302348786</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>100.29518996006237</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>112.66721446170369</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>108.4789458117562</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>110.9268139658835</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>95.220806528580411</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>108.54029868852879</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>109.58736585101566</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>107.85227914508954</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>113.0876149575239</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>106.40362468101536</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>96.980020218633513</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>94.824673712612679</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>96.843544964625451</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>103.69108915957797</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>107.46903382388071</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16182,100 +16182,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.646559289500701</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>62.893737819680219</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>54.658019067039127</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>63.189052037273214</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>52.077182120941899</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>56.917385961965714</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>53.496859662342011</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>59.745781253649206</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>52.806130134273189</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>59.982608771258995</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>54.298917657138865</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>56.827068918127686</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>64.361577286200927</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>59.024469029016359</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>66.440581204471457</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>70.570374672608068</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>80.96317939185225</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>79.412349018932005</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>80.360296449611326</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>83.689204039773699</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>85.301878726207377</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>93.890478308941184</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>80.608960559727734</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>86.716129297967882</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>94.842814790019162</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>82.388646798884551</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>96.972801759046973</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>90.17519999999999</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>91.075199999999995</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>83.334089508085071</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>92.860867390976139</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>85.510554719710569</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>79.445025300955749</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>81.149495471821524</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>87.811267713520948</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>91.953250019522216</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>85.256426427001585</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>84.053066311769982</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>90.804949303774492</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>80.276554241760934</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>83.624744796301243</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>88.040354832071287</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>79.369813335260829</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>94.472068275746054</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>80.918082893198786</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>70.713602173223563</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>79.041726883284227</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -16283,100 +16283,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>82.612501098959854</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>73.861200846911842</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>67.495813034023982</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>66.170655049686374</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>71.894959629244994</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>64.082894118656611</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>68.321362609275084</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>68.970705033349319</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>62.636654121190688</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.268803120850862</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>70.774357117088201</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>65.562047547882614</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>72.510830027416191</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>82.078351673933497</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>76.303419961859646</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>100.02251087734381</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>97.20174799087809</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>107.12446154374231</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>90.648971455236094</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>103.91387881821572</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>100.07652293018069</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>105.9335087699676</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>90.150024889218855</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>100.60774603174603</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>91.607746031746032</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>98.288431501562314</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>104.17744274215725</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>88.907568573469035</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>89.850718056337882</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>98.030116877672</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>96.219738191039951</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>86.310367178343824</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>101.96706000101088</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>99.000981417023311</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>98.070900414865719</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>103.53098307929422</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>95.124723424754549</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>84.143445248552666</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>101.59620644906158</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>91.131116955323321</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>99.42305335209501</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>91.671017351561872</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>86.873588702315089</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>94.491579267665941</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>97.174649768758385</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>80.746377091955026</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>91.4044520858249</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16384,100 +16384,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>92.080133379105249</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>90.416393216516553</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>75.23167750114078</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>80.533776416710367</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>80.689900829578633</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>71.32511092015497</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>70.810376056665916</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>78.452331646138916</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>68.80251688743995</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>66.718347181220039</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>75.379770483912935</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>71.655276201044046</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>101.84379601750624</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>98.110451214210102</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>126.84407758928647</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>103.87340835948834</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>131.1037410062917</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>125.11019529244548</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>115.66282118651849</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>109.79471482536634</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>115.34184595462784</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>118.86103754604746</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>125.47682539682539</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>121.72682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>127.00968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>130.75968253968253</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>123.89968253968254</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>137.64968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>119.03408833499263</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>116.65952762788839</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>119.48890522412593</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>96.106921310114899</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>109.71879442244423</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>98.008274186887476</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>105.33774432429558</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>100.45614234101475</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>95.220806528580411</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>94.928425576199459</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>101.21082855112068</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>109.94641347006328</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>101.168288868581</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>100.12122170609412</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>103.90959434667013</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>114.00395060673398</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>91.412769000594082</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>98.968658329199542</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17331,100 +17331,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>12.695712942389127</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <v>12.823952467059724</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>9.0395819672703368</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <v>10.316914201775928</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>10.149271903563729</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <v>9.0319208683090064</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>7.9695662025609142</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <v>8.2948546189919714</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>9.1745480002675723</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <v>8.4256053063681797</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>4.0842519685488439</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <v>4.7359943039555752</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>8.0357763648702143</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <v>6.8228289890407483</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>15.73304644321821</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <v>15.878722799173934</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>19.919975009909081</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <v>20.767633520969042</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>24.174097799079192</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <v>25.936792430262049</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>28.864799401649762</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <v>29.964410807426898</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>29.633682184985876</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <v>30.203560688543298</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>29.179231895335448</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <v>32.752199066192851</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>30.3</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <v>28.5</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>32.765766666837344</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <v>27.404095757718505</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>28.795491987925047</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <v>30.811176427079801</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>29.869819755437376</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <v>24.937188970135789</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>22.615297845120683</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <v>23.587998827706517</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>26.383470610585558</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <v>25.899370232409677</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>24.868381896940935</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <v>23.486805124888662</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>22.831428783820105</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <v>21.378519679395186</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>25.37984803202621</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <v>22.642805597199853</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>24.524896472126461</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <v>20.065824386285286</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>17.583560283527891</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <v>17.942408452579482</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -17432,100 +17432,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>-25.140202653524344</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <v>-24.652043378698629</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-31.098682928010788</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <v>-34.589351419930367</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-31.82841087762575</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <v>-35.326038446595611</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-32.236860837910527</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <v>-35.10945239772434</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-32.158775238708884</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <v>-31.132431348111798</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-38.5</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <v>-33.25</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-30.940843180062252</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <v>-29.120793581235059</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>-4.3417686801156039</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <v>-5.0496657475257569</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>14.694190478724103</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <v>14.391217479162782</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>22.494559613210075</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <v>21.171350224197717</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>18.896255942231068</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <v>18.202815357195067</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>22.399286049692037</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <v>22.168365574952944</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>20.082495043761927</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <v>18.852954530878545</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>21.953715064365976</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <v>19.209500681320229</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>10.455979658368168</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <v>10.891645477466842</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>2.9187522095627498</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <v>2.5057212365114174</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>5.6354866096941647</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <v>5.7579971881657768</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>7.6636117306348908</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <v>8.1100357149437201</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>4.303258215747408</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <v>4.5722118542316208</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>-0.83620585243776402</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <v>-0.90310232063278517</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>-3.5908546575574491</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <v>-3.2317691918017037</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>-2.4982506189737341</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <v>-2.339271034129951</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>-10.782870305222625</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <v>-11.545295478319174</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>-14.890351351284648</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <v>-16.069785121683434</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -17533,100 +17533,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-34.420620107858348</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <v>-36.311862970927486</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-38.959602979224279</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <v>-40.094348697065769</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-41.277682912849912</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <v>-46.986298634839798</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
         <v>-50.5</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-46.5</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <v>-49</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-52</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <v>-45</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-19.936776562849264</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <v>-18.939937734706799</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>4.421821968909363</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <v>3.9672421403298954</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>13.648370863254453</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <v>13.779605198478054</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>12.72973051668925</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <v>14.042073868925256</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>12.959517741266986</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <v>12.839522206625626</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>16.363498785430291</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <v>18.219153286870842</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>23.092134341027904</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <v>21.720324380174759</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
         <v>25.686871351608826</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>14.274448368504242</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <v>14.142277550277351</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>10.416901148213565</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <v>11.138864594129357</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>-1.7912469114027969</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <v>-1.607100032660453</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>-1.7745062860625838</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <v>-1.8079875367430098</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>-1.607100032660453</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <v>-1.6908031593615185</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>-1.7577656607223706</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <v>-1.6405812833408793</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>-10.558312583575585</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <v>-10.664962205631904</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>-12.978832324693663</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <v>-14.618263776233917</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-37.817455958072053</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <v>-38.963439471953023</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-36.671472444191075</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <v>-40.491417490460982</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18480,100 +18480,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>13.721629139753906</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <v>11.926275794365544</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>9.9238888988511302</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <v>9.6291199216575318</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>8.6594705232240994</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <v>8.9388082820377797</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>8.782787243638559</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <v>7.5629556820220918</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>10.017108530904391</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <v>9.4554015104798452</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>4.2146004356301896</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <v>3.9104540124403826</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>7.2018750439874566</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <v>8.3390132088275823</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>15.587370087262485</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <v>15.004664663439588</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>19.708060382144094</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <v>19.919975009909081</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>26.944046505223685</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <v>27.699487061444909</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>28.040090847316911</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <v>27.76518799587263</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>25.644532660083932</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <v>31.05837844387943</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>29.179231895335448</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <v>32.752199066192851</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>28.2</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <v>32.700000000000003</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>27.106225151656346</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <v>29.191319394091447</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>31.099131346959052</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <v>30.235266587321302</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>29.321749668181642</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <v>30.143854799065242</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>25.290225547231731</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <v>23.587998827706517</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>25.415269854233795</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <v>22.75271777426644</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>21.184177171468203</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <v>24.1775935109148</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>19.925610574970271</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <v>18.680259914034629</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>24.882203952966872</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>23.187174846374106</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <v>23.410128450666164</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>16.148167607321533</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <v>18.121832537105277</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18581,100 +18581,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>-25.872441565762916</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <v>-23.919804466460054</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-29.512015431683707</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <v>-32.368016925072453</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-33.227461905213694</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <v>-33.57722466211068</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-32.236860837910527</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <v>-30.960153477993277</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-36.606265431296286</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-35.35</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <v>-37.1</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-29.727476780844121</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <v>-29.120793581235059</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>-5.0496657475257569</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <v>-4.2473824044609163</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>14.08824447960146</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <v>14.694190478724103</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>20.950815326028991</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <v>20.068675733354087</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>18.202815357195067</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <v>19.069616088490072</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>23.092047473909318</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <v>21.706524625474756</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>18.852954530878545</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <v>19.672648206134134</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>20.898247993963768</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <v>20.264967751722441</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>11.327311296565515</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <v>11.545144206114852</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>2.8636814131559056</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>5.7579971881657768</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <v>6.0642736343448078</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>8.1844397123285244</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <v>7.5892077332500856</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>4.0343045772631951</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <v>4.2584326093333722</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>-0.79439555981587573</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <v>-0.78603350129149818</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>-2.9379719925470038</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <v>-3.0685485255490925</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>-2.452827880446939</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <v>-2.3165596648665532</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>-11.872049123931982</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <v>-11.980967005802917</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>-13.563488359586016</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <v>-14.005776023485559</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18682,100 +18682,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-35.177117253086003</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <v>-34.04237153524452</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-40.472597269679596</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <v>-35.933614398313658</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-45.229801489612136</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-51.5</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <v>-53</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-46.5</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <v>-45</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-46.5</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <v>-50</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-20.136144328477759</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <v>-18.142466672192832</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>4.0085675792916655</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <v>3.8019403844828168</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>13.517136528030852</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <v>12.72973051668925</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>11.942324505347646</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <v>12.204793175794848</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>12.239544533418819</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <v>12.479535602701542</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>16.532194649197617</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <v>17.206978104266906</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>21.263054393223715</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <v>20.577149412797144</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>22.85895890922987</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <v>23.565937019824609</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>12.291886095100875</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <v>14.142277550277351</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>9.282387161774464</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <v>9.4886624320361186</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>-1.7745062860625838</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <v>-1.5736187819800269</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>-1.5736187819800269</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <v>-1.7912469114027969</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>-1.607100032660453</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <v>-1.6740625340213053</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>-1.8079875367430098</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <v>-1.6573219086810922</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>-10.131714095350308</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <v>-10.345013339462946</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>-14.891502351490626</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <v>-12.978832324693663</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-35.907483434937099</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <v>-40.109422985833994</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-36.289477939564087</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <v>-35.525488930310111</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19629,100 +19629,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>13.465150090412711</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <v>13.849868664424504</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>9.3343509444639334</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <v>9.6291199216575318</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>8.6594705232240994</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <v>9.4974837996651402</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>7.5629556820220918</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <v>8.7014651395307947</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>8.8000766533178751</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <v>8.9873123267927237</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>4.5187468588199975</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <v>4.3449489027115362</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>7.3534934659661397</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <v>6.8986382000300903</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>15.73304644321821</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <v>14.858988307483864</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>23.098694426383936</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <v>21.615292032029004</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>24.174097799079192</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <v>23.670470761598374</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>25.840868035762643</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <v>24.741256629985511</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>29.063803681428457</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <v>26.499350415420064</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>29.774726423811682</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <v>29.476979159573563</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>33</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <v>31.200000000000003</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>27.106225151656346</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <v>31.57428424258871</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>31.099131346959052</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <v>29.371401827683549</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>24.937188970135789</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <v>27.403504362786581</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>25.047050301585269</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <v>22.372122599474224</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>24.93116947605791</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <v>26.383470610585558</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>23.256542329546615</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>19.925610574970271</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <v>20.963402792416638</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>27.370424348263562</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <v>24.384559873907534</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>20.734685199161461</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <v>20.957638803453516</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>16.148167607321533</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <v>17.045288029950505</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19730,100 +19730,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>-24.896123016111485</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <v>-25.62836192835006</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-31.416016427276205</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <v>-33.954684421399534</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-31.82841087762575</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <v>-36.025563960389583</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-30.960153477993277</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <v>-29.364269278096717</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-33.527233759505009</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <v>-32.158775238708884</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-35</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <v>-36.050000000000004</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-32.760892778889442</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <v>-27.604085582212402</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>-4.5777343692523207</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <v>-4.6721206449070083</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>16.663514975872694</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <v>15.148649978066086</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>20.509745529691543</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>17.856095064677064</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <v>17.509374772159063</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>23.784808898126599</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <v>22.630206524431131</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>19.877571624948033</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <v>18.443107693250752</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>21.109341408044209</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <v>20.898247993963768</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>10.564896113142836</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <v>9.8024809297201578</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>2.8636814131559056</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <v>2.6433982275285279</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>6.4318053697596449</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <v>5.7579971881657768</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>7.2171877463260614</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <v>7.8124197254045002</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>4.4825606414035502</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <v>4.2136070029193373</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>-0.91146437915716283</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <v>-0.77767144276712052</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>-3.0685485255490925</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <v>-3.4276339913048379</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>-2.4982506189737341</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <v>-2.0440232337057824</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>-10.67395242335169</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <v>-11.545295478319174</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>-15.037780572584497</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <v>-15.185209793884344</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19831,100 +19831,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-35.177117253086003</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <v>-35.555365825699823</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-37.068360116155141</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <v>-39.716100124451934</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-39.96031005392917</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <v>-42.595055771770653</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <v>-53</v>
+      </c>
+      <c r="F4" s="2">
+        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <v>-47.5</v>
+      </c>
+      <c r="G4" s="2">
+        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-50</v>
       </c>
-      <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-52</v>
-      </c>
-      <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-54.500000000000007</v>
-      </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-21.332350922248715</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <v>-18.341834437821323</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>4.0912184572152048</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <v>4.1738693351387441</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>14.435776874596057</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <v>12.073558840571247</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>11.942324505347646</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <v>12.204793175794848</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>12.599531137342902</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <v>11.279580256287931</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>18.219153286870842</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <v>15.351323602826358</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>23.549404327978952</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <v>20.577149412797144</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>23.801596390022855</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <v>25.686871351608826</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>13.084911004462221</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <v>14.142277550277351</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>9.5918000671669468</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <v>9.7980753374285996</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <v>-1.7745062860625838</v>
+      </c>
+      <c r="S4" s="2">
+        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>-1.5066562806191748</v>
       </c>
-      <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>-1.7242844100419445</v>
-      </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>-1.8414687874234361</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <v>-1.7075437847017314</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>-1.7577656607223706</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <v>-1.6405812833408793</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>-10.664962205631904</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <v>-10.131714095350308</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>-14.071786625720499</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <v>-14.481644488605562</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-38.581444967326028</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <v>-37.05346694881807</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-36.671472444191075</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <v>-38.963439471953023</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28319,100 +28319,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>56.15522435894195</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.009858343468736</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>50.883267826860873</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>52.680571827065677</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>49.734628946481976</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>46.128376289063468</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>55.831571019966468</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>54.324038116437926</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>51.277127712983848</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>55.994421163905116</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>58.735888322255306</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>66.27167359382436</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>62.302001884044373</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>69.150364233052557</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>80.244957542531083</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>81.73548486755773</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>73.124231660412192</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>78.175904236733942</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>75.747485800764579</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>82.77953470193718</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>85.230172083465732</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>75.520681553374871</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>77.945757916847782</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>79.316626647436749</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>78.512854655407509</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>77.365842163590841</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>78.940235374622176</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>73.478381097320863</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>80.337629832856535</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>75.891268039503245</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>78.098561198555629</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>71.89812773124261</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>91.587754358306952</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>90.710283234162503</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>81.230801575354647</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>97.698514285714282</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>98.598514285714288</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>80.221573332310058</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>84.587757110380466</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>86.299810347352249</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>87.133130003983965</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>70.523445281131586</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>78.122101106019215</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>65.037888040991959</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>68.396140086206572</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -28420,100 +28420,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.131085552005672</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>67.404005991247729</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>56.654797356487407</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>64.372340748897145</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>62.514274084451657</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>57.451698252483389</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>55.239444145571561</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>56.91502924241604</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>59.334861685249443</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>55.943268770425568</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>65.281325481015799</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>58.446488481584751</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>71.280239432207125</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>72.763080560122816</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>86.971416139805598</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>89.648749088655748</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>93.631973748148866</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>103.34826730987734</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>92.006672224158009</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>89.055435997777082</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>93.153419241400201</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>102.7253934063621</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>96.594554309420516</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>87.935375850144098</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>105.39383738783698</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>89.051052497437468</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>102.30345240929285</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>83.235702918059701</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>96.611958828612913</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>88.66120013793109</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>90.393602969516706</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>88.163203659184532</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>95.380041270742225</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>107.34247619047619</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>97.342476190476191</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>94.447061010485896</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>100.42531110538013</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>94.225565902857426</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>99.104298253948713</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>97.696724611621804</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>98.490078256016972</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>81.41270303067077</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>73.139000948950894</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>81.788200183099562</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>67.063328815610774</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>72.770251870825547</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -28521,100 +28521,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>73.99071407011067</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.326971903791005</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>74.425234765171041</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>64.557033184828867</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>64.931560763815241</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>58.382707071516897</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>69.376568607614473</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>61.692567086986259</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.251932949677837</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>64.699532021920675</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.91448416800197</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>72.227530572358802</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>96.959253411913991</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>108.83913905592519</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>111.86881603193036</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>115.17664036479769</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>118.91125850493539</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>126.16432875353689</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>113.12986087627966</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>110.71089476083142</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>126.05513879029479</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>104.34788898769986</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>122.97682539682539</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>130.4768253968254</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>117.46646221031432</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>123.36074401186139</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>110.65264111545399</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>106.23838016289757</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>103.14970697031265</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>118.13064624313067</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>101.45661555476428</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>107.45589820233586</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>99.875143596912366</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>110.88084738281269</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>102.30400758343684</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>98.067127063632981</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>112.20287554961315</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>97.373793730299653</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>112.51020928610951</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>97.457809318107593</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>105.66539523846286</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>115.08065223849596</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>92.346474346927636</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>99.909083260501788</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>76.522746260603</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>84.518041316534649</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>74.754848271826447</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>81.718039950592086</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -29466,100 +29466,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>57.340687757394633</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.009858343468736</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>51.926315264090768</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>49.840220389630979</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>47.279676545995564</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>49.243638466384695</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>49.039334708334366</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>55.831571019966468</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>50.261490911832482</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>51.784946113559528</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>56.542714595575156</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>74.872628965014385</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>64.286837738934366</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>78.765678434600616</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>79.505317988565849</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.649690870805699</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>81.73548486755773</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>84.651686732652252</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>78.175904236733942</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>79.51201819323245</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>89.314567719346641</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>74.712322765550553</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>83.604269431617936</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>80.92417063149523</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>79.316626647436749</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>79.727431980137837</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>83.663415007716154</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>81.099768581249378</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>84.148323574820793</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>73.646251141175284</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>81.877979768377799</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>85.074048849282789</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>78.873615381969756</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>86.322927613440257</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>91.587754358306952</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>82.125487942064936</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>94.651097076008995</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>90.498514285714279</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>84.198514285714282</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>86.33423062160864</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>90.700414399679048</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>87.133130003983965</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>82.133212064193671</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>74.322773193575401</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>84.960891348418087</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>63.694587222906108</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>73.097692949507049</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -29567,100 +29567,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>71.2227673089739</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>63.585244673521551</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>60.216740460676505</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>59.623083276644991</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.201664549386386</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>59.701731955580399</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>63.058841264179151</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>53.563859048727082</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>55.378003284621592</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>61.595923628465364</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>61.553232572235224</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>59.067837299714846</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>81.660127327617033</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>69.05597774033356</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>92.326082037505898</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>87.863860456088986</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>92.660344391976011</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>95.575232460494561</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>94.957908450538923</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>92.006672224158009</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>105.59698565585067</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>101.76819598986592</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>93.708161489661705</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>88.089712209766915</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>101.54847623715474</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>89.064462789800743</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>100.41216817793683</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>98.395459616686665</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>91.261456464391614</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>96.457012880066401</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>89.065308360629245</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>98.086355375076366</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>105.34247619047619</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>108.34247619047619</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>105.40718618445867</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>94.447061010485896</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>100.08004472416697</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>97.152805313512204</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>102.49155539154651</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>89.066029207757353</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>94.894841366470402</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>91.299604476923832</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>87.292236059375995</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>82.574491022567614</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>72.056886488923709</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>81.330636453647742</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -29668,100 +29668,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>81.070391778010261</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>76.114617382480546</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>68.50431381696572</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>62.55015942116129</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>64.931560763815241</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>69.376568607614473</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>68.095901687509766</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>61.509030862224229</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>68.528133413556418</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>71.562312972047593</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>75.553618573914818</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>93.989282000911203</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>110.81911999659373</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>114.07403225384192</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>106.35577547715147</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>124.9554837121033</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>132.20855396070482</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>116.75831004945201</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>131.27210674214146</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>120.34270463171718</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>118.05773096828614</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>135.4768253968254</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>120.47682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>112.75103676907666</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>117.46646221031432</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>119.48116302056684</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>111.7562063535931</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>113.85037787946837</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>108.50004242489051</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>92.457691583406927</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>102.45649599602622</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>93.872032440966748</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>100.87566212290331</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>117.13308940275034</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>118.19230953270132</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>99.492233990201584</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>113.26209567956413</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>117.88606641753877</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>108.20952358096611</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>111.94223323848493</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>97.296277905100126</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>103.69038771728886</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>87.619843775943821</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>90.914277361279986</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>76.522746260603</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>73.207472343211862</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>87.907543665050426</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -30613,100 +30613,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>65.638931546563384</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>66.231663245789719</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>56.620028731625297</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>49.734628946481976</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>46.128376289063468</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>50.494813917969815</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>52.800582914710887</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>57.878766920467697</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>53.801247437224966</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>60.929062048935457</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>66.27167359382436</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>68.918121400344376</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>72.848562002878737</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>77.28639932667015</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>84.0840084695065</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>77.038437663660162</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>83.842213920662459</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>74.128540176785009</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>88.497688592170462</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>77.878259938880092</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>89.262780946388091</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>86.029345795090862</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>83.335486607582951</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>88.158118559758378</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>82.876218402200493</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>78.940235374622176</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>76.526936090892264</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>78.813352336070821</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>81.877979768377799</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>68.407878378410061</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>75.773398648313247</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>76.548452831727374</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>93.342696606595865</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>95.975109979029213</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>90.177665242457536</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>83.914860675485514</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>85.098514285714273</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>85.998514285714279</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>87.207467377222713</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>83.714520354766378</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>82.133212064193671</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>91.299728287142528</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>80.401697853485501</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>73.562907611086629</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>69.067790495249497</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>73.097692949507049</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -30714,100 +30714,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.586307089352871</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>63.585244673521551</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>65.559655116960172</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>56.654797356487407</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.764172975160633</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>60.264240381354647</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>54.122387414341908</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>56.356500876801213</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>63.856985571681278</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>64.422251057485255</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>65.9026742991459</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>57.82513966345465</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>83.884389019490584</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>69.79739830429142</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>80.724305925821923</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>84.294083190955448</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>106.26315537839589</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>90.71708567963033</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>106.76285335606265</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>94.957908450538923</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>94.110616657896387</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>92.196221824904015</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>103.32947088885774</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>88.897506790063701</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>97.703115086472508</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>100.58713594948418</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>92.847031252512764</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>104.19473664064886</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>96.611958828612913</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>98.395459616686665</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>84.330193058967026</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>90.393602969516706</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>83.652680151960993</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>97.184250673631652</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>99.342476190476191</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>93.342476190476191</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>102.41806113701155</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>110.3890612635372</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>100.08004472416697</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>99.104298253948713</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>89.066029207757353</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>90.024995363742292</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>85.906749142603971</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>86.805558364990617</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>88.864817738312112</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>78.643036825227313</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>81.330636453647742</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>71.343521107021857</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -30815,100 +30815,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>78.946488465640385</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>75.083114870527183</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>70.47795413303416</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>61.359458749834317</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>59.573407742843862</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>73.218569367928595</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>63.613567467143312</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.337632253859965</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>67.890033181617127</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>71.562312972047593</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>72.227530572358802</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>109.82912952625945</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>106.85915811525665</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>116.27924847575348</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>112.86703329776749</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>117.70241346350181</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>121.59624228034849</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>131.27210674214146</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>116.91524413657061</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>105.49037581941539</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>112.97682539682539</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>126.72682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>116.28760585000491</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>110.39332404845786</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>110.65264111545399</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>100.72055397220204</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>111.71024369763722</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>115.99051206129951</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>109.45565908485972</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>110.88084738281269</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>103.87721770087612</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>116.07386927279939</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>104.42244784333877</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>111.1436554196622</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>100.55145412015254</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>97.457809318107593</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>118.96123784382463</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>97.296277905100126</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>116.1267919051663</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>98.018431032108253</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>101.79973548889532</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>87.716159338907318</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>78.121805271789327</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>87.133855700743126</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>76.302224200441032</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -31760,100 +31760,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>11.388435706142491</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <v>12.193678634859637</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>8.9621956837424133</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <v>8.5185226300917982</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>7.5961367846516046</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <v>8.3557504631167649</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
         <v>8.176657126814149</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>8.6173937063137149</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <v>7.9415196901322469</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>9.9653898262285168</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <v>11.119277069265504</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>14.810378351287854</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <v>15.29863258264899</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>20.067521415869454</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <v>19.471456423318877</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>24.792072150320028</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <v>22.037397466951134</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>24.014446126256086</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <v>24.772797056558908</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>26.766279072614047</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <v>24.98186046777311</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>24.283569410551301</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <v>23.782877257756429</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>26.398290172587117</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <v>23.884167299007387</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>24.138136644772068</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <v>25.133523722906997</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>20.428454431666598</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <v>22.673339534047543</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>20.262003063769829</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <v>20.688571549322877</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>22.01099874677239</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <v>21.570778771836942</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>30.3</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <v>32.1</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>32.652529518319184</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <v>29.956449099375394</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>31.656127895941694</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <v>30.494435129118145</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>24.46237425307066</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <v>28.763451044819348</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>24.624022482795553</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <v>23.667749765017081</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>17.939039792003484</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <v>20.278914547482202</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>14.809861311821411</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <v>13.463510283474012</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -31861,100 +31861,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-26.477511239440371</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <v>-27.641357887327857</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-32.888478552585298</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <v>-30.991066328397682</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-30.656624782507482</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <v>-36.78794973900898</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-32.12419976923784</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <v>-37.196441838064878</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-33.25</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <v>-32.550000000000004</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-32.091286045662528</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <v>-31.156588393847116</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-22.737824767768746</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <v>-20.881675807134563</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-10.218872426865063</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <v>-9.932361984990342</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-3.0375243851877078</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <v>-2.5875207725673066</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.47077042064057217</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <v>-0.48396959131273776</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-3.6338353085281616</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <v>-3.7128317282787733</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-2.6715251531427726</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <v>-3.0199849557266125</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-4.0594912600311215</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <v>-3.8987193289407798</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-4.2167238257296438</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <v>-3.6896333475134382</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-10.454996986558173</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <v>-9.8399971638194561</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-15.352073897049898</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <v>-15.942538277705664</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-12.208812759637116</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <v>-14.177976107965684</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>-4.9293153105021688</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <v>-4.2123239926109433</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-5.9318649619408612</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <v>-6.1926062789492509</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-8.1941074192990548</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <v>-8.5218717160710167</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-12.099201218912656</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <v>-11.841771405744304</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-18.211753550434707</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <v>-16.039709549006716</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-22.191934802360052</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <v>-23.088578632758438</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-25.735847104036036</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <v>-27.502032689607137</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -31962,100 +31962,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>39.153484322237276</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <v>40.364416827048736</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>50</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <v>54.500000000000007</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>49</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <v>48.5</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>46</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <v>45</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>52</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <v>55.000000000000007</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>37.271648996155214</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <v>38.081902235202058</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>17.640518327623312</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <v>18.008029126115467</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>2.1290942754628754</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <v>2.2000640846449713</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>-14.810788388588996</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <v>-13.703439724021594</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>-12.872928225596043</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <v>-15.226044137801772</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>-1.2635986981622949</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <v>-1.3112816679042683</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>-15.300929136764116</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <v>-15.012232360598755</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>-15.445277524846796</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <v>-13.713096867854631</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>-11.620505217207103</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <v>-10.056206437967687</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.3202476900774478</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <v>-1.4870158193503886</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>8.4780027081262332</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <v>7.9743589828910109</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>11.072561207213832</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <v>11.305667758944649</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>12.704307069329555</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <v>11.771880862406285</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>11.655327586540876</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <v>11.888434138271693</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>12.704307069329555</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <v>12.354647241733328</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>10.722901379617607</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <v>12.004987414137103</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>25.763418231124426</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <v>23.332907077244762</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>39.381709115562217</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <v>36.409504654010355</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>37.524081327092304</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <v>38.267132442480268</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2020.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BEEE9-180C-4B25-A05D-38777FA2D1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D99CB6E-3001-4FF6-950A-FFD83E8F6B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1152,224 +1152,224 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>61.64409671953927</v>
+            <v>65.200486914897311</v>
           </cell>
           <cell r="C2">
-            <v>46.937134675345263</v>
+            <v>52.673895580109686</v>
           </cell>
           <cell r="D2">
             <v>47.135086089339119</v>
           </cell>
           <cell r="E2">
-            <v>47.060494444879517</v>
+            <v>52.88241128342132</v>
           </cell>
           <cell r="F2">
-            <v>54.336568861597797</v>
+            <v>55.860024063324843</v>
           </cell>
           <cell r="G2">
-            <v>57.570810325353918</v>
+            <v>54.281049735333688</v>
           </cell>
           <cell r="H2">
-            <v>69.469254921150096</v>
+            <v>60.206687598330085</v>
           </cell>
           <cell r="I2">
-            <v>76.922513612384435</v>
+            <v>66.567559856871142</v>
           </cell>
           <cell r="J2">
-            <v>80.632643666908137</v>
+            <v>83.764008469506507</v>
           </cell>
           <cell r="K2">
-            <v>80.137808386989022</v>
+            <v>84.994645258927761</v>
           </cell>
           <cell r="L2">
-            <v>80.054154463265789</v>
+            <v>83.321670971970505</v>
           </cell>
           <cell r="M2">
-            <v>83.260955145903651</v>
+            <v>75.177367267660586</v>
           </cell>
           <cell r="N2">
-            <v>79.573427210894565</v>
+            <v>73.14325127466067</v>
           </cell>
           <cell r="O2">
-            <v>84.230036790176058</v>
+            <v>74.783677523988089</v>
           </cell>
           <cell r="P2">
-            <v>75.451736090892268</v>
+            <v>76.213874839285126</v>
           </cell>
           <cell r="Q2">
-            <v>78.575591441478409</v>
+            <v>69.595523848166593</v>
           </cell>
           <cell r="R2">
-            <v>80.605635075069287</v>
+            <v>79.055526708241032</v>
           </cell>
           <cell r="S2">
             <v>95.644352531745085</v>
           </cell>
           <cell r="T2">
-            <v>97.520813971421575</v>
+            <v>96.626127604711286</v>
           </cell>
           <cell r="U2">
-            <v>98.100000000000009</v>
+            <v>91.8</v>
           </cell>
           <cell r="V2">
-            <v>79.464544760881481</v>
+            <v>83.830728538951888</v>
           </cell>
           <cell r="W2">
-            <v>75.832088753485962</v>
+            <v>87.498563946329966</v>
           </cell>
           <cell r="X2">
-            <v>80.54575174380895</v>
+            <v>83.585214073764007</v>
           </cell>
           <cell r="Y2">
-            <v>71.866593767592903</v>
+            <v>73.881544994721679</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>57.917879985513636</v>
+            <v>66.191862840587007</v>
           </cell>
           <cell r="C3">
-            <v>60.553032771214824</v>
+            <v>56.397432482994198</v>
           </cell>
           <cell r="D3">
             <v>53.438300448553932</v>
           </cell>
           <cell r="E3">
-            <v>59.204006755171712</v>
+            <v>50.267552905334476</v>
           </cell>
           <cell r="F3">
-            <v>58.222345037809788</v>
+            <v>57.657079552005811</v>
           </cell>
           <cell r="G3">
-            <v>63.377579449269767</v>
+            <v>57.164091267968814</v>
           </cell>
           <cell r="H3">
-            <v>81.556262035363602</v>
+            <v>71.91779470391154</v>
           </cell>
           <cell r="I3">
-            <v>89.24443162833829</v>
+            <v>82.104877098071228</v>
           </cell>
           <cell r="J3">
             <v>105.90759982284034</v>
           </cell>
           <cell r="K3">
-            <v>103.29326792333252</v>
+            <v>98.374540879364304</v>
           </cell>
           <cell r="L3">
             <v>91.890951983634167</v>
           </cell>
           <cell r="M3">
-            <v>88.516046472603378</v>
+            <v>101.98587963147781</v>
           </cell>
           <cell r="N3">
-            <v>94.211348191714791</v>
+            <v>90.365987041032554</v>
           </cell>
           <cell r="O3">
-            <v>101.18370637754681</v>
+            <v>90.781643105088719</v>
           </cell>
           <cell r="P3">
-            <v>81.149285857356148</v>
+            <v>84.716287433503666</v>
           </cell>
           <cell r="Q3">
-            <v>81.422933084524246</v>
+            <v>87.48634299507394</v>
           </cell>
           <cell r="R3">
-            <v>95.623098353139326</v>
+            <v>99.23151715891818</v>
           </cell>
           <cell r="S3">
-            <v>93</v>
+            <v>107</v>
           </cell>
           <cell r="T3">
-            <v>98.641126565754902</v>
+            <v>104.61937666064914</v>
           </cell>
           <cell r="U3">
-            <v>89.768675260079647</v>
+            <v>106.35636525379002</v>
           </cell>
           <cell r="V3">
-            <v>95.896615598494009</v>
+            <v>98.773514066448826</v>
           </cell>
           <cell r="W3">
-            <v>97.071396017757309</v>
+            <v>97.970205240143954</v>
           </cell>
           <cell r="X3">
-            <v>86.491992341486721</v>
+            <v>81.774247304678354</v>
           </cell>
           <cell r="Y3">
-            <v>66.342980516871876</v>
+            <v>70.623172808282959</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>65.133034912676209</v>
+            <v>69.380841537415961</v>
           </cell>
           <cell r="C4">
-            <v>60.524969692765374</v>
+            <v>71.051051378463697</v>
           </cell>
           <cell r="D4">
-            <v>58.344332895021616</v>
+            <v>64.297836251656477</v>
           </cell>
           <cell r="E4">
-            <v>58.910678324816388</v>
+            <v>57.630011404711681</v>
           </cell>
           <cell r="F4">
-            <v>64.448123425868317</v>
+            <v>59.981421802293276</v>
           </cell>
           <cell r="G4">
-            <v>60.534801628319428</v>
+            <v>73.173936034232284</v>
           </cell>
           <cell r="H4">
-            <v>97.019066092758052</v>
+            <v>90.089132800418199</v>
           </cell>
           <cell r="I4">
-            <v>120.18428409417976</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>112.42258885332305</v>
+            <v>128.13757439195962</v>
           </cell>
           <cell r="K4">
-            <v>112.48192436834316</v>
+            <v>123.36727188786023</v>
           </cell>
           <cell r="L4">
-            <v>105.10878851782809</v>
+            <v>111.96370950812121</v>
           </cell>
           <cell r="M4">
-            <v>122.5</v>
+            <v>121.25</v>
           </cell>
           <cell r="N4">
-            <v>123.77991783248825</v>
+            <v>122.60106147217884</v>
           </cell>
           <cell r="O4">
             <v>100.42443667065861</v>
           </cell>
           <cell r="P4">
-            <v>112.35704454613503</v>
+            <v>117.7073800007129</v>
           </cell>
           <cell r="Q4">
-            <v>90.989120154835504</v>
+            <v>105.98732677376444</v>
           </cell>
           <cell r="R4">
-            <v>100.05185259909378</v>
+            <v>105.05444522904847</v>
           </cell>
           <cell r="S4">
-            <v>98.507472085439673</v>
+            <v>100.6259123453416</v>
           </cell>
           <cell r="T4">
-            <v>105.92201299509642</v>
+            <v>108.04045325499835</v>
           </cell>
           <cell r="U4">
-            <v>110.74265690744271</v>
+            <v>109.66748548115686</v>
           </cell>
           <cell r="V4">
-            <v>104.61396666703429</v>
+            <v>106.70624600037497</v>
           </cell>
           <cell r="W4">
-            <v>98.313915876463739</v>
+            <v>91.696633077086361</v>
           </cell>
           <cell r="X4">
-            <v>76.754832536943908</v>
+            <v>83.151068581689245</v>
           </cell>
           <cell r="Y4">
-            <v>75.047732537807349</v>
+            <v>74.274044573500063</v>
           </cell>
         </row>
       </sheetData>
@@ -1379,494 +1379,494 @@
             <v>62.236828418765612</v>
           </cell>
           <cell r="C2">
-            <v>55.281514173184419</v>
+            <v>51.109324424264841</v>
           </cell>
           <cell r="D2">
-            <v>45.171124168949994</v>
+            <v>47.6260765694364</v>
           </cell>
           <cell r="E2">
-            <v>47.060494444879517</v>
+            <v>43.664376289063469</v>
           </cell>
           <cell r="F2">
-            <v>47.734929654113948</v>
+            <v>52.305295259295072</v>
           </cell>
           <cell r="G2">
-            <v>49.894702281973395</v>
+            <v>54.829343167003728</v>
           </cell>
           <cell r="H2">
-            <v>59.545075646700077</v>
+            <v>62.191523453220078</v>
           </cell>
           <cell r="I2">
-            <v>77.662153166349668</v>
+            <v>76.922513612384435</v>
           </cell>
           <cell r="J2">
-            <v>80.632643666908137</v>
+            <v>75.935596463010569</v>
           </cell>
           <cell r="K2">
-            <v>78.518862763009452</v>
+            <v>87.423063694897124</v>
           </cell>
           <cell r="L2">
-            <v>74.336000573032521</v>
+            <v>84.138550099146698</v>
           </cell>
           <cell r="M2">
-            <v>85.686031509376576</v>
+            <v>84.877672721552273</v>
           </cell>
           <cell r="N2">
-            <v>80.377199202923805</v>
+            <v>84.396059163069992</v>
           </cell>
           <cell r="O2">
-            <v>80.294053762597741</v>
+            <v>72.422087707441094</v>
           </cell>
           <cell r="P2">
-            <v>76.213874839285126</v>
+            <v>73.165319845713711</v>
           </cell>
           <cell r="Q2">
-            <v>74.833896610931816</v>
+            <v>69.595523848166593</v>
           </cell>
           <cell r="R2">
-            <v>76.73036415799865</v>
+            <v>73.630147424342141</v>
           </cell>
           <cell r="S2">
-            <v>92.134468035167288</v>
+            <v>95.644352531745085</v>
           </cell>
           <cell r="T2">
-            <v>93.047382137870116</v>
+            <v>95.731441238000997</v>
           </cell>
           <cell r="U2">
-            <v>91.8</v>
+            <v>92.7</v>
           </cell>
           <cell r="V2">
-            <v>95.182806361934965</v>
+            <v>86.450438805794136</v>
           </cell>
           <cell r="W2">
-            <v>85.831924633066535</v>
+            <v>89.165203259593397</v>
           </cell>
           <cell r="X2">
-            <v>72.947095918921306</v>
+            <v>69.147768006477492</v>
           </cell>
           <cell r="Y2">
-            <v>65.821740086206574</v>
+            <v>69.179992131421201</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>66.191862840587007</v>
+            <v>57.917879985513636</v>
           </cell>
           <cell r="C3">
-            <v>54.022803746868128</v>
+            <v>61.146689955246345</v>
           </cell>
           <cell r="D3">
-            <v>54.000808874328186</v>
+            <v>56.250842577425196</v>
           </cell>
           <cell r="E3">
-            <v>54.17725146463826</v>
+            <v>59.762535120786545</v>
           </cell>
           <cell r="F3">
-            <v>54.830752122985913</v>
+            <v>58.222345037809788</v>
           </cell>
           <cell r="G3">
-            <v>62.134881813009578</v>
+            <v>62.756230631139672</v>
           </cell>
           <cell r="H3">
-            <v>68.952112448080143</v>
+            <v>75.624897523700795</v>
           </cell>
           <cell r="I3">
-            <v>89.24443162833829</v>
+            <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
             <v>106.87922917901318</v>
           </cell>
           <cell r="K3">
-            <v>97.390795470570666</v>
+            <v>108.21199496730074</v>
           </cell>
           <cell r="L3">
-            <v>92.848149400130353</v>
+            <v>88.06216231764941</v>
           </cell>
           <cell r="M3">
             <v>98.1373558717994</v>
           </cell>
           <cell r="N3">
-            <v>97.095369054726476</v>
+            <v>102.86341078074983</v>
           </cell>
           <cell r="O3">
-            <v>87.94471675805471</v>
+            <v>101.18370637754681</v>
           </cell>
           <cell r="P3">
-            <v>92.742040979835608</v>
+            <v>87.391538615614309</v>
           </cell>
           <cell r="Q3">
             <v>94.415954321416436</v>
           </cell>
           <cell r="R3">
-            <v>85.699946637247507</v>
+            <v>96.52520305458404</v>
           </cell>
           <cell r="S3">
-            <v>102</v>
+            <v>94</v>
           </cell>
           <cell r="T3">
-            <v>92.662876470860667</v>
+            <v>101.63025161320202</v>
           </cell>
           <cell r="U3">
-            <v>90.744421730297901</v>
+            <v>93.671661140952665</v>
           </cell>
           <cell r="V3">
-            <v>100.69144637841872</v>
+            <v>105.48627715834341</v>
           </cell>
           <cell r="W3">
-            <v>82.690448459571044</v>
+            <v>93.476159128210739</v>
           </cell>
           <cell r="X3">
-            <v>74.69762974946579</v>
+            <v>84.133119823082538</v>
           </cell>
           <cell r="Y3">
-            <v>77.75682662730145</v>
+            <v>67.769711280675565</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>75.044583703735626</v>
+            <v>68.672873766625997</v>
           </cell>
           <cell r="C4">
-            <v>71.051051378463697</v>
+            <v>65.13013043025839</v>
           </cell>
           <cell r="D4">
-            <v>63.107135580329505</v>
+            <v>57.153632223694643</v>
           </cell>
           <cell r="E4">
-            <v>64.673679465287549</v>
+            <v>60.831678704973442</v>
           </cell>
           <cell r="F4">
-            <v>58.705221338414702</v>
+            <v>59.981421802293276</v>
           </cell>
           <cell r="G4">
             <v>61.865236828941839</v>
           </cell>
           <cell r="H4">
-            <v>108.89895173676926</v>
+            <v>101.96901844442939</v>
           </cell>
           <cell r="I4">
-            <v>116.87645976131242</v>
+            <v>115.77385165035665</v>
           </cell>
           <cell r="J4">
-            <v>111.21374381188947</v>
+            <v>128.13757439195962</v>
           </cell>
           <cell r="K4">
-            <v>133.0431363496532</v>
+            <v>118.52933965696374</v>
           </cell>
           <cell r="L4">
-            <v>115.39117000326779</v>
+            <v>102.82381485439703</v>
           </cell>
           <cell r="M4">
-            <v>126.25</v>
+            <v>136.25</v>
           </cell>
           <cell r="N4">
-            <v>129.67419963403532</v>
+            <v>121.42220511186943</v>
           </cell>
           <cell r="O4">
-            <v>102.63156714693682</v>
+            <v>115.87435000460609</v>
           </cell>
           <cell r="P4">
-            <v>110.21691036430389</v>
+            <v>96.306038182401451</v>
           </cell>
           <cell r="Q4">
             <v>103.98756589124058</v>
           </cell>
           <cell r="R4">
-            <v>97.050297021120969</v>
+            <v>104.05392670305753</v>
           </cell>
           <cell r="S4">
-            <v>99.566692215390631</v>
+            <v>95.329811695586784</v>
           </cell>
           <cell r="T4">
-            <v>105.92201299509642</v>
+            <v>111.21811364485124</v>
           </cell>
           <cell r="U4">
-            <v>106.4419712022993</v>
+            <v>118.26885689144368</v>
           </cell>
           <cell r="V4">
-            <v>96.244849333671553</v>
+            <v>104.61396666703429</v>
           </cell>
           <cell r="W4">
-            <v>97.368589762266978</v>
+            <v>91.696633077086361</v>
           </cell>
           <cell r="X4">
-            <v>75.955303031350738</v>
+            <v>82.351539076096074</v>
           </cell>
           <cell r="Y4">
-            <v>80.463548287958403</v>
+            <v>70.405604751963608</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>61.64409671953927</v>
+            <v>53.938584629596861</v>
           </cell>
           <cell r="C2">
-            <v>49.023229549805052</v>
+            <v>48.501705831190108</v>
           </cell>
           <cell r="D2">
-            <v>51.063009930117381</v>
+            <v>50.081028969922819</v>
           </cell>
           <cell r="E2">
-            <v>51.912091810331013</v>
+            <v>53.367571019966469</v>
           </cell>
           <cell r="F2">
-            <v>46.719292852962589</v>
+            <v>54.844387262173477</v>
           </cell>
           <cell r="G2">
-            <v>59.215690620364029</v>
+            <v>58.66739718869399</v>
           </cell>
           <cell r="H2">
-            <v>72.115702727670097</v>
+            <v>60.868299549960085</v>
           </cell>
           <cell r="I2">
-            <v>76.922513612384435</v>
+            <v>81.360350936175848</v>
           </cell>
           <cell r="J2">
-            <v>77.501278864309754</v>
+            <v>83.764008469506507</v>
           </cell>
           <cell r="K2">
-            <v>88.232536506886916</v>
+            <v>89.042009318876708</v>
           </cell>
           <cell r="L2">
-            <v>80.871033590441968</v>
+            <v>79.237275336089596</v>
           </cell>
           <cell r="M2">
             <v>72.75229090418766</v>
           </cell>
           <cell r="N2">
-            <v>84.396059163069992</v>
+            <v>77.162111234806844</v>
           </cell>
           <cell r="O2">
-            <v>72.422087707441094</v>
+            <v>80.294053762597741</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>81.548846078035083</v>
           </cell>
           <cell r="Q2">
-            <v>69.595523848166593</v>
+            <v>68.847184882057277</v>
           </cell>
           <cell r="R2">
-            <v>74.405201607756268</v>
+            <v>82.930797625311683</v>
           </cell>
           <cell r="S2">
-            <v>84.23722791786723</v>
+            <v>89.502054662733926</v>
           </cell>
           <cell r="T2">
-            <v>98.415500338131864</v>
+            <v>92.152695771159827</v>
           </cell>
           <cell r="U2">
-            <v>90.9</v>
+            <v>88.2</v>
           </cell>
           <cell r="V2">
-            <v>92.563096095092718</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>85.831924633066535</v>
           </cell>
           <cell r="X2">
-            <v>72.187230336432549</v>
+            <v>75.986558248876364</v>
           </cell>
           <cell r="Y2">
-            <v>69.851642540464127</v>
+            <v>61.120187222906111</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>57.917879985513636</v>
+            <v>68.737703719071135</v>
           </cell>
           <cell r="C3">
-            <v>55.210118114931163</v>
+            <v>62.334004323309379</v>
           </cell>
           <cell r="D3">
-            <v>52.313283597005437</v>
+            <v>54.56331730010244</v>
           </cell>
           <cell r="E3">
-            <v>55.852836561482746</v>
+            <v>55.29430819586792</v>
           </cell>
           <cell r="F3">
             <v>56.526548580397851</v>
           </cell>
           <cell r="G3">
-            <v>64.620277085529963</v>
+            <v>67.727021176180443</v>
           </cell>
           <cell r="H3">
-            <v>73.400635831827245</v>
+            <v>66.727850756206578</v>
           </cell>
           <cell r="I3">
-            <v>80.319988465504466</v>
+            <v>91.921764577188441</v>
           </cell>
           <cell r="J3">
-            <v>102.02108239814895</v>
+            <v>102.99271175432179</v>
           </cell>
           <cell r="K3">
-            <v>96.407050061777014</v>
+            <v>105.26075874091981</v>
           </cell>
           <cell r="L3">
-            <v>100.50572873209987</v>
+            <v>88.06216231764941</v>
           </cell>
           <cell r="M3">
-            <v>102.94801057139742</v>
+            <v>97.175224931879796</v>
           </cell>
           <cell r="N3">
-            <v>105.74743164376152</v>
+            <v>104.78609135609095</v>
           </cell>
           <cell r="O3">
-            <v>91.727285220766731</v>
+            <v>92.672927336444744</v>
           </cell>
           <cell r="P3">
-            <v>93.633791373872484</v>
+            <v>96.309042555983126</v>
           </cell>
           <cell r="Q3">
-            <v>90.084947242452373</v>
+            <v>78.824328837145828</v>
           </cell>
           <cell r="R3">
-            <v>99.23151715891818</v>
+            <v>98.329412457473467</v>
           </cell>
           <cell r="S3">
-            <v>107</v>
+            <v>93</v>
           </cell>
           <cell r="T3">
-            <v>109.60125173972767</v>
+            <v>104.61937666064914</v>
           </cell>
           <cell r="U3">
-            <v>94.647407611170919</v>
+            <v>93.671661140952665</v>
           </cell>
           <cell r="V3">
-            <v>104.52731100235847</v>
+            <v>89.183852506599436</v>
           </cell>
           <cell r="W3">
-            <v>85.386876126730954</v>
+            <v>97.970205240143954</v>
           </cell>
           <cell r="X3">
-            <v>79.415374786274171</v>
+            <v>70.766175552125503</v>
           </cell>
           <cell r="Y3">
-            <v>73.476634335890353</v>
+            <v>68.483076662577417</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>75.752551474525589</v>
+            <v>67.256938225046071</v>
           </cell>
           <cell r="C4">
-            <v>65.788010535614532</v>
+            <v>71.051051378463697</v>
           </cell>
           <cell r="D4">
-            <v>61.916434909002533</v>
+            <v>58.344332895021616</v>
           </cell>
           <cell r="E4">
-            <v>65.31401292533991</v>
+            <v>60.831678704973442</v>
           </cell>
           <cell r="F4">
-            <v>61.257622266171857</v>
+            <v>66.362424121686189</v>
           </cell>
           <cell r="G4">
-            <v>59.869584028008227</v>
+            <v>69.182630432365059</v>
           </cell>
           <cell r="H4">
-            <v>93.059104211420987</v>
+            <v>104.9389898554322</v>
           </cell>
           <cell r="I4">
-            <v>116.87645976131242</v>
+            <v>113.56863542844509</v>
           </cell>
           <cell r="J4">
-            <v>114.8402789361902</v>
+            <v>112.42258885332305</v>
           </cell>
           <cell r="K4">
-            <v>116.1103735415155</v>
+            <v>118.52933965696374</v>
           </cell>
           <cell r="L4">
-            <v>115.39117000326779</v>
+            <v>109.67873584469017</v>
           </cell>
           <cell r="M4">
-            <v>135</v>
+            <v>120</v>
           </cell>
           <cell r="N4">
-            <v>108.4547851484659</v>
+            <v>106.09707242784707</v>
           </cell>
           <cell r="O4">
-            <v>120.28861095716252</v>
+            <v>116.9779152427452</v>
           </cell>
           <cell r="P4">
-            <v>99.516239455148167</v>
+            <v>105.9366420006416</v>
           </cell>
           <cell r="Q4">
-            <v>109.98684853881215</v>
+            <v>93.988761478621285</v>
           </cell>
           <cell r="R4">
-            <v>94.048741443148145</v>
+            <v>97.050297021120969</v>
           </cell>
           <cell r="S4">
             <v>115.4549941646551</v>
           </cell>
           <cell r="T4">
-            <v>95.329811695586784</v>
+            <v>99.566692215390631</v>
           </cell>
           <cell r="U4">
-            <v>102.14128549715589</v>
+            <v>113.96817118630027</v>
           </cell>
           <cell r="V4">
-            <v>112.98308400039704</v>
+            <v>105.66010633370463</v>
           </cell>
           <cell r="W4">
-            <v>97.368589762266978</v>
+            <v>93.587285305479895</v>
           </cell>
           <cell r="X4">
-            <v>75.955303031350738</v>
+            <v>75.155773525757581</v>
           </cell>
           <cell r="Y4">
-            <v>85.105676073802158</v>
+            <v>81.237236252265703</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>10.813262185630244</v>
+            <v>10.698227481527795</v>
           </cell>
           <cell r="C2">
-            <v>9.1396649052026593</v>
+            <v>9.5833379588532743</v>
           </cell>
           <cell r="D2">
             <v>8.0519049917307015</v>
           </cell>
           <cell r="E2">
-            <v>7.1359916743105289</v>
+            <v>8.176657126814149</v>
           </cell>
           <cell r="F2">
-            <v>8.3639409502456648</v>
+            <v>8.6173937063137149</v>
           </cell>
           <cell r="G2">
-            <v>10.699681708161146</v>
+            <v>9.5457944651241586</v>
           </cell>
           <cell r="H2">
-            <v>17.739903739454682</v>
+            <v>14.64762694083414</v>
           </cell>
           <cell r="I2">
-            <v>20.663586408420034</v>
+            <v>18.279326438217723</v>
           </cell>
           <cell r="J2">
-            <v>25.251184597548178</v>
+            <v>24.33295970309188</v>
           </cell>
           <cell r="K2">
-            <v>25.531147986861733</v>
+            <v>25.78393163029601</v>
           </cell>
           <cell r="L2">
-            <v>23.452358806480881</v>
+            <v>27.021196016162754</v>
           </cell>
           <cell r="M2">
-            <v>25.535299792538485</v>
+            <v>23.532531181358994</v>
           </cell>
           <cell r="N2">
-            <v>24.88981644843928</v>
+            <v>26.901114747303062</v>
           </cell>
           <cell r="O2">
-            <v>25.880064031508198</v>
+            <v>26.377757570575664</v>
           </cell>
           <cell r="P2">
-            <v>24.020270595476109</v>
+            <v>22.22436251357135</v>
           </cell>
           <cell r="Q2">
             <v>21.328424277652452</v>
@@ -1875,547 +1875,547 @@
             <v>23.771878646514182</v>
           </cell>
           <cell r="S2">
-            <v>32.1</v>
+            <v>33</v>
           </cell>
           <cell r="T2">
-            <v>31.154707063350411</v>
+            <v>27.559933171425364</v>
           </cell>
           <cell r="U2">
-            <v>31.365704704235807</v>
+            <v>28.751895978882821</v>
           </cell>
           <cell r="V2">
-            <v>27.15054724791359</v>
+            <v>24.46237425307066</v>
           </cell>
           <cell r="W2">
-            <v>25.580295200574021</v>
+            <v>21.994272508904764</v>
           </cell>
           <cell r="X2">
-            <v>21.253862362265</v>
+            <v>18.524008480873164</v>
           </cell>
           <cell r="Y2">
-            <v>16.455401457579349</v>
+            <v>14.061888518295078</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-31.132897830990327</v>
+            <v>-27.350396225355986</v>
           </cell>
           <cell r="C3">
-            <v>-29.409889474908006</v>
+            <v>-31.307301699095618</v>
           </cell>
           <cell r="D3">
-            <v>-33.041028932258058</v>
+            <v>-36.106691410508809</v>
           </cell>
           <cell r="E3">
-            <v>-33.138648183003248</v>
+            <v>-33.81494712551352</v>
           </cell>
           <cell r="F3">
-            <v>-34.299999999999997</v>
+            <v>-37.450000000000003</v>
           </cell>
           <cell r="G3">
             <v>-28.664061322339347</v>
           </cell>
           <cell r="H3">
-            <v>-24.129936488244386</v>
+            <v>-22.041768907530926</v>
           </cell>
           <cell r="I3">
-            <v>-8.8818236981163636</v>
+            <v>-9.3593411012408989</v>
           </cell>
           <cell r="J3">
-            <v>-2.7562721272999569</v>
+            <v>-2.7843973530887323</v>
           </cell>
           <cell r="K3">
-            <v>-0.4091742908371328</v>
+            <v>-0.40477456727974426</v>
           </cell>
           <cell r="L3">
-            <v>-4.1868102467824473</v>
+            <v>-4.0683156171565287</v>
           </cell>
           <cell r="M3">
-            <v>-3.1070999063725728</v>
+            <v>-2.7586401037887325</v>
           </cell>
           <cell r="N3">
-            <v>-4.1800702083488774</v>
+            <v>-3.8987193289407798</v>
           </cell>
           <cell r="O3">
-            <v>-4.1761784043283967</v>
+            <v>-3.8518150331184242</v>
           </cell>
           <cell r="P3">
-            <v>-9.4299972819936464</v>
+            <v>-10.454996986558173</v>
           </cell>
           <cell r="Q3">
-            <v>-14.023529040574426</v>
+            <v>-15.49968999221384</v>
           </cell>
           <cell r="R3">
-            <v>-13.784143438299969</v>
+            <v>-12.077535203081878</v>
           </cell>
           <cell r="S3">
-            <v>-4.9293153105021688</v>
+            <v>-4.7052555236611608</v>
           </cell>
           <cell r="T3">
-            <v>-6.9748302299744198</v>
+            <v>-7.1703862177307123</v>
           </cell>
           <cell r="U3">
-            <v>-7.6205198999481212</v>
+            <v>-7.8663431225270921</v>
           </cell>
           <cell r="V3">
-            <v>-11.970486312328481</v>
+            <v>-12.485345938665189</v>
           </cell>
           <cell r="W3">
-            <v>-15.204308009995948</v>
+            <v>-15.705548933402408</v>
           </cell>
           <cell r="X3">
-            <v>-23.76106150555723</v>
+            <v>-21.967773844760455</v>
           </cell>
           <cell r="Y3">
-            <v>-25.988159330546193</v>
+            <v>-23.969661518464932</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>42.786281836671662</v>
+            <v>41.575349331860195</v>
           </cell>
           <cell r="C4">
-            <v>50</v>
+            <v>54</v>
           </cell>
           <cell r="D4">
-            <v>49.5</v>
+            <v>53.5</v>
           </cell>
           <cell r="E4">
-            <v>51</v>
+            <v>52.5</v>
           </cell>
           <cell r="F4">
-            <v>54</v>
+            <v>45.5</v>
           </cell>
           <cell r="G4">
-            <v>43.348548289006601</v>
+            <v>39.702408713295767</v>
           </cell>
           <cell r="H4">
-            <v>16.721741331392934</v>
+            <v>18.191784525361541</v>
           </cell>
           <cell r="I4">
-            <v>2.1290942754628754</v>
+            <v>2.6022263366768481</v>
           </cell>
           <cell r="J4">
-            <v>-12.596091059454192</v>
+            <v>-14.949206971659921</v>
           </cell>
           <cell r="K4">
-            <v>-14.257114056305294</v>
+            <v>-14.533951222447145</v>
           </cell>
           <cell r="L4">
-            <v>-1.2159157284203215</v>
+            <v>-1.2039949859848282</v>
           </cell>
           <cell r="M4">
-            <v>-14.867883972516074</v>
+            <v>-15.300929136764116</v>
           </cell>
           <cell r="N4">
-            <v>-12.991354927441231</v>
+            <v>-13.13570331552391</v>
           </cell>
           <cell r="O4">
-            <v>-12.179183352649753</v>
+            <v>-10.950091454675924</v>
           </cell>
           <cell r="P4">
-            <v>-1.3897344106078398</v>
+            <v>-1.4453237870321534</v>
           </cell>
           <cell r="Q4">
-            <v>8.0582996037635475</v>
+            <v>8.8137651916163815</v>
           </cell>
           <cell r="R4">
-            <v>11.538774310675468</v>
+            <v>11.305667758944649</v>
           </cell>
           <cell r="S4">
-            <v>12.704307069329555</v>
+            <v>11.305667758944649</v>
           </cell>
           <cell r="T4">
-            <v>12.004987414137103</v>
+            <v>10.489794827886788</v>
           </cell>
           <cell r="U4">
-            <v>12.587753793464147</v>
+            <v>11.888434138271693</v>
           </cell>
           <cell r="V4">
-            <v>10.606348103752197</v>
+            <v>10.489794827886788</v>
           </cell>
           <cell r="W4">
-            <v>24.548162654184594</v>
+            <v>23.089855961856795</v>
           </cell>
           <cell r="X4">
-            <v>36.781030211704334</v>
+            <v>34.923402423234421</v>
           </cell>
           <cell r="Y4">
-            <v>40.124760230950187</v>
+            <v>40.867811346338151</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>11.963609226654738</v>
+            <v>11.158366297937592</v>
           </cell>
           <cell r="C2">
-            <v>9.1396649052026593</v>
+            <v>8.8734610730122903</v>
           </cell>
           <cell r="D2">
-            <v>7.8999822560376689</v>
+            <v>6.9884458418794768</v>
           </cell>
           <cell r="E2">
-            <v>7.8793241403845427</v>
+            <v>7.953657386991944</v>
           </cell>
           <cell r="F2">
-            <v>8.1104881941776146</v>
+            <v>8.4484252022683481</v>
           </cell>
           <cell r="G2">
             <v>11.014378228989415</v>
           </cell>
           <cell r="H2">
-            <v>16.763395276732407</v>
+            <v>17.414400918547258</v>
           </cell>
           <cell r="I2">
-            <v>19.471456423318877</v>
+            <v>17.881949776517335</v>
           </cell>
           <cell r="J2">
-            <v>23.644291032249654</v>
+            <v>24.103403479477805</v>
           </cell>
           <cell r="K2">
-            <v>26.542282560598832</v>
+            <v>24.014446126256086</v>
           </cell>
           <cell r="L2">
             <v>22.942524919383469</v>
           </cell>
           <cell r="M2">
-            <v>25.535299792538485</v>
+            <v>25.034607639743612</v>
           </cell>
           <cell r="N2">
-            <v>27.152527034661034</v>
+            <v>25.644053310513197</v>
           </cell>
           <cell r="O2">
-            <v>25.382370492440732</v>
+            <v>24.138136644772068</v>
           </cell>
           <cell r="P2">
-            <v>22.673339534047543</v>
+            <v>24.244759105714202</v>
           </cell>
           <cell r="Q2">
             <v>21.115140034875928</v>
           </cell>
           <cell r="R2">
-            <v>22.01099874677239</v>
+            <v>21.570778771836942</v>
           </cell>
           <cell r="S2">
-            <v>28.2</v>
+            <v>31.5</v>
           </cell>
           <cell r="T2">
-            <v>28.458626644406625</v>
+            <v>27.260368680431611</v>
           </cell>
           <cell r="U2">
-            <v>31.075281512529919</v>
+            <v>28.751895978882821</v>
           </cell>
           <cell r="V2">
-            <v>27.419364547397883</v>
+            <v>26.075278049976415</v>
           </cell>
           <cell r="W2">
-            <v>24.624022482795553</v>
+            <v>24.863090662240168</v>
           </cell>
           <cell r="X2">
-            <v>18.913987606786282</v>
+            <v>20.863883236351882</v>
           </cell>
           <cell r="Y2">
-            <v>16.006617781463547</v>
+            <v>15.857023222758279</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-30.841936169018453</v>
+            <v>-26.477511239440371</v>
           </cell>
           <cell r="C3">
-            <v>-29.093654104210071</v>
+            <v>-29.726124845605938</v>
           </cell>
           <cell r="D3">
-            <v>-32.359770603757894</v>
+            <v>-35.425433082008645</v>
           </cell>
           <cell r="E3">
-            <v>-33.81494712551352</v>
+            <v>-35.167545010534063</v>
           </cell>
           <cell r="F3">
-            <v>-38.5</v>
+            <v>-31.85</v>
           </cell>
           <cell r="G3">
-            <v>-31.468154277785587</v>
+            <v>-28.975627206277821</v>
           </cell>
           <cell r="H3">
-            <v>-22.505806147689473</v>
+            <v>-22.969843387848019</v>
           </cell>
           <cell r="I3">
-            <v>-9.3593411012408989</v>
+            <v>-10.123368946240156</v>
           </cell>
           <cell r="J3">
-            <v>-2.7562721272999569</v>
+            <v>-2.5593955467785316</v>
           </cell>
           <cell r="K3">
-            <v>-0.43997235573885246</v>
+            <v>-0.39597512016496722</v>
           </cell>
           <cell r="L3">
-            <v>-4.1868102467824473</v>
+            <v>-3.6338353085281616</v>
           </cell>
           <cell r="M3">
-            <v>-2.8747933713166791</v>
+            <v>-3.0490232726085993</v>
           </cell>
           <cell r="N3">
-            <v>-4.260456173894049</v>
+            <v>-4.3006491566666343</v>
           </cell>
           <cell r="O3">
-            <v>-3.9734512973221641</v>
+            <v>-3.9329058759209174</v>
           </cell>
           <cell r="P3">
-            <v>-10.044997104732362</v>
+            <v>-10.249997045645268</v>
           </cell>
           <cell r="Q3">
-            <v>-15.647306087377782</v>
+            <v>-15.794922182541724</v>
           </cell>
           <cell r="R3">
-            <v>-14.046698551410445</v>
+            <v>-11.946257646526639</v>
           </cell>
           <cell r="S3">
-            <v>-4.6604435662929591</v>
+            <v>-4.5708196515565565</v>
           </cell>
           <cell r="T3">
-            <v>-5.9970502911929593</v>
+            <v>-6.1274209496971528</v>
           </cell>
           <cell r="U3">
-            <v>-7.8663431225270921</v>
+            <v>-8.7676949386499885</v>
           </cell>
           <cell r="V3">
-            <v>-12.35663103208101</v>
+            <v>-13.257635378170251</v>
           </cell>
           <cell r="W3">
-            <v>-16.540950472413176</v>
+            <v>-15.371388317798102</v>
           </cell>
           <cell r="X3">
-            <v>-21.743612887160861</v>
+            <v>-24.433544378356018</v>
           </cell>
           <cell r="Y3">
-            <v>-23.717349291954775</v>
+            <v>-26.997408236586821</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>40.768060995319225</v>
+            <v>43.997214341483122</v>
           </cell>
           <cell r="C4">
+            <v>50</v>
+          </cell>
+          <cell r="D4">
+            <v>46</v>
+          </cell>
+          <cell r="E4">
+            <v>54</v>
+          </cell>
+          <cell r="F4">
             <v>53</v>
           </cell>
-          <cell r="D4">
-            <v>50.5</v>
-          </cell>
-          <cell r="E4">
-            <v>53.5</v>
-          </cell>
-          <cell r="F4">
-            <v>50</v>
-          </cell>
           <cell r="G4">
-            <v>40.917788571866048</v>
+            <v>40.512661952342619</v>
           </cell>
           <cell r="H4">
-            <v>18.74305072309977</v>
+            <v>20.029338517822307</v>
           </cell>
           <cell r="I4">
-            <v>2.3656603060698616</v>
+            <v>2.2000640846449713</v>
           </cell>
           <cell r="J4">
-            <v>-13.011346808666968</v>
+            <v>-14.11869547323437</v>
           </cell>
           <cell r="K4">
-            <v>-13.980276890163443</v>
+            <v>-14.395532639376221</v>
           </cell>
           <cell r="L4">
-            <v>-1.3112816679042683</v>
+            <v>-1.1324705313718679</v>
           </cell>
           <cell r="M4">
-            <v>-13.857445255937311</v>
+            <v>-15.012232360598755</v>
           </cell>
           <cell r="N4">
-            <v>-14.434838808268033</v>
+            <v>-14.001793644019992</v>
           </cell>
           <cell r="O4">
-            <v>-11.397033963030044</v>
+            <v>-10.279677692144746</v>
           </cell>
           <cell r="P4">
-            <v>-1.431426442926075</v>
+            <v>-1.3063503459713692</v>
           </cell>
           <cell r="Q4">
             <v>9.0655870542339922</v>
           </cell>
           <cell r="R4">
+            <v>12.587753793464147</v>
+          </cell>
+          <cell r="S4">
+            <v>11.072561207213832</v>
+          </cell>
+          <cell r="T4">
             <v>11.538774310675468</v>
           </cell>
-          <cell r="S4">
-            <v>11.655327586540876</v>
-          </cell>
-          <cell r="T4">
-            <v>10.956007931348424</v>
-          </cell>
           <cell r="U4">
-            <v>12.004987414137103</v>
+            <v>11.072561207213832</v>
           </cell>
           <cell r="V4">
-            <v>11.655327586540876</v>
+            <v>11.189114483079241</v>
           </cell>
           <cell r="W4">
-            <v>21.874600384916963</v>
+            <v>25.520367115736459</v>
           </cell>
           <cell r="X4">
-            <v>39.753234673256202</v>
+            <v>33.808825750152472</v>
           </cell>
           <cell r="Y4">
-            <v>34.180351307846458</v>
+            <v>37.895606884786282</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>12.308713338962088</v>
+            <v>12.078643930757188</v>
           </cell>
           <cell r="C2">
-            <v>8.252318797901431</v>
+            <v>8.8734610730122903</v>
           </cell>
           <cell r="D2">
-            <v>7.0644072097259922</v>
+            <v>8.2038277274237341</v>
           </cell>
           <cell r="E2">
-            <v>7.953657386991944</v>
+            <v>7.2103249209179303</v>
           </cell>
           <cell r="F2">
-            <v>7.8570354381095644</v>
+            <v>8.9553307144044503</v>
           </cell>
           <cell r="G2">
-            <v>9.9653898262285168</v>
+            <v>10.594782867885055</v>
           </cell>
           <cell r="H2">
             <v>16.437892455824979</v>
           </cell>
           <cell r="I2">
-            <v>21.259651400970611</v>
+            <v>18.080638107367527</v>
           </cell>
           <cell r="J2">
-            <v>23.414734808635583</v>
+            <v>21.578285019722983</v>
           </cell>
           <cell r="K2">
-            <v>24.520013413124634</v>
+            <v>25.025580699993185</v>
           </cell>
           <cell r="L2">
-            <v>22.942524919383469</v>
+            <v>26.766279072614047</v>
           </cell>
           <cell r="M2">
-            <v>25.535299792538485</v>
+            <v>26.787030174525668</v>
           </cell>
           <cell r="N2">
-            <v>26.398290172587117</v>
+            <v>23.632755011649415</v>
           </cell>
           <cell r="O2">
-            <v>23.142749566637139</v>
+            <v>22.645056027569673</v>
           </cell>
           <cell r="P2">
-            <v>23.122316554523731</v>
+            <v>23.795782085238013</v>
           </cell>
           <cell r="Q2">
-            <v>19.622150335440256</v>
+            <v>21.7549927632055</v>
           </cell>
           <cell r="R2">
-            <v>19.80989887209515</v>
+            <v>24.212098621449631</v>
           </cell>
           <cell r="S2">
-            <v>31.5</v>
+            <v>31.8</v>
           </cell>
           <cell r="T2">
-            <v>32.652529518319184</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>30.204011937412258</v>
+            <v>31.075281512529919</v>
           </cell>
           <cell r="V2">
-            <v>28.225816445850761</v>
+            <v>26.344095349460709</v>
           </cell>
           <cell r="W2">
-            <v>25.102158841684787</v>
+            <v>25.341227021129402</v>
           </cell>
           <cell r="X2">
-            <v>21.253862362265</v>
+            <v>18.134029354960045</v>
           </cell>
           <cell r="Y2">
-            <v>13.762699400884545</v>
+            <v>13.613104842179277</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-28.514242873243475</v>
+            <v>-29.969051183102838</v>
           </cell>
           <cell r="C3">
-            <v>-34.153420035377039</v>
+            <v>-33.837184664679107</v>
           </cell>
           <cell r="D3">
-            <v>-30.997253946757564</v>
+            <v>-35.425433082008645</v>
           </cell>
           <cell r="E3">
-            <v>-32.462349240492976</v>
+            <v>-35.843843953044335</v>
           </cell>
           <cell r="F3">
-            <v>-32.200000000000003</v>
+            <v>-34.65</v>
           </cell>
           <cell r="G3">
-            <v>-28.975627206277821</v>
+            <v>-33.337549581416418</v>
           </cell>
           <cell r="H3">
-            <v>-23.665899248085839</v>
+            <v>-21.577731667372383</v>
           </cell>
           <cell r="I3">
-            <v>-9.2638376206159911</v>
+            <v>-9.1683341399910834</v>
           </cell>
           <cell r="J3">
-            <v>-2.9250234820326075</v>
+            <v>-3.0375243851877078</v>
           </cell>
           <cell r="K3">
-            <v>-0.45757124996840659</v>
+            <v>-0.43557263218146391</v>
           </cell>
           <cell r="L3">
-            <v>-3.7523299381540793</v>
+            <v>-4.1078138270318343</v>
           </cell>
           <cell r="M3">
-            <v>-2.9328700050806527</v>
+            <v>-2.7876784206707192</v>
           </cell>
           <cell r="N3">
-            <v>-4.1398772255762921</v>
+            <v>-3.7379473978504389</v>
           </cell>
           <cell r="O3">
-            <v>-3.8923604545196708</v>
+            <v>-4.3789055113346302</v>
           </cell>
           <cell r="P3">
-            <v>-11.274996750209795</v>
+            <v>-9.8399971638194561</v>
           </cell>
           <cell r="Q3">
-            <v>-15.647306087377782</v>
+            <v>-14.909225611558075</v>
           </cell>
           <cell r="R3">
-            <v>-13.915420994855207</v>
+            <v>-13.390310768634256</v>
           </cell>
           <cell r="S3">
-            <v>-4.5260076941883547</v>
+            <v>-4.6156316089247573</v>
           </cell>
           <cell r="T3">
-            <v>-6.8444595714702245</v>
+            <v>-6.5185329252097377</v>
           </cell>
           <cell r="U3">
-            <v>-7.948284196720083</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-11.584341592575948</v>
+            <v>-12.227916125496833</v>
           </cell>
           <cell r="W3">
-            <v>-16.87511108801748</v>
+            <v>-17.710512627028248</v>
           </cell>
           <cell r="X3">
-            <v>-23.536900547957632</v>
+            <v>-23.312739590358035</v>
           </cell>
           <cell r="Y3">
-            <v>-26.745096010076665</v>
+            <v>-26.240471557056349</v>
           </cell>
         </row>
         <row r="4">
@@ -2423,739 +2423,739 @@
             <v>37.538907649155327</v>
           </cell>
           <cell r="C4">
+            <v>53.5</v>
+          </cell>
+          <cell r="D4">
+            <v>53</v>
+          </cell>
+          <cell r="E4">
+            <v>53</v>
+          </cell>
+          <cell r="F4">
             <v>55.000000000000007</v>
-          </cell>
-          <cell r="D4">
-            <v>54</v>
-          </cell>
-          <cell r="E4">
-            <v>46</v>
-          </cell>
-          <cell r="F4">
-            <v>47</v>
           </cell>
           <cell r="G4">
             <v>40.917788571866048</v>
           </cell>
           <cell r="H4">
-            <v>16.537985932146857</v>
+            <v>20.029338517822307</v>
           </cell>
           <cell r="I4">
-            <v>2.5549131305554504</v>
+            <v>2.3183470999484643</v>
           </cell>
           <cell r="J4">
-            <v>-13.841858307092519</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="K4">
-            <v>-14.67236980551807</v>
+            <v>-14.395532639376221</v>
           </cell>
           <cell r="L4">
-            <v>-1.2397572132913082</v>
+            <v>-1.2039949859848282</v>
           </cell>
           <cell r="M4">
-            <v>-15.156580748681435</v>
+            <v>-13.56874847977195</v>
           </cell>
           <cell r="N4">
-            <v>-13.28005170360659</v>
+            <v>-15.589625912929476</v>
           </cell>
           <cell r="O4">
-            <v>-12.290918979738283</v>
+            <v>-10.614884573410334</v>
           </cell>
           <cell r="P4">
-            <v>-1.431426442926075</v>
+            <v>-1.2785556577592125</v>
           </cell>
           <cell r="Q4">
-            <v>9.1495276751065298</v>
+            <v>8.0582996037635475</v>
           </cell>
           <cell r="R4">
-            <v>11.771880862406285</v>
+            <v>11.422221034810059</v>
           </cell>
           <cell r="S4">
-            <v>12.23809396586792</v>
+            <v>12.121540690002512</v>
           </cell>
           <cell r="T4">
             <v>10.839454655483015</v>
           </cell>
           <cell r="U4">
-            <v>10.606348103752197</v>
+            <v>11.305667758944649</v>
           </cell>
           <cell r="V4">
-            <v>11.072561207213832</v>
+            <v>12.354647241733328</v>
           </cell>
           <cell r="W4">
-            <v>25.034264884960525</v>
+            <v>25.277316000348492</v>
           </cell>
           <cell r="X4">
+            <v>40.496285788644172</v>
+          </cell>
+          <cell r="Y4">
             <v>36.03797909631637</v>
-          </cell>
-          <cell r="Y4">
-            <v>40.124760230950187</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>68.483256316747656</v>
+            <v>63.960777126019032</v>
           </cell>
           <cell r="C2">
-            <v>53.461139946800223</v>
+            <v>51.186197821404477</v>
           </cell>
           <cell r="D2">
-            <v>50.553240117359884</v>
+            <v>55.931244385164135</v>
           </cell>
           <cell r="E2">
-            <v>51.032859662342013</v>
+            <v>46.866911934803895</v>
           </cell>
           <cell r="F2">
-            <v>54.099608186508398</v>
+            <v>50.787387277130335</v>
           </cell>
           <cell r="G2">
-            <v>55.61932774175402</v>
+            <v>45.506722697798743</v>
           </cell>
           <cell r="H2">
-            <v>59.89421488618239</v>
+            <v>61.080238943334521</v>
           </cell>
           <cell r="I2">
-            <v>64.700097667473543</v>
+            <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>71.338197154330842</v>
+            <v>81.41859457831238</v>
           </cell>
           <cell r="K2">
             <v>74.900420778653483</v>
           </cell>
           <cell r="L2">
-            <v>81.591696035971012</v>
+            <v>79.015116161150885</v>
           </cell>
           <cell r="M2">
-            <v>88.117720366036508</v>
+            <v>93.352436427385214</v>
           </cell>
           <cell r="N2">
-            <v>96.075010217324106</v>
+            <v>84.510425654127687</v>
           </cell>
           <cell r="O2">
-            <v>98.655638657498216</v>
+            <v>93.274422003452855</v>
           </cell>
           <cell r="P2">
-            <v>98.100000000000009</v>
+            <v>93.600000000000009</v>
           </cell>
           <cell r="Q2">
-            <v>86.60707166264595</v>
+            <v>79.678505929634284</v>
           </cell>
           <cell r="R2">
-            <v>82.317899254529934</v>
+            <v>78.851882443812897</v>
           </cell>
           <cell r="S2">
-            <v>79.108545370180522</v>
+            <v>80.773988430605371</v>
           </cell>
           <cell r="T2">
-            <v>90.40711849902857</v>
+            <v>91.24422144809364</v>
           </cell>
           <cell r="U2">
-            <v>84.39853740005627</v>
+            <v>92.838391140061901</v>
           </cell>
           <cell r="V2">
-            <v>77.008382754427132</v>
+            <v>92.075240249858538</v>
           </cell>
           <cell r="W2">
-            <v>79.768981770656168</v>
+            <v>78.901927620975115</v>
           </cell>
           <cell r="X2">
-            <v>77.088291863237529</v>
+            <v>76.24116777682832</v>
           </cell>
           <cell r="Y2">
-            <v>77.981531376022531</v>
+            <v>81.767042607868277</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>71.468952058392034</v>
+            <v>80.220252310440046</v>
           </cell>
           <cell r="C3">
-            <v>69.570794177723542</v>
+            <v>63.607583248204378</v>
           </cell>
           <cell r="D3">
-            <v>63.147529543922751</v>
+            <v>59.24149678862856</v>
           </cell>
           <cell r="E3">
-            <v>71.427666648165385</v>
+            <v>62.336872711126148</v>
           </cell>
           <cell r="F3">
-            <v>70.134510776682276</v>
+            <v>58.445425647235226</v>
           </cell>
           <cell r="G3">
-            <v>57.928551380194342</v>
+            <v>63.077755947322729</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>66.70831180352242</v>
           </cell>
           <cell r="I3">
-            <v>86.623975681107922</v>
+            <v>80.849043969034057</v>
           </cell>
           <cell r="J3">
-            <v>87.443649480436861</v>
+            <v>86.503395184948289</v>
           </cell>
           <cell r="K3">
-            <v>88.192329297297931</v>
+            <v>106.60611233739311</v>
           </cell>
           <cell r="L3">
-            <v>86.340507480788233</v>
+            <v>89.218524396814502</v>
           </cell>
           <cell r="M3">
-            <v>106.53851619505409</v>
+            <v>105.55204845250728</v>
           </cell>
           <cell r="N3">
-            <v>110.00000000000001</v>
+            <v>108</v>
           </cell>
           <cell r="O3">
-            <v>89.316670482356386</v>
+            <v>101.09469296354624</v>
           </cell>
           <cell r="P3">
-            <v>91.485499838277747</v>
+            <v>85.826602941064692</v>
           </cell>
           <cell r="Q3">
-            <v>93.234502361550753</v>
+            <v>99.570827764762939</v>
           </cell>
           <cell r="R3">
-            <v>85.651319559296212</v>
+            <v>97.624084658982781</v>
           </cell>
           <cell r="S3">
-            <v>96.728424224389528</v>
+            <v>92.078019213601564</v>
           </cell>
           <cell r="T3">
-            <v>84.996625395900963</v>
+            <v>92.468856199936212</v>
           </cell>
           <cell r="U3">
-            <v>101.04230168715682</v>
+            <v>93.693770655363593</v>
           </cell>
           <cell r="V3">
-            <v>91.211300364488423</v>
+            <v>92.132626630796395</v>
           </cell>
           <cell r="W3">
-            <v>99.786515904333072</v>
+            <v>96.908058714785</v>
           </cell>
           <cell r="X3">
-            <v>92.11875387084055</v>
+            <v>95.696181205630481</v>
           </cell>
           <cell r="Y3">
-            <v>89.363859563985841</v>
+            <v>79.525636492721333</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>87.346358535906148</v>
+            <v>75.700177397785325</v>
           </cell>
           <cell r="C4">
-            <v>80.288926435768019</v>
+            <v>78.77404103131957</v>
           </cell>
           <cell r="D4">
-            <v>66.994266275107734</v>
+            <v>73.477582366247191</v>
           </cell>
           <cell r="E4">
-            <v>67.388153834443699</v>
+            <v>71.55649324688352</v>
           </cell>
           <cell r="F4">
-            <v>67.388153834443699</v>
+            <v>65.99870736363043</v>
           </cell>
           <cell r="G4">
-            <v>70.765391374509065</v>
+            <v>77.469481083673088</v>
           </cell>
           <cell r="H4">
-            <v>84.933594274987001</v>
+            <v>86.800266676635076</v>
           </cell>
           <cell r="I4">
-            <v>118.29894653346028</v>
+            <v>116.00187961048047</v>
           </cell>
           <cell r="J4">
-            <v>107.88382284923166</v>
+            <v>118.67220513415482</v>
           </cell>
           <cell r="K4">
-            <v>109.14677831742983</v>
+            <v>112.66764213412111</v>
           </cell>
           <cell r="L4">
-            <v>116.13332251684709</v>
+            <v>127.86396115491246</v>
           </cell>
           <cell r="M4">
-            <v>127.5</v>
+            <v>118.75</v>
           </cell>
           <cell r="N4">
-            <v>116.25</v>
+            <v>122.5</v>
           </cell>
           <cell r="O4">
-            <v>123.75</v>
+            <v>120</v>
           </cell>
           <cell r="P4">
             <v>130.60083889073255</v>
           </cell>
           <cell r="Q4">
-            <v>104.53229564749114</v>
+            <v>121.39234333257035</v>
           </cell>
           <cell r="R4">
             <v>94.236044623818501</v>
           </cell>
           <cell r="S4">
-            <v>99.471380436252844</v>
+            <v>110.98911922360845</v>
           </cell>
           <cell r="T4">
-            <v>113.08325354858221</v>
+            <v>107.84791773614783</v>
           </cell>
           <cell r="U4">
-            <v>108.8949848986347</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="V4">
-            <v>104.70671624868721</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="W4">
-            <v>100.51844759873973</v>
+            <v>103.65964908620035</v>
           </cell>
           <cell r="X4">
-            <v>104.98130510466393</v>
+            <v>99.934126974632008</v>
           </cell>
           <cell r="Y4">
-            <v>85.94824111288716</v>
+            <v>103.89347826832515</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>65.252914037655785</v>
+            <v>65.898982493474151</v>
           </cell>
           <cell r="C2">
-            <v>56.304817603544919</v>
+            <v>52.323668884102354</v>
           </cell>
           <cell r="D2">
-            <v>51.091040544140313</v>
+            <v>58.620246519066256</v>
           </cell>
           <cell r="E2">
-            <v>47.387655400746162</v>
+            <v>56.76103778770694</v>
           </cell>
           <cell r="F2">
-            <v>57.411829095886468</v>
+            <v>54.651645004738072</v>
           </cell>
           <cell r="G2">
-            <v>53.091176480765199</v>
+            <v>46.517983202194273</v>
           </cell>
           <cell r="H2">
-            <v>53.96409460042176</v>
+            <v>62.266263000486646</v>
           </cell>
           <cell r="I2">
-            <v>66.076695490185742</v>
+            <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>72.889027527251073</v>
+            <v>80.643179391852257</v>
           </cell>
           <cell r="K2">
-            <v>89.048278036843584</v>
+            <v>77.397101471275263</v>
           </cell>
           <cell r="L2">
-            <v>91.039155576978189</v>
+            <v>85.027135869064523</v>
           </cell>
           <cell r="M2">
-            <v>79.393193597122007</v>
+            <v>81.138098950904904</v>
           </cell>
           <cell r="N2">
-            <v>83.620842226189495</v>
+            <v>80.062508514436757</v>
           </cell>
           <cell r="O2">
-            <v>80.718249810680362</v>
+            <v>97.758769215157329</v>
           </cell>
           <cell r="P2">
-            <v>91.8</v>
+            <v>84.6</v>
           </cell>
           <cell r="Q2">
-            <v>91.80349596240471</v>
+            <v>86.60707166264595</v>
           </cell>
           <cell r="R2">
-            <v>81.451395051850668</v>
+            <v>79.718386646492149</v>
           </cell>
           <cell r="S2">
-            <v>74.9449377191184</v>
+            <v>82.439431491030234</v>
           </cell>
           <cell r="T2">
-            <v>77.85057426305238</v>
+            <v>85.38450080463808</v>
           </cell>
           <cell r="U2">
-            <v>82.710566652055149</v>
+            <v>91.150420392060781</v>
           </cell>
           <cell r="V2">
-            <v>85.378859140777905</v>
+            <v>88.727049695318215</v>
           </cell>
           <cell r="W2">
-            <v>78.901927620975115</v>
+            <v>87.572469117785573</v>
           </cell>
           <cell r="X2">
-            <v>88.100904986557182</v>
+            <v>91.489401332193992</v>
           </cell>
           <cell r="Y2">
-            <v>68.896304419592724</v>
+            <v>69.653406665961867</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>76.573877205420033</v>
+            <v>78.032427247428046</v>
           </cell>
           <cell r="C3">
-            <v>72.221110146398729</v>
+            <v>60.957267279529205</v>
           </cell>
           <cell r="D3">
-            <v>60.543507707059959</v>
+            <v>67.704567758432646</v>
           </cell>
           <cell r="E3">
-            <v>68.830296951868462</v>
+            <v>64.284899983348836</v>
           </cell>
           <cell r="F3">
-            <v>60.393606502143072</v>
+            <v>64.939361830261362</v>
           </cell>
           <cell r="G3">
-            <v>65.008707659995878</v>
+            <v>61.146804234649579</v>
           </cell>
           <cell r="H3">
-            <v>63.928798811708987</v>
+            <v>74.351972531009366</v>
           </cell>
           <cell r="I3">
-            <v>78.374073235288122</v>
+            <v>85.798985436525939</v>
           </cell>
           <cell r="J3">
-            <v>87.443649480436861</v>
+            <v>90.264412366902562</v>
           </cell>
           <cell r="K3">
             <v>94.00720815206482</v>
           </cell>
           <cell r="L3">
-            <v>87.299846452796984</v>
+            <v>92.09654131284077</v>
           </cell>
           <cell r="M3">
-            <v>99.633241997226492</v>
+            <v>108.51145168014767</v>
           </cell>
           <cell r="N3">
-            <v>109.00000000000001</v>
+            <v>105</v>
           </cell>
           <cell r="O3">
-            <v>92.261176102653849</v>
+            <v>98.150187343248774</v>
           </cell>
           <cell r="P3">
-            <v>84.883453458195845</v>
+            <v>100.91699466696618</v>
           </cell>
           <cell r="Q3">
-            <v>95.044881048182802</v>
+            <v>91.42412367491869</v>
           </cell>
           <cell r="R3">
-            <v>98.545066589727909</v>
+            <v>99.466048520473024</v>
           </cell>
           <cell r="S3">
-            <v>91.147938211443972</v>
+            <v>102.30891023733508</v>
           </cell>
           <cell r="T3">
-            <v>97.139000452458248</v>
+            <v>95.270942751449425</v>
           </cell>
           <cell r="U3">
-            <v>88.182372381518661</v>
+            <v>85.426673244596216</v>
           </cell>
           <cell r="V3">
-            <v>93.053952897104367</v>
+            <v>100.42456302756808</v>
           </cell>
           <cell r="W3">
-            <v>98.82703017448371</v>
+            <v>87.313201416291434</v>
           </cell>
           <cell r="X3">
-            <v>80.492115032773299</v>
+            <v>91.224397037143063</v>
           </cell>
           <cell r="Y3">
-            <v>76.246228802299839</v>
+            <v>90.183711486591207</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>78.195787641668346</v>
+            <v>89.84196877978917</v>
           </cell>
           <cell r="C4">
-            <v>75.744270222422657</v>
+            <v>73.471942115749968</v>
           </cell>
           <cell r="D4">
-            <v>67.714634729678778</v>
+            <v>71.316477002534043</v>
           </cell>
           <cell r="E4">
-            <v>74.335386188510071</v>
+            <v>72.945939717696788</v>
           </cell>
           <cell r="F4">
-            <v>64.609260892817161</v>
+            <v>62.525091186597251</v>
           </cell>
           <cell r="G4">
-            <v>68.530694804787728</v>
+            <v>67.785795948213959</v>
           </cell>
           <cell r="H4">
-            <v>86.800266676635076</v>
+            <v>99.866973488171539</v>
           </cell>
           <cell r="I4">
-            <v>107.96214538005113</v>
+            <v>103.36801153409151</v>
           </cell>
           <cell r="J4">
-            <v>129.460587419078</v>
+            <v>131.85800570461649</v>
           </cell>
           <cell r="K4">
-            <v>120.88299103973412</v>
+            <v>117.36212722304283</v>
           </cell>
           <cell r="L4">
-            <v>105.57574774258826</v>
+            <v>111.44106706162093</v>
           </cell>
           <cell r="M4">
-            <v>136.25</v>
+            <v>116.25</v>
           </cell>
           <cell r="N4">
-            <v>127.5</v>
+            <v>135</v>
           </cell>
           <cell r="O4">
-            <v>117.5</v>
+            <v>120</v>
           </cell>
           <cell r="P4">
-            <v>129.41355853718045</v>
+            <v>130.60083889073255</v>
           </cell>
           <cell r="Q4">
-            <v>113.52432107953338</v>
+            <v>121.39234333257035</v>
           </cell>
           <cell r="R4">
+            <v>109.94205206112159</v>
+          </cell>
+          <cell r="S4">
+            <v>102.61258192371346</v>
+          </cell>
+          <cell r="T4">
+            <v>104.70671624868721</v>
+          </cell>
+          <cell r="U4">
+            <v>101.56551476122659</v>
+          </cell>
+          <cell r="V4">
+            <v>102.61258192371346</v>
+          </cell>
+          <cell r="W4">
             <v>99.471380436252844</v>
           </cell>
-          <cell r="S4">
-            <v>98.424313273765975</v>
-          </cell>
-          <cell r="T4">
-            <v>100.51844759873973</v>
-          </cell>
-          <cell r="U4">
-            <v>114.13032071106907</v>
-          </cell>
-          <cell r="V4">
-            <v>105.75378341117408</v>
-          </cell>
-          <cell r="W4">
-            <v>112.03618638609532</v>
-          </cell>
           <cell r="X4">
-            <v>90.849206340574554</v>
+            <v>97.915255722619236</v>
           </cell>
           <cell r="Y4">
-            <v>86.892727278962852</v>
+            <v>100.11553360402242</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>67.191119405110896</v>
+            <v>69.129324772566022</v>
           </cell>
           <cell r="C2">
-            <v>59.148495260289614</v>
+            <v>58.011024197591738</v>
           </cell>
           <cell r="D2">
-            <v>55.393443958383706</v>
+            <v>57.544645665505406</v>
           </cell>
           <cell r="E2">
-            <v>56.76103778770694</v>
+            <v>47.387655400746162</v>
           </cell>
           <cell r="F2">
-            <v>56.859792277656787</v>
+            <v>50.235350458900655</v>
           </cell>
           <cell r="G2">
-            <v>52.079915976369669</v>
+            <v>46.012352949996504</v>
           </cell>
           <cell r="H2">
-            <v>61.673250971910583</v>
+            <v>56.336142714726009</v>
           </cell>
           <cell r="I2">
             <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>74.439857900171305</v>
+            <v>79.867764205392135</v>
           </cell>
           <cell r="K2">
-            <v>90.712731831924771</v>
+            <v>79.061555266356436</v>
           </cell>
           <cell r="L2">
-            <v>88.462575702158048</v>
+            <v>79.015116161150885</v>
           </cell>
           <cell r="M2">
-            <v>85.500362335362155</v>
+            <v>92.479983750493759</v>
           </cell>
           <cell r="N2">
-            <v>80.062508514436757</v>
+            <v>85.400009082065864</v>
           </cell>
           <cell r="O2">
-            <v>91.480683118771069</v>
+            <v>93.274422003452855</v>
           </cell>
           <cell r="P2">
-            <v>95.4</v>
+            <v>81</v>
           </cell>
           <cell r="Q2">
-            <v>79.678505929634284</v>
+            <v>78.812435213007817</v>
           </cell>
           <cell r="R2">
-            <v>95.315462294718884</v>
+            <v>79.718386646492149</v>
           </cell>
           <cell r="S2">
-            <v>85.770317611879946</v>
+            <v>79.108545370180522</v>
           </cell>
           <cell r="T2">
             <v>82.873191957442842</v>
           </cell>
           <cell r="U2">
-            <v>89.462449644059646</v>
+            <v>81.866581278054582</v>
           </cell>
           <cell r="V2">
-            <v>89.564097333953299</v>
+            <v>83.70476386350775</v>
           </cell>
           <cell r="W2">
             <v>90.173631566828703</v>
           </cell>
           <cell r="X2">
-            <v>86.406656813738763</v>
+            <v>92.336525418603202</v>
           </cell>
           <cell r="Y2">
-            <v>72.68181565143847</v>
+            <v>77.224429129653373</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>65.634751890360036</v>
+            <v>78.761702268432046</v>
           </cell>
           <cell r="C3">
-            <v>67.583057201217159</v>
+            <v>60.957267279529205</v>
           </cell>
           <cell r="D3">
-            <v>71.610600513726837</v>
+            <v>70.959595054511141</v>
           </cell>
           <cell r="E3">
-            <v>64.934242407423071</v>
+            <v>70.128981800016916</v>
           </cell>
           <cell r="F3">
-            <v>70.134510776682276</v>
+            <v>67.536936303471819</v>
           </cell>
           <cell r="G3">
-            <v>62.434105376431674</v>
+            <v>61.146804234649579</v>
           </cell>
           <cell r="H3">
-            <v>76.436607274869445</v>
+            <v>68.09806829942913</v>
           </cell>
           <cell r="I3">
-            <v>78.374073235288122</v>
+            <v>75.074112256960206</v>
           </cell>
           <cell r="J3">
             <v>101.54746391276539</v>
           </cell>
           <cell r="K3">
-            <v>102.72952643421517</v>
+            <v>91.099768724681368</v>
           </cell>
           <cell r="L3">
-            <v>91.137202340832005</v>
+            <v>100.73059206091961</v>
           </cell>
           <cell r="M3">
-            <v>103.57911296741369</v>
+            <v>105.55204845250728</v>
           </cell>
           <cell r="N3">
-            <v>105</v>
+            <v>103</v>
           </cell>
           <cell r="O3">
-            <v>102.07619483697873</v>
+            <v>90.298172355788878</v>
           </cell>
           <cell r="P3">
-            <v>103.7464431155727</v>
+            <v>87.712901906802372</v>
           </cell>
           <cell r="Q3">
-            <v>91.42412367491869</v>
+            <v>88.708555644970616</v>
           </cell>
           <cell r="R3">
-            <v>95.782120797492539</v>
+            <v>93.019175005257182</v>
           </cell>
           <cell r="S3">
-            <v>100.4487482330199</v>
+            <v>92.078019213601564</v>
           </cell>
           <cell r="T3">
-            <v>90.600798498927389</v>
+            <v>91.534827349431808</v>
           </cell>
           <cell r="U3">
-            <v>92.775204276389431</v>
+            <v>85.426673244596216</v>
           </cell>
           <cell r="V3">
-            <v>97.660584228644183</v>
+            <v>96.739257962336225</v>
           </cell>
           <cell r="W3">
-            <v>87.313201416291434</v>
+            <v>86.353715686442072</v>
           </cell>
           <cell r="X3">
-            <v>81.386471866470785</v>
+            <v>83.175185533865744</v>
           </cell>
           <cell r="Y3">
-            <v>77.066080724905206</v>
+            <v>77.885932647510586</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>90.673838861083524</v>
+            <v>77.363917560374006</v>
           </cell>
           <cell r="C4">
-            <v>68.169843200180395</v>
+            <v>71.957056711301519</v>
           </cell>
           <cell r="D4">
-            <v>70.596108547962984</v>
+            <v>79.240530002815603</v>
           </cell>
           <cell r="E4">
-            <v>65.303984128223789</v>
+            <v>72.251216482290161</v>
           </cell>
           <cell r="F4">
-            <v>64.609260892817161</v>
+            <v>69.472323540663609</v>
           </cell>
           <cell r="G4">
-            <v>78.214379940246872</v>
+            <v>68.530694804787728</v>
           </cell>
           <cell r="H4">
-            <v>101.7336458898196</v>
+            <v>84.933594274987001</v>
           </cell>
           <cell r="I4">
-            <v>110.25921230303094</v>
+            <v>112.55627922601076</v>
           </cell>
           <cell r="J4">
-            <v>111.47995027753939</v>
+            <v>112.67865942030862</v>
           </cell>
           <cell r="K4">
-            <v>113.84126340635154</v>
+            <v>122.05661231196456</v>
           </cell>
           <cell r="L4">
-            <v>109.09493933400788</v>
+            <v>106.7488116063948</v>
           </cell>
           <cell r="M4">
-            <v>132.5</v>
+            <v>112.5</v>
           </cell>
           <cell r="N4">
-            <v>113.75</v>
+            <v>127.5</v>
           </cell>
           <cell r="O4">
             <v>120</v>
           </cell>
           <cell r="P4">
-            <v>125.8517174765241</v>
+            <v>129.41355853718045</v>
           </cell>
           <cell r="Q4">
-            <v>118.02033379555451</v>
+            <v>114.64832425853866</v>
           </cell>
           <cell r="R4">
-            <v>104.70671624868721</v>
+            <v>97.377246111279121</v>
           </cell>
           <cell r="S4">
-            <v>107.84791773614783</v>
+            <v>95.283111786305369</v>
           </cell>
           <cell r="T4">
+            <v>108.8949848986347</v>
+          </cell>
+          <cell r="U4">
+            <v>99.471380436252844</v>
+          </cell>
+          <cell r="V4">
             <v>103.65964908620035</v>
           </cell>
-          <cell r="U4">
-            <v>106.80085057366097</v>
-          </cell>
-          <cell r="V4">
-            <v>98.424313273765975</v>
-          </cell>
           <cell r="W4">
-            <v>94.236044623818501</v>
+            <v>95.283111786305369</v>
           </cell>
           <cell r="X4">
             <v>92.868077592587326</v>
@@ -3168,672 +3168,672 @@
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>12.56747341771853</v>
+            <v>13.849868664424504</v>
           </cell>
           <cell r="C2">
-            <v>10.808195830431925</v>
+            <v>9.0395819672703368</v>
           </cell>
           <cell r="D2">
-            <v>10.242384489834956</v>
+            <v>8.8456956957665511</v>
           </cell>
           <cell r="E2">
-            <v>8.0508883066686785</v>
+            <v>7.4816335779143275</v>
           </cell>
           <cell r="F2">
-            <v>8.7064588165804526</v>
+            <v>9.5490193472172695</v>
           </cell>
           <cell r="G2">
             <v>4.5187468588199975</v>
           </cell>
           <cell r="H2">
-            <v>8.0357763648702143</v>
+            <v>7.5809210989341649</v>
           </cell>
           <cell r="I2">
-            <v>14.276282883660967</v>
+            <v>14.713311951528139</v>
           </cell>
           <cell r="J2">
-            <v>19.072316498849123</v>
+            <v>20.343804265439061</v>
           </cell>
           <cell r="K2">
-            <v>26.944046505223685</v>
+            <v>27.699487061444909</v>
           </cell>
           <cell r="L2">
-            <v>26.115770887206928</v>
+            <v>25.565965184318362</v>
           </cell>
           <cell r="M2">
-            <v>26.499350415420064</v>
+            <v>29.633682184985876</v>
           </cell>
           <cell r="N2">
-            <v>31.858957273478502</v>
+            <v>26.797253781430513</v>
           </cell>
           <cell r="O2">
-            <v>31.200000000000003</v>
+            <v>28.799999999999997</v>
           </cell>
           <cell r="P2">
-            <v>28.893448788029289</v>
+            <v>28.297707575904976</v>
           </cell>
           <cell r="Q2">
-            <v>28.795491987925047</v>
+            <v>28.507537068045796</v>
           </cell>
           <cell r="R2">
-            <v>28.499644537298046</v>
+            <v>27.951574450042312</v>
           </cell>
           <cell r="S2">
-            <v>24.803875055938811</v>
+            <v>21.885772108181303</v>
           </cell>
           <cell r="T2">
-            <v>22.268617396090562</v>
+            <v>25.657320043321736</v>
           </cell>
           <cell r="U2">
             <v>22.796016738862523</v>
           </cell>
           <cell r="V2">
-            <v>19.095376801013177</v>
+            <v>21.586078122884459</v>
           </cell>
           <cell r="W2">
-            <v>27.370424348263562</v>
+            <v>25.131025992496539</v>
           </cell>
           <cell r="X2">
-            <v>22.51831403349793</v>
+            <v>22.741267637789988</v>
           </cell>
           <cell r="Y2">
-            <v>16.507015776373123</v>
+            <v>19.37780112878584</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.187565554221479</v>
+            <v>-22.211247004570051</v>
           </cell>
           <cell r="C3">
-            <v>-30.14668243021454</v>
+            <v>-31.733349926541621</v>
           </cell>
           <cell r="D3">
-            <v>-37.424614987977527</v>
+            <v>-32.178173634522736</v>
           </cell>
           <cell r="E3">
-            <v>-33.19439135784846</v>
+            <v>-30.960153477993277</v>
           </cell>
           <cell r="F3">
-            <v>-32.158775238708884</v>
+            <v>-31.132431348111798</v>
           </cell>
           <cell r="G3">
-            <v>-32.200000000000003</v>
+            <v>-37.450000000000003</v>
           </cell>
           <cell r="H3">
-            <v>-27.604085582212402</v>
+            <v>-29.727476780844121</v>
           </cell>
           <cell r="I3">
-            <v>-4.483348093597634</v>
+            <v>-4.6249275070796649</v>
           </cell>
           <cell r="J3">
             <v>16.512028476092034</v>
           </cell>
           <cell r="K3">
-            <v>22.27402471504135</v>
+            <v>24.258838798559889</v>
           </cell>
           <cell r="L3">
-            <v>15.775773309569058</v>
+            <v>18.376175503454068</v>
           </cell>
           <cell r="M3">
-            <v>23.784808898126599</v>
+            <v>21.93744510021385</v>
           </cell>
           <cell r="N3">
-            <v>18.852954530878545</v>
+            <v>20.287418462575825</v>
           </cell>
           <cell r="O3">
-            <v>23.009182134768189</v>
+            <v>19.842780923561556</v>
           </cell>
           <cell r="P3">
-            <v>10.564896113142836</v>
+            <v>10.3470632035935</v>
           </cell>
           <cell r="Q3">
-            <v>2.7810752185456389</v>
+            <v>2.5883274311216837</v>
           </cell>
           <cell r="R3">
-            <v>6.4318053697596449</v>
+            <v>6.1255289235806138</v>
           </cell>
           <cell r="S3">
-            <v>7.1427837489412571</v>
+            <v>7.3659957410956709</v>
           </cell>
           <cell r="T3">
-            <v>4.7066886734737281</v>
+            <v>4.4377350349895144</v>
           </cell>
           <cell r="U3">
-            <v>-0.77767144276712052</v>
+            <v>-0.78603350129149818</v>
           </cell>
           <cell r="V3">
-            <v>-3.0032602590480484</v>
+            <v>-3.3297015915532708</v>
           </cell>
           <cell r="W3">
-            <v>-2.1802914492861678</v>
+            <v>-2.452827880446939</v>
           </cell>
           <cell r="X3">
-            <v>-9.9115272502551406</v>
+            <v>-11.000706068964496</v>
           </cell>
           <cell r="Y3">
-            <v>-14.890351351284648</v>
+            <v>-15.774926679083737</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-35.555365825699823</v>
+            <v>-40.094348697065769</v>
           </cell>
           <cell r="C4">
-            <v>-34.798868680472175</v>
+            <v>-39.716100124451934</v>
           </cell>
           <cell r="D4">
-            <v>-47.864547207453626</v>
+            <v>-46.108050062225963</v>
           </cell>
           <cell r="E4">
-            <v>-48.5</v>
+            <v>-52.5</v>
           </cell>
           <cell r="F4">
-            <v>-48</v>
+            <v>-51</v>
           </cell>
           <cell r="G4">
-            <v>-51.5</v>
+            <v>-53</v>
           </cell>
           <cell r="H4">
-            <v>-21.531718687877206</v>
+            <v>-21.13298315662022</v>
           </cell>
           <cell r="I4">
-            <v>3.7606149455210467</v>
+            <v>3.9259167013681258</v>
           </cell>
           <cell r="J4">
-            <v>12.598496181465649</v>
+            <v>11.942324505347646</v>
           </cell>
           <cell r="K4">
-            <v>12.72973051668925</v>
+            <v>12.073558840571247</v>
           </cell>
           <cell r="L4">
-            <v>10.799598117722487</v>
+            <v>11.519571325570652</v>
           </cell>
           <cell r="M4">
-            <v>16.026107057895647</v>
+            <v>15.351323602826358</v>
           </cell>
           <cell r="N4">
-            <v>25.149849282307621</v>
+            <v>20.577149412797144</v>
           </cell>
           <cell r="O4">
-            <v>25.686871351608826</v>
+            <v>24.979893241014086</v>
           </cell>
           <cell r="P4">
-            <v>13.217081822689112</v>
+            <v>13.481423459142894</v>
           </cell>
           <cell r="Q4">
-            <v>9.9012129725594278</v>
+            <v>9.6949377022977714</v>
           </cell>
           <cell r="R4">
-            <v>-1.824728162083223</v>
+            <v>-1.7242844100419445</v>
           </cell>
           <cell r="S4">
-            <v>-1.5401375312996011</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="T4">
-            <v>-1.6238406580006661</v>
+            <v>-1.8079875367430098</v>
           </cell>
           <cell r="U4">
-            <v>-1.7577656607223706</v>
+            <v>-1.6405812833408793</v>
           </cell>
           <cell r="V4">
-            <v>-9.9184148512376709</v>
+            <v>-10.984911071800861</v>
           </cell>
           <cell r="W4">
-            <v>-12.705593749436956</v>
+            <v>-13.388690187578726</v>
           </cell>
           <cell r="X4">
-            <v>-40.873411995087977</v>
+            <v>-35.525488930310111</v>
           </cell>
           <cell r="Y4">
-            <v>-34.761499921056128</v>
+            <v>-39.345433976580011</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>13.336910565742114</v>
+            <v>13.978108189095101</v>
           </cell>
           <cell r="C2">
-            <v>8.9413256415391373</v>
+            <v>9.8256325731199308</v>
           </cell>
           <cell r="D2">
-            <v>10.242384489834956</v>
+            <v>8.8456956957665511</v>
           </cell>
           <cell r="E2">
-            <v>8.4574988272075</v>
+            <v>8.1322104107764428</v>
           </cell>
           <cell r="F2">
-            <v>9.080930163530148</v>
+            <v>9.4554015104798452</v>
           </cell>
           <cell r="G2">
-            <v>4.2580499246573051</v>
+            <v>4.3449489027115362</v>
           </cell>
           <cell r="H2">
-            <v>8.0357763648702143</v>
+            <v>7.884157942891532</v>
           </cell>
           <cell r="I2">
-            <v>15.878722799173934</v>
+            <v>13.984930171749518</v>
           </cell>
           <cell r="J2">
-            <v>21.827206659793994</v>
+            <v>19.708060382144094</v>
           </cell>
           <cell r="K2">
-            <v>26.188605949002458</v>
+            <v>25.181351874040825</v>
           </cell>
           <cell r="L2">
-            <v>30.239313658871183</v>
+            <v>29.964410807426898</v>
           </cell>
           <cell r="M2">
-            <v>27.639107422534902</v>
+            <v>30.203560688543298</v>
           </cell>
           <cell r="N2">
-            <v>26.797253781430513</v>
+            <v>27.690495574144865</v>
           </cell>
           <cell r="O2">
-            <v>32.1</v>
+            <v>29.099999999999998</v>
           </cell>
           <cell r="P2">
-            <v>27.999836969842818</v>
+            <v>28.893448788029289</v>
           </cell>
           <cell r="Q2">
-            <v>26.779807548770297</v>
+            <v>29.947311667442051</v>
           </cell>
           <cell r="R2">
-            <v>29.595784711809511</v>
+            <v>29.047714624553777</v>
           </cell>
           <cell r="S2">
-            <v>26.019751284171107</v>
+            <v>26.262926529817566</v>
           </cell>
           <cell r="T2">
-            <v>22.268617396090562</v>
+            <v>24.93116947605791</v>
           </cell>
           <cell r="U2">
-            <v>22.565753943520477</v>
+            <v>23.717067920230708</v>
           </cell>
           <cell r="V2">
-            <v>21.586078122884459</v>
+            <v>19.925610574970271</v>
           </cell>
           <cell r="W2">
-            <v>27.370424348263562</v>
+            <v>24.633381913437205</v>
           </cell>
           <cell r="X2">
-            <v>23.856035659250285</v>
+            <v>21.403546012037637</v>
           </cell>
           <cell r="Y2">
-            <v>17.762984368053687</v>
+            <v>16.507015776373123</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-24.896123016111485</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
-            <v>-30.781349428745372</v>
+            <v>-29.512015431683707</v>
           </cell>
           <cell r="D3">
-            <v>-35.326038446595611</v>
+            <v>-31.478648120728764</v>
           </cell>
           <cell r="E3">
-            <v>-28.725915598138094</v>
+            <v>-34.471098717765713</v>
           </cell>
           <cell r="F3">
-            <v>-35.237806910500161</v>
+            <v>-36.948380061495321</v>
           </cell>
           <cell r="G3">
-            <v>-36.75</v>
+            <v>-38.5</v>
           </cell>
           <cell r="H3">
-            <v>-27.300743982407869</v>
+            <v>-31.547526379671314</v>
           </cell>
           <cell r="I3">
-            <v>-5.191245161007787</v>
+            <v>-4.2945755422882606</v>
           </cell>
           <cell r="J3">
-            <v>14.845676978504764</v>
+            <v>16.209055476530711</v>
           </cell>
           <cell r="K3">
-            <v>23.156164307716256</v>
+            <v>21.612420020535172</v>
           </cell>
           <cell r="L3">
-            <v>18.549535649713068</v>
+            <v>16.122493602087058</v>
           </cell>
           <cell r="M3">
-            <v>23.553888423387505</v>
+            <v>20.782842726518385</v>
           </cell>
           <cell r="N3">
-            <v>21.107112137831415</v>
+            <v>22.541576069528698</v>
           </cell>
           <cell r="O3">
             <v>20.687154579883323</v>
           </cell>
           <cell r="P3">
-            <v>10.238146748818831</v>
+            <v>11.76297711566419</v>
           </cell>
           <cell r="Q3">
-            <v>2.6158628293251058</v>
+            <v>3.0013584041730166</v>
           </cell>
           <cell r="R3">
-            <v>5.5129760312225526</v>
+            <v>6.4318053697596449</v>
           </cell>
           <cell r="S3">
-            <v>8.035631717558914</v>
+            <v>6.8451677594020381</v>
           </cell>
           <cell r="T3">
-            <v>4.5722118542316208</v>
+            <v>4.3929094285754795</v>
           </cell>
           <cell r="U3">
-            <v>-0.77767144276712052</v>
+            <v>-0.88637820358402986</v>
           </cell>
           <cell r="V3">
-            <v>-3.3949898580543154</v>
+            <v>-3.4929222578058825</v>
           </cell>
           <cell r="W3">
-            <v>-2.2484255570763603</v>
+            <v>-2.339271034129951</v>
           </cell>
           <cell r="X3">
-            <v>-10.020445132126076</v>
+            <v>-10.565034541480752</v>
           </cell>
           <cell r="Y3">
-            <v>-15.480068236484041</v>
+            <v>-13.710917580885864</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-40.850845842293424</v>
+            <v>-35.933614398313658</v>
           </cell>
           <cell r="C4">
-            <v>-35.177117253086003</v>
+            <v>-34.420620107858348</v>
           </cell>
           <cell r="D4">
-            <v>-44.790677203305222</v>
+            <v>-43.034180058077567</v>
           </cell>
           <cell r="E4">
-            <v>-47.5</v>
+            <v>-47</v>
           </cell>
           <cell r="F4">
             <v>-52</v>
           </cell>
           <cell r="G4">
-            <v>-51</v>
+            <v>-53.5</v>
           </cell>
           <cell r="H4">
-            <v>-18.740569969078308</v>
+            <v>-19.73740879722077</v>
           </cell>
           <cell r="I4">
             <v>4.0085675792916655</v>
           </cell>
           <cell r="J4">
-            <v>12.336027511018447</v>
+            <v>14.042073868925256</v>
           </cell>
           <cell r="K4">
-            <v>14.042073868925256</v>
+            <v>12.467261846242048</v>
           </cell>
           <cell r="L4">
-            <v>12.479535602701542</v>
+            <v>11.399575790929292</v>
           </cell>
           <cell r="M4">
-            <v>16.363498785430291</v>
+            <v>17.375673968034231</v>
           </cell>
           <cell r="N4">
-            <v>20.577149412797144</v>
+            <v>21.720324380174759</v>
           </cell>
           <cell r="O4">
-            <v>25.922530721807071</v>
+            <v>25.215552611212335</v>
           </cell>
           <cell r="P4">
-            <v>11.895373640420202</v>
+            <v>12.820569368008439</v>
           </cell>
           <cell r="Q4">
-            <v>9.4886624320361186</v>
+            <v>10.004350607690254</v>
           </cell>
           <cell r="R4">
-            <v>-1.5066562806191748</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="S4">
-            <v>-1.6908031593615185</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="T4">
-            <v>-1.7745062860625838</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="U4">
-            <v>-1.7242844100419445</v>
+            <v>-1.556878156639814</v>
           </cell>
           <cell r="V4">
-            <v>-10.558312583575585</v>
+            <v>-9.8117652291813524</v>
           </cell>
           <cell r="W4">
-            <v>-15.02812163911898</v>
+            <v>-13.79854805046379</v>
           </cell>
           <cell r="X4">
-            <v>-37.05346694881807</v>
+            <v>-34.37950541642914</v>
           </cell>
           <cell r="Y4">
-            <v>-42.019395508968948</v>
+            <v>-36.289477939564087</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>12.439233893047932</v>
+            <v>12.823952467059724</v>
           </cell>
           <cell r="C2">
-            <v>9.4326072701951329</v>
+            <v>10.02214522458233</v>
           </cell>
           <cell r="D2">
             <v>9.3112586271226867</v>
           </cell>
           <cell r="E2">
-            <v>8.1322104107764428</v>
+            <v>8.3761767230997357</v>
           </cell>
           <cell r="F2">
-            <v>9.4554015104798452</v>
+            <v>9.6426371839546938</v>
           </cell>
           <cell r="G2">
-            <v>4.0408024795217292</v>
+            <v>4.1277014575759594</v>
           </cell>
           <cell r="H2">
-            <v>7.0502566220087735</v>
+            <v>8.2632039978382394</v>
           </cell>
           <cell r="I2">
-            <v>15.004664663439588</v>
+            <v>13.547901103882348</v>
           </cell>
           <cell r="J2">
-            <v>22.886779798618946</v>
+            <v>20.979548148734033</v>
           </cell>
           <cell r="K2">
-            <v>25.684978911521643</v>
+            <v>23.166843724117559</v>
           </cell>
           <cell r="L2">
-            <v>27.490285144428345</v>
+            <v>27.76518799587263</v>
           </cell>
           <cell r="M2">
-            <v>31.05837844387943</v>
+            <v>27.354168170756193</v>
           </cell>
           <cell r="N2">
-            <v>29.179231895335448</v>
+            <v>28.881484631097329</v>
           </cell>
           <cell r="O2">
-            <v>30.6</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="P2">
-            <v>27.106225151656346</v>
+            <v>29.489190000153606</v>
           </cell>
           <cell r="Q2">
-            <v>27.643672308408043</v>
+            <v>27.067762468649544</v>
           </cell>
           <cell r="R2">
-            <v>28.499644537298046</v>
+            <v>29.869819755437376</v>
           </cell>
           <cell r="S2">
-            <v>26.262926529817566</v>
+            <v>23.587998827706517</v>
           </cell>
           <cell r="T2">
-            <v>25.173219665145851</v>
+            <v>22.994767963354381</v>
           </cell>
           <cell r="U2">
-            <v>22.105228352836384</v>
+            <v>24.407856306256846</v>
           </cell>
           <cell r="V2">
-            <v>18.680259914034629</v>
+            <v>19.30293524450245</v>
           </cell>
           <cell r="W2">
-            <v>22.393983557670186</v>
+            <v>24.633381913437205</v>
           </cell>
           <cell r="X2">
-            <v>23.187174846374106</v>
+            <v>24.078989263542343</v>
           </cell>
           <cell r="Y2">
-            <v>19.736649297837431</v>
+            <v>19.557225213311636</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-24.16388410387291</v>
+            <v>-24.896123016111485</v>
           </cell>
           <cell r="C3">
-            <v>-33.002683923603286</v>
+            <v>-29.512015431683707</v>
           </cell>
           <cell r="D3">
-            <v>-32.178173634522736</v>
+            <v>-35.675801203492597</v>
           </cell>
           <cell r="E3">
-            <v>-33.513568197827773</v>
+            <v>-30.002622958055341</v>
           </cell>
           <cell r="F3">
-            <v>-34.553577650102099</v>
+            <v>-35.922036170898224</v>
           </cell>
           <cell r="G3">
-            <v>-32.550000000000004</v>
+            <v>-33.949999999999996</v>
           </cell>
           <cell r="H3">
-            <v>-32.154209579280376</v>
+            <v>-27.300743982407869</v>
           </cell>
           <cell r="I3">
-            <v>-4.2945755422882606</v>
+            <v>-5.191245161007787</v>
           </cell>
           <cell r="J3">
-            <v>16.209055476530711</v>
+            <v>13.785271480040139</v>
           </cell>
           <cell r="K3">
-            <v>20.950815326028991</v>
+            <v>23.597234104053708</v>
           </cell>
           <cell r="L3">
-            <v>18.722895795972068</v>
+            <v>16.989294333382063</v>
           </cell>
           <cell r="M3">
-            <v>24.246649847604786</v>
+            <v>21.93744510021385</v>
           </cell>
           <cell r="N3">
-            <v>19.262801368506338</v>
+            <v>22.541576069528698</v>
           </cell>
           <cell r="O3">
-            <v>22.586995306607303</v>
+            <v>21.109341408044209</v>
           </cell>
           <cell r="P3">
-            <v>11.654060660889522</v>
+            <v>11.00056193224151</v>
           </cell>
           <cell r="Q3">
-            <v>2.8361460149524835</v>
+            <v>2.67093362573195</v>
           </cell>
           <cell r="R3">
-            <v>6.4930606589954509</v>
+            <v>6.615571237467063</v>
           </cell>
           <cell r="S3">
-            <v>7.4403997384804761</v>
+            <v>6.9939757541716467</v>
           </cell>
           <cell r="T3">
-            <v>4.1239557900912667</v>
+            <v>4.9308167055439052</v>
           </cell>
           <cell r="U3">
-            <v>-0.76930938424274298</v>
+            <v>-0.75258526719398766</v>
           </cell>
           <cell r="V3">
-            <v>-3.0685485255490925</v>
+            <v>-3.3297015915532708</v>
           </cell>
           <cell r="W3">
-            <v>-2.452827880446939</v>
+            <v>-2.15758008002277</v>
           </cell>
           <cell r="X3">
-            <v>-10.89178818709356</v>
+            <v>-11.763131242061046</v>
           </cell>
           <cell r="Y3">
-            <v>-13.563488359586016</v>
+            <v>-13.858346802185711</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.824857261382796</v>
+            <v>-39.337851551838106</v>
           </cell>
           <cell r="C4">
-            <v>-41.229094414907252</v>
+            <v>-34.04237153524452</v>
           </cell>
           <cell r="D4">
-            <v>-39.96031005392917</v>
+            <v>-43.473304344384481</v>
           </cell>
           <cell r="E4">
-            <v>-53</v>
+            <v>-47.5</v>
           </cell>
           <cell r="F4">
-            <v>-49.5</v>
+            <v>-51.5</v>
           </cell>
           <cell r="G4">
-            <v>-54</v>
+            <v>-46.5</v>
           </cell>
           <cell r="H4">
-            <v>-17.943098906564337</v>
+            <v>-21.531718687877206</v>
           </cell>
           <cell r="I4">
-            <v>3.8845912624063557</v>
+            <v>4.1738693351387441</v>
           </cell>
           <cell r="J4">
-            <v>14.435776874596057</v>
+            <v>13.779605198478054</v>
           </cell>
           <cell r="K4">
-            <v>14.435776874596057</v>
+            <v>12.72973051668925</v>
           </cell>
           <cell r="L4">
-            <v>12.239544533418819</v>
+            <v>12.719526671984264</v>
           </cell>
           <cell r="M4">
-            <v>18.219153286870842</v>
+            <v>17.713065695568876</v>
           </cell>
           <cell r="N4">
-            <v>20.577149412797144</v>
+            <v>25.149849282307621</v>
           </cell>
           <cell r="O4">
-            <v>21.445002688040397</v>
+            <v>22.151980798635133</v>
           </cell>
           <cell r="P4">
-            <v>12.688398549781548</v>
+            <v>11.895373640420202</v>
           </cell>
           <cell r="Q4">
-            <v>10.520038783344392</v>
+            <v>10.932589323867703</v>
           </cell>
           <cell r="R4">
+            <v>-1.5401375312996011</v>
+          </cell>
+          <cell r="S4">
+            <v>-1.6908031593615185</v>
+          </cell>
+          <cell r="T4">
+            <v>-1.7410250353821577</v>
+          </cell>
+          <cell r="U4">
             <v>-1.5903594073202401</v>
           </cell>
-          <cell r="S4">
-            <v>-1.6573219086810922</v>
-          </cell>
-          <cell r="T4">
-            <v>-1.7912469114027969</v>
-          </cell>
-          <cell r="U4">
-            <v>-1.7745062860625838</v>
-          </cell>
           <cell r="V4">
-            <v>-10.984911071800861</v>
+            <v>-9.9184148512376709</v>
           </cell>
           <cell r="W4">
-            <v>-14.481644488605562</v>
+            <v>-13.935167338092144</v>
           </cell>
           <cell r="X4">
-            <v>-37.817455958072053</v>
+            <v>-35.143494425683116</v>
           </cell>
           <cell r="Y4">
-            <v>-42.019395508968948</v>
+            <v>-38.581444967326028</v>
           </cell>
         </row>
       </sheetData>
@@ -4336,7 +4336,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4512,100 +4512,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>11.963609226654738</v>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <v>11.158366297937592</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>9.1396649052026593</v>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <v>8.8734610730122903</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>7.8999822560376689</v>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <v>6.9884458418794768</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>7.8793241403845427</v>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <v>7.953657386991944</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>8.1104881941776146</v>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <v>8.4484252022683481</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>11.014378228989415</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>16.763395276732407</v>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <v>17.414400918547258</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>19.471456423318877</v>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <v>17.881949776517335</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>23.644291032249654</v>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <v>24.103403479477805</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>26.542282560598832</v>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <v>24.014446126256086</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>22.942524919383469</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>25.535299792538485</v>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <v>25.034607639743612</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>27.152527034661034</v>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <v>25.644053310513197</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>25.382370492440732</v>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <v>24.138136644772068</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>22.673339534047543</v>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <v>24.244759105714202</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>21.115140034875928</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>22.01099874677239</v>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <v>21.570778771836942</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>28.2</v>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <v>31.5</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>28.458626644406625</v>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <v>27.260368680431611</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>31.075281512529919</v>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <v>28.751895978882821</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>27.419364547397883</v>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <v>26.075278049976415</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>24.624022482795553</v>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <v>24.863090662240168</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>18.913987606786282</v>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <v>20.863883236351882</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>16.006617781463547</v>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <v>15.857023222758279</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4613,100 +4613,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-30.841936169018453</v>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <v>-26.477511239440371</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-29.093654104210071</v>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <v>-29.726124845605938</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-32.359770603757894</v>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <v>-35.425433082008645</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-33.81494712551352</v>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <v>-35.167545010534063</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-38.5</v>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <v>-31.85</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-31.468154277785587</v>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <v>-28.975627206277821</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-22.505806147689473</v>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <v>-22.969843387848019</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-9.3593411012408989</v>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <v>-10.123368946240156</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-2.7562721272999569</v>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <v>-2.5593955467785316</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.43997235573885246</v>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <v>-0.39597512016496722</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-4.1868102467824473</v>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <v>-3.6338353085281616</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-2.8747933713166791</v>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <v>-3.0490232726085993</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-4.260456173894049</v>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <v>-4.3006491566666343</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-3.9734512973221641</v>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <v>-3.9329058759209174</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-10.044997104732362</v>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <v>-10.249997045645268</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-15.647306087377782</v>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <v>-15.794922182541724</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-14.046698551410445</v>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <v>-11.946257646526639</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>-4.6604435662929591</v>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <v>-4.5708196515565565</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-5.9970502911929593</v>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <v>-6.1274209496971528</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-7.8663431225270921</v>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <v>-8.7676949386499885</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-12.35663103208101</v>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <v>-13.257635378170251</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-16.540950472413176</v>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <v>-15.371388317798102</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-21.743612887160861</v>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <v>-24.433544378356018</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-23.717349291954775</v>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <v>-26.997408236586821</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4714,100 +4714,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>40.768060995319225</v>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <v>43.997214341483122</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <v>46</v>
+      </c>
+      <c r="E4" s="2">
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <v>54</v>
+      </c>
+      <c r="F4" s="2">
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>53</v>
       </c>
-      <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>50.5</v>
-      </c>
-      <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>53.5</v>
-      </c>
-      <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>50</v>
-      </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>40.917788571866048</v>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <v>40.512661952342619</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>18.74305072309977</v>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <v>20.029338517822307</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>2.3656603060698616</v>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <v>2.2000640846449713</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>-13.011346808666968</v>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <v>-14.11869547323437</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>-13.980276890163443</v>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <v>-14.395532639376221</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>-1.3112816679042683</v>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <v>-1.1324705313718679</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>-13.857445255937311</v>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <v>-15.012232360598755</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>-14.434838808268033</v>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <v>-14.001793644019992</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>-11.397033963030044</v>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <v>-10.279677692144746</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.431426442926075</v>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <v>-1.3063503459713692</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>9.0655870542339922</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <v>12.587753793464147</v>
+      </c>
+      <c r="S4" s="2">
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <v>11.072561207213832</v>
+      </c>
+      <c r="T4" s="2">
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>11.538774310675468</v>
       </c>
-      <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>11.655327586540876</v>
-      </c>
-      <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>10.956007931348424</v>
-      </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>12.004987414137103</v>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <v>11.072561207213832</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>11.655327586540876</v>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <v>11.189114483079241</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>21.874600384916963</v>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <v>25.520367115736459</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>39.753234673256202</v>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <v>33.808825750152472</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>34.180351307846458</v>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <v>37.895606884786282</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5659,100 +5659,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>12.308713338962088</v>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <v>12.078643930757188</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>8.252318797901431</v>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <v>8.8734610730122903</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>7.0644072097259922</v>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <v>8.2038277274237341</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>7.953657386991944</v>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <v>7.2103249209179303</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>7.8570354381095644</v>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <v>8.9553307144044503</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>9.9653898262285168</v>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <v>10.594782867885055</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>16.437892455824979</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>21.259651400970611</v>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <v>18.080638107367527</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>23.414734808635583</v>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <v>21.578285019722983</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>24.520013413124634</v>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <v>25.025580699993185</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>22.942524919383469</v>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <v>26.766279072614047</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>25.535299792538485</v>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <v>26.787030174525668</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>26.398290172587117</v>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <v>23.632755011649415</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>23.142749566637139</v>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <v>22.645056027569673</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>23.122316554523731</v>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <v>23.795782085238013</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>19.622150335440256</v>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <v>21.7549927632055</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>19.80989887209515</v>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <v>24.212098621449631</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>31.5</v>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <v>31.8</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>32.652529518319184</v>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <v>31.454271554344164</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>30.204011937412258</v>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <v>31.075281512529919</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>28.225816445850761</v>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <v>26.344095349460709</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>25.102158841684787</v>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <v>25.341227021129402</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>21.253862362265</v>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <v>18.134029354960045</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>13.762699400884545</v>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <v>13.613104842179277</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -5760,100 +5760,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-28.514242873243475</v>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <v>-29.969051183102838</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-34.153420035377039</v>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <v>-33.837184664679107</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-30.997253946757564</v>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <v>-35.425433082008645</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-32.462349240492976</v>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <v>-35.843843953044335</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-32.200000000000003</v>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <v>-34.65</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-28.975627206277821</v>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <v>-33.337549581416418</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-23.665899248085839</v>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <v>-21.577731667372383</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-9.2638376206159911</v>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <v>-9.1683341399910834</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-2.9250234820326075</v>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <v>-3.0375243851877078</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.45757124996840659</v>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <v>-0.43557263218146391</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-3.7523299381540793</v>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <v>-4.1078138270318343</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-2.9328700050806527</v>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <v>-2.7876784206707192</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-4.1398772255762921</v>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <v>-3.7379473978504389</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-3.8923604545196708</v>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <v>-4.3789055113346302</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-11.274996750209795</v>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <v>-9.8399971638194561</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-15.647306087377782</v>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <v>-14.909225611558075</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-13.915420994855207</v>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <v>-13.390310768634256</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>-4.5260076941883547</v>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <v>-4.6156316089247573</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-6.8444595714702245</v>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <v>-6.5185329252097377</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-7.948284196720083</v>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <v>-7.3746966773691494</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-11.584341592575948</v>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <v>-12.227916125496833</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-16.87511108801748</v>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <v>-17.710512627028248</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-23.536900547957632</v>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <v>-23.312739590358035</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-26.745096010076665</v>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <v>-26.240471557056349</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -5861,100 +5861,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>37.538907649155327</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <v>53.5</v>
+      </c>
+      <c r="D4" s="2">
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <v>53</v>
+      </c>
+      <c r="E4" s="2">
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <v>53</v>
+      </c>
+      <c r="F4" s="2">
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>55.000000000000007</v>
       </c>
-      <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>54</v>
-      </c>
-      <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>46</v>
-      </c>
-      <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>47</v>
-      </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>40.917788571866048</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>16.537985932146857</v>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <v>20.029338517822307</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.5549131305554504</v>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <v>2.3183470999484643</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>-13.841858307092519</v>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <v>-12.457672476383268</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>-14.67236980551807</v>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <v>-14.395532639376221</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>-1.2397572132913082</v>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <v>-1.2039949859848282</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>-15.156580748681435</v>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <v>-13.56874847977195</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>-13.28005170360659</v>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <v>-15.589625912929476</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>-12.290918979738283</v>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <v>-10.614884573410334</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.431426442926075</v>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <v>-1.2785556577592125</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>9.1495276751065298</v>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <v>8.0582996037635475</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>11.771880862406285</v>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <v>11.422221034810059</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>12.23809396586792</v>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <v>12.121540690002512</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>10.839454655483015</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>10.606348103752197</v>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <v>11.305667758944649</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>11.072561207213832</v>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <v>12.354647241733328</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>25.034264884960525</v>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <v>25.277316000348492</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <v>40.496285788644172</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>36.03797909631637</v>
-      </c>
-      <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>40.124760230950187</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -13884,100 +13884,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>71.292627745319081</v>
+        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>66.770148554590463</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>56.364225661085939</v>
+        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>54.089283535690193</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>53.152782974502742</v>
+        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>58.530787242306992</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>53.496859662342011</v>
+        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>49.330911934803893</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>56.118351043651252</v>
+        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>52.806130134273189</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>57.332699170325448</v>
+        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>47.220094126370171</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>61.989529171896677</v>
+        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>63.175553229048809</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>65.063983381759257</v>
+        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>72.635271406676381</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>71.658197154330836</v>
+        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>81.738594578312373</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>75.366935064367766</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>81.866438893113866</v>
+        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>79.28985901829374</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>88.461034651750794</v>
+        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>93.6957507130995</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>96.621981645895531</v>
+        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>85.057397082699111</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>99.663410086069646</v>
+        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>94.282193432024286</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>99.175200000000004</v>
+        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>94.675200000000004</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>87.664443091217379</v>
+        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>80.735877358205713</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>82.911042111672785</v>
+        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>79.445025300955749</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>80.3167739416091</v>
+        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>81.982217002033948</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>91.116147070457146</v>
+        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>91.953250019522216</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>84.897051685770549</v>
+        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>93.33690542577618</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>77.765411325855709</v>
+        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>92.832268821287116</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>80.236867484941882</v>
+        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>79.369813335260829</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.223834720380381</v>
+        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>78.376710633971172</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>80.555931376022528</v>
+        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>84.341442607868274</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -13985,100 +13985,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>74.590475867915842</v>
+        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>83.341776119963853</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>72.796444971374342</v>
+        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>66.833234041855178</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>66.0359104963037</v>
+        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>62.129877741009508</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>74.165444425943164</v>
+        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>65.074650488903927</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>72.377558395729892</v>
+        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>60.688473266282841</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>59.832297411940374</v>
+        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>64.981501979068767</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>65.562047547882614</v>
+        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>69.036438787649402</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>87.02829314142538</v>
+        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>81.253361429351514</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>87.799205035992415</v>
+        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>86.858950740503843</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>88.710678503647131</v>
+        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>107.12446154374231</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>86.64577732205808</v>
+        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>89.523794238084349</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>106.91997651251441</v>
+        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>105.9335087699676</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>110.60774603174605</v>
+        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>108.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>90.436416514102419</v>
+        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>102.21443899529227</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>92.68016650494441</v>
+        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>87.021269607731355</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>94.409359504407902</v>
+        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>100.74568490762009</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>86.310367178343824</v>
+        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>98.283132278030394</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>98.070900414865719</v>
+        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>93.420495404077755</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>85.784434919710492</v>
+        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>93.256665723745741</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>101.59620644906158</v>
+        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>94.247675417268354</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>92.052443221631279</v>
+        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>92.973769487939251</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>100.30638892020609</v>
+        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>97.427931730658017</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>94.491579267665941</v>
+        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>98.069006602455872</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>92.224304008430281</v>
+        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>82.386080937165772</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -14086,100 +14086,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>91.248263297810908</v>
+        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>79.602082159690084</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>84.320989927831505</v>
+        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>82.806104523383055</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>70.604742465583925</v>
+        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>77.088058556723382</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>70.810376056665916</v>
+        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>74.978715469105737</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>70.191963358253219</v>
+        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>68.80251688743995</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>73.145073914191599</v>
+        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>79.849163623355622</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>87.843753005145729</v>
+        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>89.710425406793803</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>118.80434335885711</v>
+        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>116.5072764358773</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>108.32826729367611</v>
+        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>119.11664957859927</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>109.79471482536634</v>
+        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>113.31557864205762</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>116.51490981843439</v>
+        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>128.24554845649976</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>127.97682539682539</v>
+        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>119.22682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>117.00968253968254</v>
+        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>123.25968253968254</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>125.14968253968254</v>
+        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>121.39968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>132.09417222406589</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>106.00086707606256</v>
+        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>122.86091476114177</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>95.05985414762803</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>101.14947567434808</v>
+        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>112.66721446170369</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>114.06801545334412</v>
+        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>108.83267964090975</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>109.58736585101566</v>
+        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>94.928425576199459</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>105.75814482011579</v>
+        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>101.5698761701683</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>101.168288868581</v>
+        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>104.30949035604162</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>107.94733685069568</v>
+        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>102.90015872066375</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>89.523796668442714</v>
+        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>107.46903382388071</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -15033,100 +15033,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>68.062285466227209</v>
+        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.708353922045575</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>59.207903317830635</v>
+        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>55.226754598388069</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>53.69058340128317</v>
+        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>61.219789376209114</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>49.851655400746161</v>
+        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>59.225037787706938</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>59.430571953029322</v>
+        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>56.670387861880926</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>54.804547909336627</v>
+        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>48.231354630765701</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>56.059408886136048</v>
+        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>64.361577286200927</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>66.440581204471457</v>
+        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>72.635271406676381</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>73.209027527251067</v>
+        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>80.96317939185225</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>89.514792322557867</v>
+        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>77.863615756989546</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>91.313898434121043</v>
+        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>85.301878726207377</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>79.736507882836293</v>
+        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>81.48141323661919</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>84.16781365476092</v>
+        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>80.609479943008182</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>81.726021239251793</v>
+        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>98.76654064372876</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>92.875199999999992</v>
+        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>85.67519999999999</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>92.860867390976139</v>
+        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>87.664443091217379</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>82.044537908993519</v>
+        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>80.311529503635001</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>76.153166290546977</v>
+        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>83.647660062458812</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>78.559602834480955</v>
+        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>86.093529376066655</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>83.209080937769428</v>
+        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>91.64893467777506</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>86.135887712206483</v>
+        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>89.484078266746792</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>79.369813335260829</v>
+        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>88.040354832071287</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>90.236447843700034</v>
+        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>93.624944189336844</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>71.470704419592721</v>
+        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>72.227806665961864</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -15134,100 +15134,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>79.69540101494384</v>
+        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>81.153951056951854</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>75.446760940049529</v>
+        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>64.182918073180005</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>63.431888659440908</v>
+        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>70.592948710813602</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>71.568074729646241</v>
+        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>67.022677761126616</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>62.636654121190688</v>
+        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>67.182409449308977</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.912453691741916</v>
+        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>63.050550266395611</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>66.256925795835969</v>
+        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>76.680099515136348</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>78.77839069560558</v>
+        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>86.203302896843397</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>87.799205035992415</v>
+        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>90.619967922458116</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>94.525557358414019</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>87.605116294066832</v>
+        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>92.401811154110618</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>100.01470231468682</v>
+        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>108.892911997608</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>109.60774603174605</v>
+        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>105.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>93.380922134399881</v>
+        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>99.269933374994807</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>86.078120124862508</v>
+        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>102.11166133363284</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>96.219738191039951</v>
+        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>92.598980817775839</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>99.204114208775522</v>
+        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>100.12509613952064</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>92.490414401920162</v>
+        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>103.65138642781127</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>97.926809976267776</v>
+        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>96.058752275258954</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>88.736277143423422</v>
+        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>85.980578006500977</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>93.895095754247222</v>
+        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>101.26570588471094</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>99.346903190356727</v>
+        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>87.833074432164452</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>82.86494042959869</v>
+        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>93.597222433968454</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.106673246744279</v>
+        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>93.044155931035647</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -15235,100 +15235,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>82.097692403573106</v>
+        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>93.743873541693929</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>79.776333714486142</v>
+        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>77.504005607813454</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>71.32511092015497</v>
+        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>74.926953193010235</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>77.757608410732288</v>
+        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>76.368161939919005</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.413070416626681</v>
+        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>65.328900710406771</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>70.910377344470263</v>
+        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>70.165478487896493</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>89.710425406793803</v>
+        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>102.77713221833027</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>108.46754220544796</v>
+        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>103.87340835948834</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>129.90503186352245</v>
+        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>132.30245014906095</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>121.53092754767063</v>
+        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>118.01006373097934</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>105.95733504417557</v>
+        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>111.82265436320823</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>136.7268253968254</v>
+        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>116.72682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>128.25968253968253</v>
+        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>135.75968253968253</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>118.89968253968254</v>
+        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>121.39968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>130.90689187051379</v>
+        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>132.09417222406589</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>114.9928925081048</v>
+        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>122.86091476114177</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>100.29518996006237</v>
+        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>110.76586158493112</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>100.10240851186121</v>
+        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>104.2906771618087</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>101.50320950350164</v>
+        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>105.69147815344913</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>114.82270166345003</v>
+        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>102.25789571360755</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>106.80521198260266</v>
+        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>103.66401049514204</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>112.6860276559366</v>
+        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>100.12122170609412</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>93.8152380866063</v>
+        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>100.88128746865098</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>90.468282834518405</v>
+        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>103.69108915957797</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -16182,100 +16182,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.000490833682321</v>
+        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>71.938696201137446</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>62.05158097457533</v>
+        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>60.914109911877453</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>57.992986815526564</v>
+        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>60.144188522648264</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>59.225037787706938</v>
+        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>49.851655400746161</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>58.878535134799641</v>
+        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>52.254093316043509</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>53.793287404941097</v>
+        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>47.725724378567932</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>63.768565257624871</v>
+        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>58.431457000440297</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>72.635271406676381</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>74.759857900171298</v>
+        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>80.187764205392128</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>91.179246117639053</v>
+        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>79.528069552070718</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>88.737318559300903</v>
+        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>79.28985901829374</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>85.84367662107644</v>
+        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>92.823298036208044</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>80.609479943008182</v>
+        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>85.946980510637289</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>92.488454547342499</v>
+        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>94.282193432024286</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>96.475200000000001</v>
+        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>82.075199999999995</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>80.735877358205713</v>
+        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>79.869806641579245</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>95.908605151861735</v>
+        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>80.311529503635001</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>86.978546183308524</v>
+        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>80.3167739416091</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>83.582220528871417</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>89.960963929773925</v>
+        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>82.365095563768861</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>90.321125905381876</v>
+        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>84.461792434936328</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>90.641517281114417</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>88.542199670881615</v>
+        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>94.472068275746054</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>75.256215651438467</v>
+        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>79.79882912965337</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -16283,100 +16283,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>68.756275699883844</v>
+        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>81.883226077955854</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>70.808707994867959</v>
+        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>64.182918073180005</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>74.498981466107793</v>
+        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>73.847976006892097</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>67.67202018520085</v>
+        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>72.866759577794696</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>72.377558395729892</v>
+        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>69.779983922519435</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>64.337851408177713</v>
+        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>63.050550266395611</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>78.764734258996427</v>
+        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>70.426195283556112</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>78.77839069560558</v>
+        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>75.478429717277663</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>101.90301946832095</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>103.24787564056437</v>
+        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>91.618117931030568</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>91.442472182101852</v>
+        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>101.03586190218945</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>103.96057328487402</v>
+        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>105.9335087699676</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>105.60774603174603</v>
+        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>103.60774603174603</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>103.19594086872476</v>
+        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>91.417918387534911</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>104.94110978223937</v>
+        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>88.907568573469035</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>92.598980817775839</v>
+        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>89.883412787827766</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>96.441168416540151</v>
+        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>93.678222624304794</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>101.79122442349609</v>
+        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>93.420495404077755</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>91.388608022736918</v>
+        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>92.322636873241336</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>93.329109038294192</v>
+        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>85.980578006500977</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>98.501727085787039</v>
+        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>97.580400819479081</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>87.833074432164452</v>
+        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>86.873588702315089</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>83.759297263296176</v>
+        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>85.548010930691134</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.926525169349645</v>
+        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>80.746377091955026</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -16384,99 +16384,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>94.575743622988284</v>
+        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>81.265822322278765</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>72.201906692243881</v>
+        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>75.989120203365005</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>74.206584738439176</v>
+        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>82.851006193291795</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>68.726206350446006</v>
+        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>75.673438704512378</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.413070416626681</v>
+        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>72.276133064473129</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>80.594062479929406</v>
+        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>70.910377344470263</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>104.64380461997833</v>
+        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>87.843753005145729</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>110.76460912842776</v>
+        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>113.06167605140759</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>111.92439472198383</v>
+        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>113.12310386475306</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>114.48919991428805</v>
+        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>122.70454881990106</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>109.47652663559518</v>
+        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>107.1303989079821</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>132.9768253968254</v>
+        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>112.97682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>114.50968253968254</v>
+        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>128.25968253968253</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>121.39968253968254</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>127.34505080985744</v>
+        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>130.90689187051379</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>119.48890522412593</v>
+        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>116.11689568711009</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>105.53052577249674</v>
+        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>98.20105563508865</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>109.52601297424307</v>
+        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>96.961207024400608</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>104.64441099096226</v>
+        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>109.87974680339661</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>107.49323152604192</v>
+        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>100.1637613886338</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>99.475741845194548</v>
+        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>104.71107765762892</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>94.885885893659776</v>
+        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>95.932953056146644</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>95.834109338619072</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>95.190713664896819</v>
       </c>
     </row>
@@ -17331,100 +17331,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>12.56747341771853</v>
+        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <v>13.849868664424504</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>10.808195830431925</v>
+        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <v>9.0395819672703368</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>10.242384489834956</v>
+        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <v>8.8456956957665511</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>8.0508883066686785</v>
+        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <v>7.4816335779143275</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>8.7064588165804526</v>
+        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <v>9.5490193472172695</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
         <v>4.5187468588199975</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>8.0357763648702143</v>
+        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <v>7.5809210989341649</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>14.276282883660967</v>
+        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <v>14.713311951528139</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>19.072316498849123</v>
+        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <v>20.343804265439061</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>26.944046505223685</v>
+        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <v>27.699487061444909</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>26.115770887206928</v>
+        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <v>25.565965184318362</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>26.499350415420064</v>
+        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <v>29.633682184985876</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>31.858957273478502</v>
+        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <v>26.797253781430513</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>31.200000000000003</v>
+        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <v>28.799999999999997</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>28.893448788029289</v>
+        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <v>28.297707575904976</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>28.795491987925047</v>
+        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <v>28.507537068045796</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>28.499644537298046</v>
+        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <v>27.951574450042312</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>24.803875055938811</v>
+        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <v>21.885772108181303</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>22.268617396090562</v>
+        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <v>25.657320043321736</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
         <v>22.796016738862523</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>19.095376801013177</v>
+        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <v>21.586078122884459</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>27.370424348263562</v>
+        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <v>25.131025992496539</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>22.51831403349793</v>
+        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <v>22.741267637789988</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>16.507015776373123</v>
+        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <v>19.37780112878584</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -17432,100 +17432,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>-23.187565554221479</v>
+        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <v>-22.211247004570051</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-30.14668243021454</v>
+        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <v>-31.733349926541621</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-37.424614987977527</v>
+        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <v>-32.178173634522736</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-33.19439135784846</v>
+        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <v>-30.960153477993277</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-32.158775238708884</v>
+        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <v>-31.132431348111798</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-32.200000000000003</v>
+        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <v>-37.450000000000003</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-27.604085582212402</v>
+        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <v>-29.727476780844121</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>-4.483348093597634</v>
+        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <v>-4.6249275070796649</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
         <v>16.512028476092034</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>22.27402471504135</v>
+        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <v>24.258838798559889</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>15.775773309569058</v>
+        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <v>18.376175503454068</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>23.784808898126599</v>
+        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <v>21.93744510021385</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>18.852954530878545</v>
+        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <v>20.287418462575825</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>23.009182134768189</v>
+        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <v>19.842780923561556</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>10.564896113142836</v>
+        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <v>10.3470632035935</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>2.7810752185456389</v>
+        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <v>2.5883274311216837</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>6.4318053697596449</v>
+        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <v>6.1255289235806138</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>7.1427837489412571</v>
+        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <v>7.3659957410956709</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>4.7066886734737281</v>
+        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <v>4.4377350349895144</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>-0.77767144276712052</v>
+        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <v>-0.78603350129149818</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>-3.0032602590480484</v>
+        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <v>-3.3297015915532708</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>-2.1802914492861678</v>
+        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <v>-2.452827880446939</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>-9.9115272502551406</v>
+        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <v>-11.000706068964496</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>-14.890351351284648</v>
+        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <v>-15.774926679083737</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -17533,100 +17533,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-35.555365825699823</v>
+        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <v>-40.094348697065769</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-34.798868680472175</v>
+        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <v>-39.716100124451934</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-47.864547207453626</v>
+        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <v>-46.108050062225963</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-48.5</v>
+        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <v>-52.5</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-48</v>
+        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <v>-51</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-51.5</v>
+        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <v>-53</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-21.531718687877206</v>
+        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <v>-21.13298315662022</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>3.7606149455210467</v>
+        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <v>3.9259167013681258</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>12.598496181465649</v>
+        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <v>11.942324505347646</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>12.72973051668925</v>
+        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <v>12.073558840571247</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>10.799598117722487</v>
+        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <v>11.519571325570652</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>16.026107057895647</v>
+        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <v>15.351323602826358</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>25.149849282307621</v>
+        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <v>20.577149412797144</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>25.686871351608826</v>
+        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <v>24.979893241014086</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>13.217081822689112</v>
+        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <v>13.481423459142894</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>9.9012129725594278</v>
+        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <v>9.6949377022977714</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>-1.824728162083223</v>
+        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <v>-1.7242844100419445</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>-1.5401375312996011</v>
+        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <v>-1.7912469114027969</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>-1.6238406580006661</v>
+        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <v>-1.8079875367430098</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>-1.7577656607223706</v>
+        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <v>-1.6405812833408793</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>-9.9184148512376709</v>
+        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <v>-10.984911071800861</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>-12.705593749436956</v>
+        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <v>-13.388690187578726</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-40.873411995087977</v>
+        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <v>-35.525488930310111</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-34.761499921056128</v>
+        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <v>-39.345433976580011</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -18480,100 +18480,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>13.336910565742114</v>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <v>13.978108189095101</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>8.9413256415391373</v>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <v>9.8256325731199308</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>10.242384489834956</v>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <v>8.8456956957665511</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>8.4574988272075</v>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <v>8.1322104107764428</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>9.080930163530148</v>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <v>9.4554015104798452</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>4.2580499246573051</v>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <v>4.3449489027115362</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>8.0357763648702143</v>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <v>7.884157942891532</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>15.878722799173934</v>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <v>13.984930171749518</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>21.827206659793994</v>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <v>19.708060382144094</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>26.188605949002458</v>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <v>25.181351874040825</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>30.239313658871183</v>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <v>29.964410807426898</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>27.639107422534902</v>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <v>30.203560688543298</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>26.797253781430513</v>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <v>27.690495574144865</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>32.1</v>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <v>29.099999999999998</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>27.999836969842818</v>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <v>28.893448788029289</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>26.779807548770297</v>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <v>29.947311667442051</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>29.595784711809511</v>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <v>29.047714624553777</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>26.019751284171107</v>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <v>26.262926529817566</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>22.268617396090562</v>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <v>24.93116947605791</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>22.565753943520477</v>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <v>23.717067920230708</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>21.586078122884459</v>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <v>19.925610574970271</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>27.370424348263562</v>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <v>24.633381913437205</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>23.856035659250285</v>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <v>21.403546012037637</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>17.762984368053687</v>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <v>16.507015776373123</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -18581,100 +18581,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>-24.896123016111485</v>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <v>-23.919804466460054</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-30.781349428745372</v>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <v>-29.512015431683707</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-35.326038446595611</v>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <v>-31.478648120728764</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-28.725915598138094</v>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <v>-34.471098717765713</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-35.237806910500161</v>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <v>-36.948380061495321</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-36.75</v>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <v>-38.5</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-27.300743982407869</v>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <v>-31.547526379671314</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>-5.191245161007787</v>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <v>-4.2945755422882606</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>14.845676978504764</v>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <v>16.209055476530711</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>23.156164307716256</v>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <v>21.612420020535172</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>18.549535649713068</v>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <v>16.122493602087058</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>23.553888423387505</v>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <v>20.782842726518385</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>21.107112137831415</v>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <v>22.541576069528698</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>20.687154579883323</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>10.238146748818831</v>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <v>11.76297711566419</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>2.6158628293251058</v>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <v>3.0013584041730166</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>5.5129760312225526</v>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <v>6.4318053697596449</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>8.035631717558914</v>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <v>6.8451677594020381</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>4.5722118542316208</v>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <v>4.3929094285754795</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>-0.77767144276712052</v>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <v>-0.88637820358402986</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>-3.3949898580543154</v>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <v>-3.4929222578058825</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>-2.2484255570763603</v>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <v>-2.339271034129951</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>-10.020445132126076</v>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <v>-10.565034541480752</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>-15.480068236484041</v>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <v>-13.710917580885864</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -18682,100 +18682,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-40.850845842293424</v>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <v>-35.933614398313658</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-35.177117253086003</v>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <v>-34.420620107858348</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-44.790677203305222</v>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <v>-43.034180058077567</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-47.5</v>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <v>-47</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-52</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-51</v>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <v>-53.5</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-18.740569969078308</v>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <v>-19.73740879722077</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>4.0085675792916655</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>12.336027511018447</v>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <v>14.042073868925256</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>14.042073868925256</v>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <v>12.467261846242048</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>12.479535602701542</v>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <v>11.399575790929292</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>16.363498785430291</v>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <v>17.375673968034231</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>20.577149412797144</v>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <v>21.720324380174759</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>25.922530721807071</v>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <v>25.215552611212335</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>11.895373640420202</v>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <v>12.820569368008439</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>9.4886624320361186</v>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <v>10.004350607690254</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>-1.5066562806191748</v>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <v>-1.7912469114027969</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>-1.6908031593615185</v>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <v>-1.7912469114027969</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>-1.7745062860625838</v>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <v>-1.7912469114027969</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>-1.7242844100419445</v>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <v>-1.556878156639814</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>-10.558312583575585</v>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <v>-9.8117652291813524</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>-15.02812163911898</v>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <v>-13.79854805046379</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-37.05346694881807</v>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <v>-34.37950541642914</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-42.019395508968948</v>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <v>-36.289477939564087</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -19629,100 +19629,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>12.439233893047932</v>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <v>12.823952467059724</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>9.4326072701951329</v>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <v>10.02214522458233</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>9.3112586271226867</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>8.1322104107764428</v>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <v>8.3761767230997357</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>9.4554015104798452</v>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <v>9.6426371839546938</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>4.0408024795217292</v>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <v>4.1277014575759594</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>7.0502566220087735</v>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <v>8.2632039978382394</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>15.004664663439588</v>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <v>13.547901103882348</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>22.886779798618946</v>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <v>20.979548148734033</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>25.684978911521643</v>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <v>23.166843724117559</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>27.490285144428345</v>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <v>27.76518799587263</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>31.05837844387943</v>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <v>27.354168170756193</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>29.179231895335448</v>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <v>28.881484631097329</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>30.6</v>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <v>32.400000000000006</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>27.106225151656346</v>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <v>29.489190000153606</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>27.643672308408043</v>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <v>27.067762468649544</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>28.499644537298046</v>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <v>29.869819755437376</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>26.262926529817566</v>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <v>23.587998827706517</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>25.173219665145851</v>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <v>22.994767963354381</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>22.105228352836384</v>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <v>24.407856306256846</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>18.680259914034629</v>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <v>19.30293524450245</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>22.393983557670186</v>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <v>24.633381913437205</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>23.187174846374106</v>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <v>24.078989263542343</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>19.736649297837431</v>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <v>19.557225213311636</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -19730,100 +19730,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>-24.16388410387291</v>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <v>-24.896123016111485</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-33.002683923603286</v>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <v>-29.512015431683707</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-32.178173634522736</v>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <v>-35.675801203492597</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-33.513568197827773</v>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <v>-30.002622958055341</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-34.553577650102099</v>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <v>-35.922036170898224</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-32.550000000000004</v>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <v>-33.949999999999996</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-32.154209579280376</v>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <v>-27.300743982407869</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>-4.2945755422882606</v>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <v>-5.191245161007787</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>16.209055476530711</v>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <v>13.785271480040139</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>20.950815326028991</v>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <v>23.597234104053708</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>18.722895795972068</v>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <v>16.989294333382063</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>24.246649847604786</v>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <v>21.93744510021385</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>19.262801368506338</v>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <v>22.541576069528698</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>22.586995306607303</v>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <v>21.109341408044209</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>11.654060660889522</v>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <v>11.00056193224151</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>2.8361460149524835</v>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <v>2.67093362573195</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>6.4930606589954509</v>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <v>6.615571237467063</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>7.4403997384804761</v>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <v>6.9939757541716467</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>4.1239557900912667</v>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <v>4.9308167055439052</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>-0.76930938424274298</v>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <v>-0.75258526719398766</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>-3.0685485255490925</v>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <v>-3.3297015915532708</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>-2.452827880446939</v>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <v>-2.15758008002277</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>-10.89178818709356</v>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <v>-11.763131242061046</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>-13.563488359586016</v>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <v>-13.858346802185711</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -19831,100 +19831,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-37.824857261382796</v>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <v>-39.337851551838106</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-41.229094414907252</v>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <v>-34.04237153524452</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-39.96031005392917</v>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <v>-43.473304344384481</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-53</v>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <v>-47.5</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-49.5</v>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <v>-51.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-54</v>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <v>-46.5</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-17.943098906564337</v>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <v>-21.531718687877206</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>3.8845912624063557</v>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <v>4.1738693351387441</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>14.435776874596057</v>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <v>13.779605198478054</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>14.435776874596057</v>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <v>12.72973051668925</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>12.239544533418819</v>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <v>12.719526671984264</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>18.219153286870842</v>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <v>17.713065695568876</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>20.577149412797144</v>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <v>25.149849282307621</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>21.445002688040397</v>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <v>22.151980798635133</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>12.688398549781548</v>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <v>11.895373640420202</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>10.520038783344392</v>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <v>10.932589323867703</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <v>-1.5401375312996011</v>
+      </c>
+      <c r="S4" s="2">
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <v>-1.6908031593615185</v>
+      </c>
+      <c r="T4" s="2">
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <v>-1.7410250353821577</v>
+      </c>
+      <c r="U4" s="2">
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>-1.5903594073202401</v>
       </c>
-      <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>-1.6573219086810922</v>
-      </c>
-      <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>-1.7912469114027969</v>
-      </c>
-      <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>-1.7745062860625838</v>
-      </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>-10.984911071800861</v>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <v>-9.9184148512376709</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>-14.481644488605562</v>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <v>-13.935167338092144</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-37.817455958072053</v>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <v>-35.143494425683116</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-42.019395508968948</v>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <v>-38.581444967326028</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -28319,100 +28319,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>64.453468148110701</v>
+        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.009858343468736</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>49.840220389630979</v>
+        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>55.576981294395402</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>49.734628946481976</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>49.524494444879515</v>
+        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>55.346411283421318</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>56.355311718740651</v>
+        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>57.878766920467697</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>59.284181753925346</v>
+        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>55.994421163905116</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>71.564569206864377</v>
+        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>62.302001884044373</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>77.28639932667015</v>
+        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>66.931445571156857</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>80.952643666908131</v>
+        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>84.0840084695065</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>80.604322672703304</v>
+        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>85.461159544642044</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>80.328897320408643</v>
+        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>83.596413829113359</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>83.604269431617936</v>
+        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>75.520681553374871</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>80.120398639465989</v>
+        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>73.690222703232095</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>85.237808218747489</v>
+        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>75.79144895255952</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>76.526936090892264</v>
+        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>77.289074839285121</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>79.632962870049838</v>
+        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>70.652895276738022</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>81.198777932212138</v>
+        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>79.648669565383884</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>96.852581103173662</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>98.22984254285015</v>
+        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>97.335156176139861</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>98.598514285714288</v>
+        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>92.298514285714276</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>80.221573332310058</v>
+        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>84.587757110380466</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>76.299974467771676</v>
+        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>87.96644966061568</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>82.681294600951801</v>
+        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>85.720756930906859</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>74.4409937675929</v>
+        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>76.455944994721676</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -28420,100 +28420,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>61.039403795037444</v>
+        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>69.313386650110814</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>63.778683564865617</v>
+        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>59.623083276644991</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>56.326681400934881</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>61.941784532949491</v>
+        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>53.005330683112255</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>60.465392656857404</v>
+        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>59.900127171053427</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>65.281325481015799</v>
+        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>59.067837299714846</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>83.884389019490584</v>
+        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>74.245921688038521</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>89.648749088655748</v>
+        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>82.509194558388685</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>106.26315537839589</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>103.81161712968172</v>
+        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>98.892890085713503</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>92.196221824904015</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>88.897506790063701</v>
+        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>102.36733994893814</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>94.819094223460823</v>
+        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>90.973733072778586</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>102.30345240929285</v>
+        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>91.901389136834752</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>82.343952524022811</v>
+        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>85.910954100170329</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>82.597790227381395</v>
+        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>88.66120013793109</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>96.282145972186939</v>
+        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>99.890564777965793</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>94.342476190476191</v>
+        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>108.34247619047619</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>99.428936089564431</v>
+        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>105.40718618445867</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>90.322580021984407</v>
+        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>106.91027001569478</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>96.737758455636865</v>
+        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>99.614656923591681</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>97.591269033630326</v>
+        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>98.490078256016972</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>88.864817738312112</v>
+        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>84.147072701503745</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>69.203424961316315</v>
+        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>73.483617252727399</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -28521,100 +28521,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>69.034939674580968</v>
+        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>73.282746299320721</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>64.557033184828867</v>
+        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>75.083114870527183</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>61.954809085497807</v>
+        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>67.908312442132669</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>62.332900547038612</v>
+        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>61.052233626933905</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.251932949677837</v>
+        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>62.785231326102803</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.91448416800197</v>
+        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>75.553618573914818</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>99.92922482291678</v>
+        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>92.999291530576926</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>120.68968091957659</v>
+        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>101.94534303332837</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>112.86703329776749</v>
+        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>128.58201883640407</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>113.12986087627966</v>
+        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>124.01520839579673</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>105.49037581941539</v>
+        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>112.34529680970851</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>122.97682539682539</v>
+        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>121.72682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>124.5396003721708</v>
+        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>123.36074401186139</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>101.82411921034115</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>113.85037787946837</v>
+        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>119.20071333404624</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>92.457691583406927</v>
+        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>107.45589820233586</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>100.87566212290331</v>
+        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>105.878254752858</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>100.18556732353491</v>
+        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.30400758343684</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>106.90677489985833</v>
+        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>109.02521515976026</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>111.43503785982367</v>
+        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>110.35986643353782</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>105.66539523846286</v>
+        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>107.75767457180355</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>98.963757146305014</v>
+        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>92.346474346927636</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.720864282975654</v>
+        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>86.117100327720991</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>78.623288093362902</v>
+        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>77.849600129055617</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -29466,100 +29466,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>65.046199847337036</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>58.184599887470135</v>
+        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>54.012410138550557</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>47.770667026092852</v>
+        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>50.225619426579257</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>49.524494444879515</v>
+        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>46.128376289063468</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>49.753672511256802</v>
+        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>54.324038116437926</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>51.608073710544822</v>
+        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>56.542714595575156</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>61.640389932414365</v>
+        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>64.286837738934366</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>78.026038880635383</v>
+        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>77.28639932667015</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>80.952643666908131</v>
+        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>76.255596463010562</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>78.985377048723734</v>
+        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>87.889577980611406</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>74.610743430175376</v>
+        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>84.413292956289553</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>86.029345795090862</v>
+        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>85.220987007266558</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>80.92417063149523</v>
+        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>84.943030591641417</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>81.301825191169172</v>
+        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>73.429859136012524</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>77.289074839285121</v>
+        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>74.240519845713706</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>75.891268039503245</v>
+        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>70.652895276738022</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>77.323507015141502</v>
+        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>74.223290281484992</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>93.342696606595865</v>
+        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>96.852581103173662</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>93.756410709298692</v>
+        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>96.440469809429572</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>92.298514285714276</v>
+        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>93.198514285714282</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>95.939834933363542</v>
+        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>87.207467377222713</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>86.299810347352249</v>
+        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>89.633088973879111</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>75.082638776064158</v>
+        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>71.283310863620343</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>68.396140086206572</v>
+        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>71.754392131421199</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -29567,100 +29567,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>69.313386650110814</v>
+        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>61.039403795037444</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>57.248454540518921</v>
+        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>64.372340748897145</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>56.889189826709135</v>
+        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>59.139223529806145</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>56.91502924241604</v>
+        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>62.500312898564324</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>57.073799742033529</v>
+        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>60.465392656857404</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>64.038627844755609</v>
+        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>64.659976662885711</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>71.280239432207125</v>
+        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>77.953024507827777</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>89.648749088655748</v>
+        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>86.971416139805598</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>107.23478473456873</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>97.909144676919865</v>
+        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>108.73034417364994</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>93.153419241400201</v>
+        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>88.367432158919257</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>98.518816189259724</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>97.703115086472508</v>
+        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>103.47115681249586</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>89.064462789800743</v>
+        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>102.30345240929285</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>93.936707646502271</v>
+        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>88.586205282280972</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>95.590811464273585</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>86.358994256295119</v>
+        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>97.184250673631652</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>103.34247619047619</v>
+        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>95.342476190476191</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>93.450685994670195</v>
+        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>102.41806113701155</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>91.298326492202662</v>
+        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>94.225565902857426</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>101.53258923556157</v>
+        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>106.32742001548627</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>83.210321475444061</v>
+        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>93.996032144083756</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>77.070455146291181</v>
+        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>86.505945219907929</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>80.61727107174589</v>
+        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>70.630155725120005</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -29668,100 +29668,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>78.946488465640385</v>
+        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>72.574778528530757</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>75.083114870527183</v>
+        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>69.162193922321876</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>66.717611770805689</v>
+        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>60.764108414170835</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>68.095901687509766</v>
+        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>64.253900927195659</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>61.509030862224229</v>
+        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>62.785231326102803</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>64.24491936862438</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>111.80911046692799</v>
+        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>104.87917717458812</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>117.38185658670925</v>
+        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>116.27924847575348</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>111.65818825633391</v>
+        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>128.58201883640407</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>133.69107285758972</v>
+        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>119.17727616490025</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>115.77275730485509</v>
+        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>103.20540215598433</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>126.72682539682539</v>
+        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>136.7268253968254</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>130.43388217371785</v>
+        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>122.18188765155197</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>104.03124968661936</v>
+        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>117.27403254428863</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>111.71024369763722</v>
+        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>97.799371515734791</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>105.456137319812</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>97.874106544930498</v>
+        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>104.87773622686706</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>101.24478745348587</v>
+        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>97.007906933682023</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>106.90677489985833</v>
+        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>112.20287554961315</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>107.13435215468026</v>
+        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>118.96123784382463</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>97.296277905100126</v>
+        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>105.66539523846286</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>98.018431032108253</v>
+        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>92.346474346927636</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>78.921334777382484</v>
+        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>85.31757082212782</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>84.039103843513956</v>
+        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>73.981160307519161</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -30613,100 +30613,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>64.453468148110701</v>
+        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>56.747956058168292</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>51.926315264090768</v>
+        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>51.404791545475824</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>53.662552787260239</v>
+        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>52.680571827065677</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>54.376091810331012</v>
+        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>55.831571019966468</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>48.738035710105443</v>
+        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>56.863130119316331</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>60.929062048935457</v>
+        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>60.380768617265417</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>74.211017013384378</v>
+        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>62.963613835674373</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>77.28639932667015</v>
+        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>81.724236650461563</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>77.821278864309747</v>
+        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>84.0840084695065</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>88.699050792601199</v>
+        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>89.508523604590991</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>81.145776447584822</v>
+        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>79.51201819323245</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>73.095605189901946</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>84.943030591641417</v>
+        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>77.709082663378268</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>73.429859136012524</v>
+        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>81.301825191169172</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>78.051213587677978</v>
+        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>82.624046078035079</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>70.652895276738022</v>
+        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>69.904556310628706</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>74.99834446489912</v>
+        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>83.523940482454535</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>85.445456489295808</v>
+        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>90.710283234162503</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>99.124528909560439</v>
+        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>92.861724342588403</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>91.398514285714285</v>
+        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>88.698514285714282</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>93.320124666521295</v>
+        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>86.33423062160864</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>87.133130003983965</v>
+        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>86.299810347352249</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>74.322773193575401</v>
+        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>78.122101106019215</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>72.426042540464124</v>
+        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>63.694587222906108</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -30714,100 +30714,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>61.039403795037444</v>
+        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>71.859227528594943</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>58.435768908581956</v>
+        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>65.559655116960172</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.201664549386386</v>
+        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>57.451698252483389</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>58.590614339260526</v>
+        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>58.0320859736457</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>58.769596199445466</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.524023117276002</v>
+        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>69.630767207926482</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>75.728762815954227</v>
+        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>69.05597774033356</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>80.724305925821923</v>
+        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>92.326082037505898</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>102.3766379537045</v>
+        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>103.34826730987734</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>96.925399268126213</v>
+        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>105.77910794726901</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>100.81099857336972</v>
+        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>88.367432158919257</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>103.32947088885774</v>
+        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>97.55668524934012</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>106.35517767550755</v>
+        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>105.39383738783698</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>92.847031252512764</v>
+        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>93.792673368190776</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>94.828458040539147</v>
+        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>97.503709222649789</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>91.259804385309522</v>
+        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>79.999185980002977</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>99.890564777965793</v>
+        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>98.988460076521079</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>108.34247619047619</v>
+        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>94.342476190476191</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>110.3890612635372</v>
+        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>105.40718618445867</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>95.20131237307568</v>
+        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>94.225565902857426</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>105.36845385950133</v>
+        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>90.024995363742292</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>85.906749142603971</v>
+        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>98.490078256016972</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>81.788200183099562</v>
+        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>73.139000948950894</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.337078780334792</v>
+        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>71.343521107021857</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -30815,100 +30815,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>79.654456236430349</v>
+        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>71.15884298695083</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>69.820074027678018</v>
+        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>75.083114870527183</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>65.526911099478724</v>
+        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>61.954809085497807</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>68.736235147562127</v>
+        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>64.253900927195659</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>64.061431789981384</v>
+        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>69.166233645495709</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.249266567690768</v>
+        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>71.562312972047593</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>95.969262941579714</v>
+        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>107.84914858559092</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>117.38185658670925</v>
+        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>114.07403225384192</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>115.28472338063465</v>
+        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>112.86703329776749</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>116.75831004945201</v>
+        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>119.17727616490025</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>115.77275730485509</v>
+        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>110.06032314627747</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>135.4768253968254</v>
+        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>120.47682539682539</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>109.21446768814845</v>
+        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>106.85675496752961</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>121.68829349684506</v>
+        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>118.37759778242774</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>101.00957278848151</v>
+        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>107.42997533397494</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>111.45541996738358</v>
+        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>95.457332907192708</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>94.872550966957675</v>
+        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>97.874106544930498</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>117.13308940275034</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>96.314573600348695</v>
+        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>100.55145412015254</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>102.83366644953685</v>
+        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>114.66055213868123</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>114.03451257182562</v>
+        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>106.71153490513321</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>98.018431032108253</v>
+        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>94.23712657532117</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>78.921334777382484</v>
+        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>78.121805271789327</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>88.681231629357711</v>
+        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>84.812791807821256</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -31760,100 +31760,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>10.813262185630244</v>
+        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <v>10.698227481527795</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>9.1396649052026593</v>
+        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <v>9.5833379588532743</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
         <v>8.0519049917307015</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>7.1359916743105289</v>
+        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <v>8.176657126814149</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>8.3639409502456648</v>
+        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <v>8.6173937063137149</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>10.699681708161146</v>
+        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <v>9.5457944651241586</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>17.739903739454682</v>
+        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <v>14.64762694083414</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>20.663586408420034</v>
+        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <v>18.279326438217723</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>25.251184597548178</v>
+        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <v>24.33295970309188</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>25.531147986861733</v>
+        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <v>25.78393163029601</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>23.452358806480881</v>
+        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <v>27.021196016162754</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>25.535299792538485</v>
+        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <v>23.532531181358994</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>24.88981644843928</v>
+        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <v>26.901114747303062</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>25.880064031508198</v>
+        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <v>26.377757570575664</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>24.020270595476109</v>
+        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <v>22.22436251357135</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
         <v>21.328424277652452</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
         <v>23.771878646514182</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>32.1</v>
+        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <v>33</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>31.154707063350411</v>
+        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <v>27.559933171425364</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>31.365704704235807</v>
+        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <v>28.751895978882821</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>27.15054724791359</v>
+        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <v>24.46237425307066</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>25.580295200574021</v>
+        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <v>21.994272508904764</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>21.253862362265</v>
+        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <v>18.524008480873164</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>16.455401457579349</v>
+        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <v>14.061888518295078</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -31861,100 +31861,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-31.132897830990327</v>
+        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <v>-27.350396225355986</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-29.409889474908006</v>
+        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <v>-31.307301699095618</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-33.041028932258058</v>
+        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <v>-36.106691410508809</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-33.138648183003248</v>
+        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <v>-33.81494712551352</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-34.299999999999997</v>
+        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <v>-37.450000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
         <v>-28.664061322339347</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-24.129936488244386</v>
+        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <v>-22.041768907530926</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-8.8818236981163636</v>
+        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <v>-9.3593411012408989</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-2.7562721272999569</v>
+        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <v>-2.7843973530887323</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.4091742908371328</v>
+        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <v>-0.40477456727974426</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-4.1868102467824473</v>
+        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <v>-4.0683156171565287</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-3.1070999063725728</v>
+        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <v>-2.7586401037887325</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-4.1800702083488774</v>
+        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <v>-3.8987193289407798</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-4.1761784043283967</v>
+        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <v>-3.8518150331184242</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-9.4299972819936464</v>
+        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <v>-10.454996986558173</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-14.023529040574426</v>
+        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <v>-15.49968999221384</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-13.784143438299969</v>
+        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <v>-12.077535203081878</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>-4.9293153105021688</v>
+        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <v>-4.7052555236611608</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-6.9748302299744198</v>
+        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <v>-7.1703862177307123</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-7.6205198999481212</v>
+        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <v>-7.8663431225270921</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-11.970486312328481</v>
+        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <v>-12.485345938665189</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-15.204308009995948</v>
+        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <v>-15.705548933402408</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-23.76106150555723</v>
+        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <v>-21.967773844760455</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-25.988159330546193</v>
+        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <v>-23.969661518464932</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -31962,100 +31962,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>42.786281836671662</v>
+        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <v>41.575349331860195</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>50</v>
+        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>49.5</v>
+        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <v>53.5</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>51</v>
+        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <v>52.5</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>54</v>
+        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <v>45.5</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>43.348548289006601</v>
+        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <v>39.702408713295767</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>16.721741331392934</v>
+        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <v>18.191784525361541</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>2.1290942754628754</v>
+        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <v>2.6022263366768481</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>-12.596091059454192</v>
+        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <v>-14.949206971659921</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>-14.257114056305294</v>
+        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <v>-14.533951222447145</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>-1.2159157284203215</v>
+        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <v>-1.2039949859848282</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>-14.867883972516074</v>
+        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <v>-15.300929136764116</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>-12.991354927441231</v>
+        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <v>-13.13570331552391</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>-12.179183352649753</v>
+        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <v>-10.950091454675924</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.3897344106078398</v>
+        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <v>-1.4453237870321534</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>8.0582996037635475</v>
+        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <v>8.8137651916163815</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>11.538774310675468</v>
+        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <v>11.305667758944649</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>12.704307069329555</v>
+        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <v>11.305667758944649</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>12.004987414137103</v>
+        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <v>10.489794827886788</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>12.587753793464147</v>
+        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <v>11.888434138271693</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>10.606348103752197</v>
+        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <v>10.489794827886788</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>24.548162654184594</v>
+        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <v>23.089855961856795</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>36.781030211704334</v>
+        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <v>34.923402423234421</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>40.124760230950187</v>
+        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <v>40.867811346338151</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
